--- a/Dataset/公司报表.xlsx
+++ b/Dataset/公司报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DEDF15-1DA3-4C91-B442-BA8ED97F8AF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087F3DE-5F62-469D-98CF-8527BC55E7E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,12 @@
     <sheet name="现金流量表" sheetId="3" r:id="rId3"/>
     <sheet name="基础数据表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="217">
-  <si>
-    <t>公司</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="222">
   <si>
     <t>货币E</t>
   </si>
@@ -702,6 +699,29 @@
   </si>
   <si>
     <t>格力电器20170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器20170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛海尔20170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团20170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,13 +779,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1080,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI5"/>
+  <dimension ref="A1:CI6"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BG10" sqref="BG10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1139,270 +1160,270 @@
   <sheetData>
     <row r="1" spans="1:87">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:87">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2">
         <v>95613130731.470001</v>
@@ -1651,7 +1672,7 @@
         <v>161698016315.06</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CG2" s="3">
         <v>2016</v>
@@ -1660,12 +1681,12 @@
         <v>0</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:87">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2">
         <v>174121009199.92999</v>
@@ -1914,7 +1935,7 @@
         <v>830674213924.14001</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG3" s="3">
         <v>2017</v>
@@ -1923,12 +1944,12 @@
         <v>0</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:87">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="2">
         <v>35177276903.910004</v>
@@ -2177,7 +2198,7 @@
         <v>131469157348.78999</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CG4" s="3">
         <v>2017</v>
@@ -2186,12 +2207,12 @@
         <v>0</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:87">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="2">
         <v>99610431730.399994</v>
@@ -2434,7 +2455,7 @@
         <v>182373990389.45999</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CG5" s="3">
         <v>2017</v>
@@ -2443,7 +2464,270 @@
         <v>0</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="6">
+        <v>48274200000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>27169118000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>353327000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>412813000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10854226000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7427488000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>17528717000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>13454511000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1672248000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1587366000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>29444166000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>15626897000</v>
+      </c>
+      <c r="N6" s="6">
+        <v>46847271000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>43529597000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>169810676000</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>120621320000</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1831051000</v>
+      </c>
+      <c r="S6" s="6">
+        <v>5187732000</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2633698000</v>
+      </c>
+      <c r="U6" s="6">
+        <v>2211732000</v>
+      </c>
+      <c r="V6" s="6">
+        <v>420802000</v>
+      </c>
+      <c r="W6" s="6">
+        <v>494122000</v>
+      </c>
+      <c r="X6" s="6">
+        <v>22600724000</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>21056791000</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>879576000</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>580729000</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>15167036000</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>6868538000</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>28903785000</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>5730995000</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>4023334000</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>3030383000</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>614822000</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>4158530000</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>78296182000</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>49979391000</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>248106858000</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>170600711000</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>2584102000</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>3024426000</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>25207785000</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>18484939000</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>35144777000</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>25356960000</v>
+      </c>
+      <c r="AT6" s="6">
+        <v>17409063000</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>10252375000</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>5247500000</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>3154387000</v>
+      </c>
+      <c r="AX6" s="6">
+        <v>3544154000</v>
+      </c>
+      <c r="AY6" s="6">
+        <v>2364446000</v>
+      </c>
+      <c r="AZ6" s="6">
+        <v>94801000</v>
+      </c>
+      <c r="BA6" s="6">
+        <v>21343000</v>
+      </c>
+      <c r="BB6" s="6">
+        <v>3170405000</v>
+      </c>
+      <c r="BC6" s="6">
+        <v>1571422000</v>
+      </c>
+      <c r="BD6" s="6">
+        <v>119091857000</v>
+      </c>
+      <c r="BE6" s="6">
+        <v>89184000000</v>
+      </c>
+      <c r="BF6" s="6">
+        <v>32986325000</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>2254348000</v>
+      </c>
+      <c r="BH6" s="6">
+        <v>4553054000</v>
+      </c>
+      <c r="BI6" s="6">
+        <v>4818769000</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>994059000</v>
+      </c>
+      <c r="BK6" s="6">
+        <v>888152000</v>
+      </c>
+      <c r="BL6" s="6">
+        <v>3972823000</v>
+      </c>
+      <c r="BM6" s="6">
+        <v>1831973000</v>
+      </c>
+      <c r="BN6" s="6">
+        <v>46089830000</v>
+      </c>
+      <c r="BO6" s="6">
+        <v>12440015000</v>
+      </c>
+      <c r="BP6" s="6">
+        <v>165181687000</v>
+      </c>
+      <c r="BQ6" s="6">
+        <v>101624015000</v>
+      </c>
+      <c r="BR6" s="6">
+        <v>6561053000</v>
+      </c>
+      <c r="BS6" s="6">
+        <v>6458767000</v>
+      </c>
+      <c r="BT6" s="6">
+        <v>15911504000</v>
+      </c>
+      <c r="BU6" s="6">
+        <v>13596569000</v>
+      </c>
+      <c r="BV6" s="6">
+        <v>366842</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="6">
+        <v>3882232000</v>
+      </c>
+      <c r="BY6" s="6">
+        <v>2804469000</v>
+      </c>
+      <c r="BZ6" s="6">
+        <v>47627235000</v>
+      </c>
+      <c r="CA6" s="6">
+        <v>38105391000</v>
+      </c>
+      <c r="CB6" s="6">
+        <v>82925171000</v>
+      </c>
+      <c r="CC6" s="6">
+        <v>68976696000</v>
+      </c>
+      <c r="CD6" s="6">
+        <v>248106858000</v>
+      </c>
+      <c r="CE6" s="6">
+        <v>170600711000</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="CH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2484,16 +2768,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2514,132 +2800,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2">
         <v>110113101850.23</v>
@@ -2750,7 +3036,7 @@
         <v>12484010303.780001</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM2" s="3">
         <v>2016</v>
@@ -2759,12 +3045,12 @@
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2">
         <v>242897110250.51999</v>
@@ -2875,7 +3161,7 @@
         <v>28311311325.540001</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM3" s="3">
         <v>2017</v>
@@ -2884,12 +3170,12 @@
         <v>0</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2">
         <v>150019551611.75</v>
@@ -3000,7 +3286,7 @@
         <v>15474851482.24</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM4" s="3">
         <v>2017</v>
@@ -3009,12 +3295,12 @@
         <v>0</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="2">
         <v>159254466909.45999</v>
@@ -3125,7 +3411,7 @@
         <v>6659288647.04</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM5" s="3">
         <v>2017</v>
@@ -3134,7 +3420,134 @@
         <v>0</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="6">
+        <v>241918896000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>159841701000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>240712301000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>159044041000</v>
+      </c>
+      <c r="F6" s="6">
+        <f>H6+J6+L6+N6+P6+R6</f>
+        <v>224462763000</v>
+      </c>
+      <c r="G6" s="6">
+        <f>I6+K6+M6+O6+Q6+S6</f>
+        <v>143425412000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>180460552000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>115615437000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>250925000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>439607000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1416428000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1077119000</v>
+      </c>
+      <c r="N6" s="6">
+        <v>26738673000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>17678451000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>14780236000</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>9620777000</v>
+      </c>
+      <c r="R6" s="6">
+        <v>815949000</v>
+      </c>
+      <c r="S6" s="6">
+        <v>-1005979000</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1830221000</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1285961000</v>
+      </c>
+      <c r="V6" s="6">
+        <v>21627854000</v>
+      </c>
+      <c r="W6" s="6">
+        <v>17324101000</v>
+      </c>
+      <c r="X6" s="6">
+        <v>467204000</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1758220000</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>240284000</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>167718000</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>21854774000</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>18914603000</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>3243584000</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>3052691000</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>18611190000</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>15861912000</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>18300562000</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>17050127000</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3555,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD257835-D717-428E-84E5-D0B3B82AC0E8}">
           <x14:formula1>
             <xm:f>基础数据表!$B$4:$B$38</xm:f>
@@ -3153,7 +3566,7 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$28</xm:f>
           </x14:formula1>
-          <xm:sqref>AL2:AL1048576</xm:sqref>
+          <xm:sqref>AL2:AL5 AL7:AL1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2417C863-140F-476E-A3CC-75593D8F8DAA}">
           <x14:formula1>
@@ -3167,6 +3580,12 @@
           </x14:formula1>
           <xm:sqref>AN2:AN1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{302DFDD0-7217-4772-8C5F-68AF0FEBE3E3}">
+          <x14:formula1>
+            <xm:f>基础数据表!$C$4:$C$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>AL6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3175,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="BS9" sqref="BS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3191,9 +3610,7 @@
     <col min="12" max="15" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -3202,16 +3619,15 @@
     <col min="29" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="38" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.28515625" style="1" customWidth="1"/>
     <col min="42" max="42" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="21" style="1" customWidth="1"/>
     <col min="44" max="44" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="49" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -3233,234 +3649,234 @@
   <sheetData>
     <row r="1" spans="1:75">
       <c r="A1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="BV1" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="BW1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:75">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2">
         <v>69896621293.210007</v>
@@ -3534,6 +3950,12 @@
       <c r="Y2" s="2">
         <v>1228803.43</v>
       </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
       <c r="AB2" s="2">
         <v>6500000</v>
       </c>
@@ -3558,6 +3980,12 @@
       <c r="AI2" s="2">
         <v>2832663335.6199999</v>
       </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
       <c r="AL2" s="2">
         <v>17913927388.57</v>
       </c>
@@ -3576,12 +4004,24 @@
       <c r="AQ2" s="2">
         <v>-4713154864.4799995</v>
       </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
       <c r="AT2" s="2">
         <v>12382413204.610001</v>
       </c>
       <c r="AU2" s="2">
         <v>10096926967.84</v>
       </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
       <c r="AX2" s="2">
         <v>2110522945.98</v>
       </c>
@@ -3594,6 +4034,12 @@
       <c r="BA2" s="2">
         <v>11354411980.549999</v>
       </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
       <c r="BD2" s="2">
         <v>11054156840.309999</v>
       </c>
@@ -3609,6 +4055,9 @@
       <c r="BH2" s="2">
         <v>10271924.02</v>
       </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
       <c r="BJ2" s="2">
         <v>20244496336.040001</v>
       </c>
@@ -3640,7 +4089,7 @@
         <v>77365016845.220001</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BU2" s="3">
         <v>2016</v>
@@ -3649,12 +4098,12 @@
         <v>0</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:75">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2">
         <v>368405223395.35999</v>
@@ -3662,6 +4111,12 @@
       <c r="C3" s="2">
         <v>286532938270.71002</v>
       </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="2">
         <v>43855663432.5</v>
       </c>
@@ -3797,6 +4252,9 @@
       <c r="AX3" s="2">
         <v>4324560000</v>
       </c>
+      <c r="AY3" s="1">
+        <v>0</v>
+      </c>
       <c r="AZ3" s="2">
         <v>123774549529.13</v>
       </c>
@@ -3821,6 +4279,12 @@
       <c r="BG3" s="2">
         <v>16026457227.879999</v>
       </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
       <c r="BJ3" s="2">
         <v>68509653311.43</v>
       </c>
@@ -3852,7 +4316,7 @@
         <v>79490014945.690002</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BU3" s="3">
         <v>2017</v>
@@ -3861,7 +4325,688 @@
         <v>0</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75">
+      <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="2">
+        <v>107599120105.06</v>
+      </c>
+      <c r="C4" s="2">
+        <v>69896621293.210007</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1657283101.3699999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1139337699.5999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2679909329.7399998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2938953031.3299999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>113641295891.16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>75515562749.990005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>58365165226.980003</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40478783811.269997</v>
+      </c>
+      <c r="L4" s="2">
+        <v>13196771806.07</v>
+      </c>
+      <c r="M4" s="2">
+        <v>11333898757.719999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15589887099.860001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>8371651668.8199997</v>
+      </c>
+      <c r="P4" s="2">
+        <v>97282757643.330002</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>60655610643.07</v>
+      </c>
+      <c r="R4" s="2">
+        <v>16358538247.83</v>
+      </c>
+      <c r="S4" s="2">
+        <v>14859952106.92</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3403888789.0500002</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3142289553.3499999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>152095873.44999999</v>
+      </c>
+      <c r="W4" s="2">
+        <v>264728491.86000001</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3549493.8</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>27196374.800000001</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>443244425.44999999</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>4002778581.75</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>3440714420.0100002</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>2424806990.73</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>3276936026.6799998</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>12419732249.51</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1496403698.8599999</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>51411697310.269997</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>17913927388.57</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>66256236550.510002</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>22687267114.110001</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>-62253457968.760002</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>-19246552694.099998</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>90490000</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>21610162758.279999</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>12382413204.610001</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>160275000</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>2110522945.98</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>21860927758.279999</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>14492936150.59</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>13008985202.68</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>11054156840.309999</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>11121283724.41</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>9180067571.7099991</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>10271924.02</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>24130268927.09</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>20244496336.040001</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>-2269341168.8099999</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>-5751560185.4499998</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>-1798027435.5699999</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>4094503950.2399998</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>-49962288325.309998</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>-6043656822.3900003</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>21359071697.52</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>71321360022.830002</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>2017</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75">
+      <c r="A5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="2">
+        <v>163243966287.70999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>136620390069.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1138156799.9300001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>805140490.25999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1097869725.1700001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1349184967.4300001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>165479992812.81</v>
+      </c>
+      <c r="I5" s="2">
+        <v>138774715526.89001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>111342509878.34</v>
+      </c>
+      <c r="K5" s="2">
+        <v>101379852303.83</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7835178863.9499998</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6348293330.29</v>
+      </c>
+      <c r="N5" s="2">
+        <v>13887073804.059999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>10738781692.67</v>
+      </c>
+      <c r="P5" s="2">
+        <v>149393404784.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>130638837175.00999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>16086588028.309999</v>
+      </c>
+      <c r="S5" s="2">
+        <v>8135878351.8800001</v>
+      </c>
+      <c r="T5" s="2">
+        <v>275405926.37</v>
+      </c>
+      <c r="U5" s="2">
+        <v>682200570.32000005</v>
+      </c>
+      <c r="V5" s="2">
+        <v>282045768.45999998</v>
+      </c>
+      <c r="W5" s="2">
+        <v>130529291.68000001</v>
+      </c>
+      <c r="X5" s="2">
+        <v>191270429.93000001</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>260932344.56</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>23620711.449999999</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>41133607.210000001</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>191730448.52000001</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>10042470.810000001</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>964073284.73000002</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1124838284.5799999</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>3967160912.29</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>2627363433.7800002</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>2566398552.0599999</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1448790904.9300001</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>52334438.579999998</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>36647350833.82</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>27136079.07</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>6585893902.9300003</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>40750641251.599998</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>-5621820618.1999998</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>-39625802967.019997</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>1379989798.26</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>94182889.430000007</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>18694640060.560001</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>43446247876.57</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>6796000000</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>24716628.629999999</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>26870629858.82</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>43565147394.629997</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>22922113456.970001</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>11685054603.51</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>2898969569.6100001</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>1807044796.22</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>126660039.02</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>223282344.34999999</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>25947743065.599998</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>13715381744.08</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>922886793.22000003</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>29849765650.549999</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>-342880074.16000003</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>209746501.09</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>11044774129.17</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>-1430412463.5</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>34340013574.220001</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>23295239445.049999</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>2017</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="6">
+        <v>195820338000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>153324273000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5476543000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5124402000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4771036000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3139286000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>207315612000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>162658812000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>116508042000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>89440654000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>11139448000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>8824342000</v>
+      </c>
+      <c r="N6" s="6">
+        <v>29139920000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>21802729000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>182872989000</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>135963803000</v>
+      </c>
+      <c r="R6" s="6">
+        <v>24442623000</v>
+      </c>
+      <c r="S6" s="6">
+        <v>26695009000</v>
+      </c>
+      <c r="T6" s="6">
+        <v>85127382000</v>
+      </c>
+      <c r="U6" s="6">
+        <v>73905220000</v>
+      </c>
+      <c r="V6" s="6">
+        <v>2727603000</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1954049000</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1441101000</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>191159000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>272899000</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>89296086000</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>76323327000</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>3218402000</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2323430000</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>94967122000</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>90880725000</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>25850170000</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>2900256000</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>124035694000</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>96104411000</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>34739608000</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>19781084000</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>1668205000</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>814845000</v>
+      </c>
+      <c r="AT6" s="6">
+        <v>62169886000</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>32422027000</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>1999500000</v>
+      </c>
+      <c r="AX6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="6">
+        <v>63838091000</v>
+      </c>
+      <c r="BA6" s="6">
+        <v>35236372000</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="6">
+        <v>36074251000</v>
+      </c>
+      <c r="BE6" s="6">
+        <v>26961143000</v>
+      </c>
+      <c r="BF6" s="6">
+        <v>7908056000</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>6046355000</v>
+      </c>
+      <c r="BH6" s="6">
+        <v>204139000</v>
+      </c>
+      <c r="BI6" s="6">
+        <v>69462000</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>44186446000</v>
+      </c>
+      <c r="BK6" s="6">
+        <v>35076460000</v>
+      </c>
+      <c r="BL6" s="6">
+        <v>19651645000</v>
+      </c>
+      <c r="BM6" s="6">
+        <v>159912000</v>
+      </c>
+      <c r="BN6" s="6">
+        <v>-36737000</v>
+      </c>
+      <c r="BO6" s="6">
+        <v>252576000</v>
+      </c>
+      <c r="BP6" s="6">
+        <v>9317923000</v>
+      </c>
+      <c r="BQ6" s="6">
+        <v>7326413000</v>
+      </c>
+      <c r="BR6" s="6">
+        <v>21831653000</v>
+      </c>
+      <c r="BS6" s="6">
+        <v>12513730000</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="BV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +5014,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE41C8D8-01A7-4596-9D5C-45AA9E57098C}">
           <x14:formula1>
             <xm:f>基础数据表!$B$4:$B$36</xm:f>
@@ -3880,7 +5025,7 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>BT2:BT1048576</xm:sqref>
+          <xm:sqref>BT2:BT5 BT7:BT1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54123E2F-1850-4D93-A71D-1A5A22644195}">
           <x14:formula1>
@@ -3894,6 +5039,12 @@
           </x14:formula1>
           <xm:sqref>BV2:BV1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE277DC7-8325-4C34-93A9-BD9DB9CFD52E}">
+          <x14:formula1>
+            <xm:f>基础数据表!$C$4:$C$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>BT6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3905,31 +5056,31 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -3940,10 +5091,10 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5">
         <v>2011</v>
@@ -3954,7 +5105,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6">
         <v>2012</v>
@@ -3964,6 +5115,9 @@
       </c>
     </row>
     <row r="7" spans="2:5">
+      <c r="B7" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="D7">
         <v>2013</v>
       </c>

--- a/Dataset/公司报表.xlsx
+++ b/Dataset/公司报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087F3DE-5F62-469D-98CF-8527BC55E7E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E0145F-62AD-4B5E-9515-DA61B6873311}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="227">
   <si>
     <t>货币E</t>
   </si>
@@ -722,6 +722,24 @@
   </si>
   <si>
     <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶酒饮料</t>
+  </si>
+  <si>
+    <t>茶酒饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州茅台20170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -787,6 +805,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1101,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI6"/>
+  <dimension ref="A1:CI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CE14" sqref="CE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1124,8 +1145,7 @@
     <col min="26" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="18" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2728,6 +2748,269 @@
       </c>
       <c r="CI6" s="1" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87">
+      <c r="A7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2">
+        <v>87868869913.339996</v>
+      </c>
+      <c r="C7" s="2">
+        <v>66854962118.220001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1221706039</v>
+      </c>
+      <c r="G7" s="2">
+        <v>817627172</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>790807322.07000005</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1046100696.92</v>
+      </c>
+      <c r="L7" s="2">
+        <v>22057481376.459999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>20622251825.549999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>37539231.490000002</v>
+      </c>
+      <c r="O7" s="2">
+        <v>231474570.63</v>
+      </c>
+      <c r="P7" s="2">
+        <v>112249185961.60001</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>90180548805.570007</v>
+      </c>
+      <c r="R7" s="2">
+        <v>29000000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>29000000</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>15244096632.02</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>14453177439.34</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2016405005.77</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>2745579995.6799998</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>3458622239.3800001</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>3531740625.5999999</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1401797361.77</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1745539120.6800001</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>22360930913.48</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>22753989474.84</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>134610116875.08</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>112934538280.41</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>992055910.47000003</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>1040608203.1799999</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>14429106902.379999</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>17541082237.009998</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>1901644193.6400001</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>1628507252.03</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>7726135741.8999996</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>4272289194.5700002</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>23414593.670000002</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>34481635.329999998</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>3039948303.8000002</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>1724638571.4400001</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>38574919400</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>37020425425.690002</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>15570000</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>15570000</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>15570000</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>15570000</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>38590489400</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>37035995425.690002</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>1256197800</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>1256197800</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>1374964415.72</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>1374964415.72</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>8215595509.6899996</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>7135649963.1199999</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>80011307450.330002</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>62717808036.610001</v>
+      </c>
+      <c r="CB7" s="2">
+        <v>96019627475.080002</v>
+      </c>
+      <c r="CC7" s="2">
+        <v>75898542854.720001</v>
+      </c>
+      <c r="CD7" s="2">
+        <v>134610116875.08</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>112934538280.41</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CG7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="CH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2768,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3548,6 +3831,131 @@
       </c>
       <c r="AO6" s="1" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2">
+        <v>61062756866.160004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>40155084412.93</v>
+      </c>
+      <c r="D7" s="2">
+        <v>58217861314.169998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>38862189993.839996</v>
+      </c>
+      <c r="F7" s="2">
+        <v>22122749332.709999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15889459243.51</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5940436371.9700003</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3410104085.9699998</v>
+      </c>
+      <c r="J7" s="2">
+        <v>135187797.06</v>
+      </c>
+      <c r="K7" s="2">
+        <v>122961049.54000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>8404214470.6899996</v>
+      </c>
+      <c r="M7" s="2">
+        <v>6508926343.2600002</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2986068544.9899998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1681052022.9000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4720542820.1400003</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4187189840.4200001</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-55722346.189999998</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-33175188.52</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>38940007533.449997</v>
+      </c>
+      <c r="W7" s="2">
+        <v>24265625169.419998</v>
+      </c>
+      <c r="X7" s="2">
+        <v>12201990.51</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>8553926.0600000005</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>212137381.36000001</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>316298138.37</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>38740072142.599998</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>23957880957.110001</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>9733648906.6000004</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>6027237847.2299995</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>29006423236</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>17930643109.880001</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>21.56</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>13.31</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>29010262501.16</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>17932436343.790001</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3594,10 +4002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
-  <dimension ref="A1:BW6"/>
+  <dimension ref="A1:BW7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BS9" sqref="BS9"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5009,6 +5417,233 @@
         <v>220</v>
       </c>
     </row>
+    <row r="7" spans="1:75">
+      <c r="A7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2">
+        <v>64421479343.019997</v>
+      </c>
+      <c r="C7" s="2">
+        <v>61012964102.540001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>542162210.47000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>189142723.94999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>67369462511.809998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>67279145637.93</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4875768504.1599998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2773020403.27</v>
+      </c>
+      <c r="L7" s="2">
+        <v>23065648503.049999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>17510516331.200001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2940296363.54</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2371486776.8800001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>45216426427.68</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>29827895990.880001</v>
+      </c>
+      <c r="R7" s="2">
+        <v>22153036084.130001</v>
+      </c>
+      <c r="S7" s="2">
+        <v>37451249647.050003</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>16450</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>92084.5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>21430672.949999999</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>5562351.1900000004</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>21447122.949999999</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>5654435.6900000004</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1125017192.45</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1019178136.92</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>17075145.100000001</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>88977102.969999999</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>1142092337.55</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1108155239.8900001</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>-1120645214.5999999</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>-1102500804.2</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>8905177880.7999992</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>8350512252.2299995</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>8905177880.7999992</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>8350512252.2299995</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>-8899177880.7999992</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>-8334512252.2299995</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>72948.86</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>72317.8</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>12133285937.59</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>28014308908.419998</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>74928080750.580002</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>62794794812.989998</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5056,7 +5691,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5107,6 +5742,9 @@
       <c r="B6" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="D6">
         <v>2012</v>
       </c>
@@ -5126,6 +5764,9 @@
       </c>
     </row>
     <row r="8" spans="2:5">
+      <c r="B8" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="D8">
         <v>2014</v>
       </c>

--- a/Dataset/公司报表.xlsx
+++ b/Dataset/公司报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E0145F-62AD-4B5E-9515-DA61B6873311}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0ABA27-59E4-46F4-8857-9DCE21735CAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="227">
-  <si>
-    <t>货币E</t>
-  </si>
-  <si>
-    <t>货币B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="223">
   <si>
     <t>应收票据E</t>
   </si>
@@ -43,36 +37,12 @@
     <t>应收账款B</t>
   </si>
   <si>
-    <t>预付E</t>
-  </si>
-  <si>
-    <t>预付B</t>
-  </si>
-  <si>
     <t>存货E</t>
   </si>
   <si>
     <t>存货B</t>
   </si>
   <si>
-    <t>流资其他E</t>
-  </si>
-  <si>
-    <t>流资其他B</t>
-  </si>
-  <si>
-    <t>流资合E</t>
-  </si>
-  <si>
-    <t>流资合B</t>
-  </si>
-  <si>
-    <t>供售金融资产E</t>
-  </si>
-  <si>
-    <t>供售金融资产B</t>
-  </si>
-  <si>
     <t>长期股权投资E</t>
   </si>
   <si>
@@ -109,30 +79,12 @@
     <t>商誉B</t>
   </si>
   <si>
-    <t>非流资其他E</t>
-  </si>
-  <si>
-    <t>非流资其他B</t>
-  </si>
-  <si>
-    <t>非流资合E</t>
-  </si>
-  <si>
-    <t>非流资合B</t>
-  </si>
-  <si>
     <t>资产总计E</t>
   </si>
   <si>
     <t>资产总计B</t>
   </si>
   <si>
-    <t>短借E</t>
-  </si>
-  <si>
-    <t>短借B</t>
-  </si>
-  <si>
     <t>应付票据E</t>
   </si>
   <si>
@@ -145,72 +97,12 @@
     <t>应付账款B</t>
   </si>
   <si>
-    <t>预收E</t>
-  </si>
-  <si>
-    <t>预收B</t>
-  </si>
-  <si>
-    <t>应付薪E</t>
-  </si>
-  <si>
-    <t>应付薪B</t>
-  </si>
-  <si>
-    <t>应交税E</t>
-  </si>
-  <si>
-    <t>应交税B</t>
-  </si>
-  <si>
-    <t>应付息E</t>
-  </si>
-  <si>
-    <t>应付息B</t>
-  </si>
-  <si>
-    <t>应付其他E</t>
-  </si>
-  <si>
-    <t>应付其他B</t>
-  </si>
-  <si>
-    <t>流动负债合E</t>
-  </si>
-  <si>
-    <t>流动负债合B</t>
-  </si>
-  <si>
-    <t>长借E</t>
-  </si>
-  <si>
-    <t>长借B</t>
-  </si>
-  <si>
     <t>应付债券E</t>
   </si>
   <si>
     <t>应付债券B</t>
   </si>
   <si>
-    <t>非流负债其他E</t>
-  </si>
-  <si>
-    <t>非流负债其他B</t>
-  </si>
-  <si>
-    <t>非流负债递延税E</t>
-  </si>
-  <si>
-    <t>非流负债递延税B</t>
-  </si>
-  <si>
-    <t>非流负债合E</t>
-  </si>
-  <si>
-    <t>非流负债合B</t>
-  </si>
-  <si>
     <t>负债合计E</t>
   </si>
   <si>
@@ -247,18 +139,6 @@
     <t>未分配利润B</t>
   </si>
   <si>
-    <t>股东权益合E</t>
-  </si>
-  <si>
-    <t>股东权益合B</t>
-  </si>
-  <si>
-    <t>负债和股东权益总E</t>
-  </si>
-  <si>
-    <t>负债和股东权益总B</t>
-  </si>
-  <si>
     <t>行业类型</t>
   </si>
   <si>
@@ -304,12 +184,6 @@
     <t>其中利息支出B</t>
   </si>
   <si>
-    <t>其中税金E</t>
-  </si>
-  <si>
-    <t>其中税金B</t>
-  </si>
-  <si>
     <t>其中销售费用E</t>
   </si>
   <si>
@@ -358,12 +232,6 @@
     <t>四利润总额B</t>
   </si>
   <si>
-    <t>减所得税E</t>
-  </si>
-  <si>
-    <t>减所得税B</t>
-  </si>
-  <si>
     <t>五净利润E</t>
   </si>
   <si>
@@ -379,202 +247,10 @@
     <t>八综合收益总额B</t>
   </si>
   <si>
-    <t>销售收到E</t>
-  </si>
-  <si>
-    <t>销售收到B</t>
-  </si>
-  <si>
-    <t>税费返还E</t>
-  </si>
-  <si>
-    <t>税费返还B</t>
-  </si>
-  <si>
-    <t>收到经营其他E</t>
-  </si>
-  <si>
-    <t>收到经营其他B</t>
-  </si>
-  <si>
-    <t>经营流入计E</t>
-  </si>
-  <si>
-    <t>经营流入计B</t>
-  </si>
-  <si>
-    <t>购买支付E</t>
-  </si>
-  <si>
-    <t>购买支付B</t>
-  </si>
-  <si>
-    <t>支付税费E</t>
-  </si>
-  <si>
-    <t>支付税费B</t>
-  </si>
-  <si>
-    <t>支付经营其他E</t>
-  </si>
-  <si>
-    <t>支付经营其他B</t>
-  </si>
-  <si>
-    <t>经营流出计E</t>
-  </si>
-  <si>
-    <t>经营流出计B</t>
-  </si>
-  <si>
-    <t>经营流量净额E</t>
-  </si>
-  <si>
-    <t>经营流量净额B</t>
-  </si>
-  <si>
-    <t>收回投资E</t>
-  </si>
-  <si>
-    <t>收回投资B</t>
-  </si>
-  <si>
-    <t>取得投资收益E</t>
-  </si>
-  <si>
-    <t>取得投资收益B</t>
-  </si>
-  <si>
-    <t>处置长期资产E</t>
-  </si>
-  <si>
-    <t>处置长期资产B</t>
-  </si>
-  <si>
-    <t>处置营业单位E</t>
-  </si>
-  <si>
-    <t>处置营业单位B</t>
-  </si>
-  <si>
-    <t>其他投资有关E</t>
-  </si>
-  <si>
-    <t>其他投资有关B</t>
-  </si>
-  <si>
-    <t>投资流入计E</t>
-  </si>
-  <si>
-    <t>投资流入计B</t>
-  </si>
-  <si>
-    <t>构建长期资产E</t>
-  </si>
-  <si>
-    <t>构建长期资产B</t>
-  </si>
-  <si>
-    <t>投资支付E</t>
-  </si>
-  <si>
-    <t>投资支付B</t>
-  </si>
-  <si>
-    <t>取得营业单位E</t>
-  </si>
-  <si>
-    <t>取得营业单位B</t>
-  </si>
-  <si>
-    <t>支付投资其他E</t>
-  </si>
-  <si>
-    <t>支付投资其他B</t>
-  </si>
-  <si>
-    <t>吸收投资E</t>
-  </si>
-  <si>
-    <t>吸收投资B</t>
-  </si>
-  <si>
-    <t>取得借款E</t>
-  </si>
-  <si>
-    <t>取得借款B</t>
-  </si>
-  <si>
-    <t>发行债券E</t>
-  </si>
-  <si>
-    <t>发行债券B</t>
-  </si>
-  <si>
-    <t>收到筹资其他E</t>
-  </si>
-  <si>
-    <t>收到筹资其他B</t>
-  </si>
-  <si>
-    <t>筹资流入计E</t>
-  </si>
-  <si>
-    <t>筹资流入计B</t>
-  </si>
-  <si>
     <t>归还投资E</t>
   </si>
   <si>
     <t>归还投资B</t>
-  </si>
-  <si>
-    <t>偿还债务E</t>
-  </si>
-  <si>
-    <t>偿还债务B</t>
-  </si>
-  <si>
-    <t>分配股利利息E</t>
-  </si>
-  <si>
-    <t>分配股利利息B</t>
-  </si>
-  <si>
-    <t>支付筹资其他E</t>
-  </si>
-  <si>
-    <t>支付筹资其他B</t>
-  </si>
-  <si>
-    <t>筹资流出计E</t>
-  </si>
-  <si>
-    <t>筹资流出计B</t>
-  </si>
-  <si>
-    <t>筹资流量净额E</t>
-  </si>
-  <si>
-    <t>筹资流量净额B</t>
-  </si>
-  <si>
-    <t>四汇率变动影响E</t>
-  </si>
-  <si>
-    <t>四汇率变动影响B</t>
-  </si>
-  <si>
-    <t>五现金及等价物净增E</t>
-  </si>
-  <si>
-    <t>五现金及等价物净增B</t>
-  </si>
-  <si>
-    <t>六期末现金及等价物余额E</t>
-  </si>
-  <si>
-    <t>六期末现金及等价物余额B</t>
   </si>
   <si>
     <t>格力电器</t>
@@ -585,14 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>衍生金融资产E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衍生金融资产B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,14 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>递延所得税资产E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递延所得税资产B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六每股收益B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>格力电器20160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,23 +289,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司名称</t>
+    <t>青岛海尔</t>
+  </si>
+  <si>
+    <t>青岛海尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投资流出计E</t>
+    <t>行业类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投资流出计B</t>
+    <t>房地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投资流量净额E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资流量净额B</t>
+    <t>电器</t>
+  </si>
+  <si>
+    <t>电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,36 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青岛海尔</t>
-  </si>
-  <si>
-    <t>青岛海尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电器</t>
-  </si>
-  <si>
-    <t>电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告季度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青岛海尔20170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贵州茅台</t>
   </si>
   <si>
@@ -741,13 +365,364 @@
   <si>
     <t>贵州茅台20170</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中税金及附加E</t>
+  </si>
+  <si>
+    <t>其中税金及附加B</t>
+  </si>
+  <si>
+    <t>减所得税费用E</t>
+  </si>
+  <si>
+    <t>减所得税费用B</t>
+  </si>
+  <si>
+    <t>六每股收益B</t>
+  </si>
+  <si>
+    <t>销售商品提供劳务收到的现金E</t>
+  </si>
+  <si>
+    <t>销售商品提供劳务收到的现金B</t>
+  </si>
+  <si>
+    <t>收到的税费返还E</t>
+  </si>
+  <si>
+    <t>收到的税费返还B</t>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金E</t>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金B</t>
+  </si>
+  <si>
+    <t>经营活动现金流入小计E</t>
+  </si>
+  <si>
+    <t>经营活动现金流入小计B</t>
+  </si>
+  <si>
+    <t>购买商品接受劳务支付的现金E</t>
+  </si>
+  <si>
+    <t>购买商品接受劳务支付的现金B</t>
+  </si>
+  <si>
+    <t>支付的各项税费E</t>
+  </si>
+  <si>
+    <t>支付的各项税费B</t>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金E</t>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金B</t>
+  </si>
+  <si>
+    <t>经营活动现金流出小计E</t>
+  </si>
+  <si>
+    <t>经营活动现金流出小计B</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额E</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额B</t>
+  </si>
+  <si>
+    <t>收回投资收到的现金E</t>
+  </si>
+  <si>
+    <t>收回投资收到的现金B</t>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金E</t>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金B</t>
+  </si>
+  <si>
+    <t>处置固定资产无形资产和其他长期资产收回的现金净额E</t>
+  </si>
+  <si>
+    <t>处置固定资产无形资产和其他长期资产收回的现金净额B</t>
+  </si>
+  <si>
+    <t>处置子公司及其他营业单位收到的现金净额E</t>
+  </si>
+  <si>
+    <t>处置子公司及其他营业单位收到的现金净额B</t>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>投资活动现金流入小计E</t>
+  </si>
+  <si>
+    <t>投资活动现金流入小计B</t>
+  </si>
+  <si>
+    <t>购建固定资产无形资产和其他长期资产支付的现金E</t>
+  </si>
+  <si>
+    <t>购建固定资产无形资产和其他长期资产支付的现金B</t>
+  </si>
+  <si>
+    <t>投资支付的现金E</t>
+  </si>
+  <si>
+    <t>投资支付的现金B</t>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位支付的现金净额E</t>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位支付的现金净额B</t>
+  </si>
+  <si>
+    <t>支付其他与投资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>支付其他与投资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>投资活动现金流出小计E</t>
+  </si>
+  <si>
+    <t>投资活动现金流出小计B</t>
+  </si>
+  <si>
+    <t>投资活动产生的现金流量净额E</t>
+  </si>
+  <si>
+    <t>投资活动产生的现金流量净额B</t>
+  </si>
+  <si>
+    <t>吸收投资收到的现金E</t>
+  </si>
+  <si>
+    <t>吸收投资收到的现金B</t>
+  </si>
+  <si>
+    <t>取得借款收到的现金E</t>
+  </si>
+  <si>
+    <t>取得借款收到的现金B</t>
+  </si>
+  <si>
+    <t>发行债券收到的现金E</t>
+  </si>
+  <si>
+    <t>发行债券收到的现金B</t>
+  </si>
+  <si>
+    <t>收到其他与筹资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>收到其他与筹资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入小计E</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入小计B</t>
+  </si>
+  <si>
+    <t>偿还债务支付的现金E</t>
+  </si>
+  <si>
+    <t>偿还债务支付的现金B</t>
+  </si>
+  <si>
+    <t>分配股利利润或偿付利息支付的现金E</t>
+  </si>
+  <si>
+    <t>分配股利利润或偿付利息支付的现金B</t>
+  </si>
+  <si>
+    <t>支付其他与筹资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>支付其他与筹资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出小计E</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出小计B</t>
+  </si>
+  <si>
+    <t>筹资活动产生的现金流量净额E</t>
+  </si>
+  <si>
+    <t>筹资活动产生的现金流量净额B</t>
+  </si>
+  <si>
+    <t>四汇率变动对现金及现金等价物的影响E</t>
+  </si>
+  <si>
+    <t>四汇率变动对现金及现金等价物的影响B</t>
+  </si>
+  <si>
+    <t>五现金及现金等价物净增加额E</t>
+  </si>
+  <si>
+    <t>五现金及现金等价物净增加额B</t>
+  </si>
+  <si>
+    <t>六期末现金及现金等价物余额E</t>
+  </si>
+  <si>
+    <t>六期末现金及现金等价物余额B</t>
+  </si>
+  <si>
+    <t>货币资金E</t>
+  </si>
+  <si>
+    <t>货币资金B</t>
+  </si>
+  <si>
+    <t>衍生金融资产E</t>
+  </si>
+  <si>
+    <t>衍生金融资产B</t>
+  </si>
+  <si>
+    <t>预付款项E</t>
+  </si>
+  <si>
+    <t>预付款项B</t>
+  </si>
+  <si>
+    <t>其他流动资产E</t>
+  </si>
+  <si>
+    <t>其他流动资产B</t>
+  </si>
+  <si>
+    <t>流动资产合计E</t>
+  </si>
+  <si>
+    <t>流动资产合计B</t>
+  </si>
+  <si>
+    <t>可供出售金融资产E</t>
+  </si>
+  <si>
+    <t>可供出售金融资产B</t>
+  </si>
+  <si>
+    <t>递延所得税资产E</t>
+  </si>
+  <si>
+    <t>递延所得税资产B</t>
+  </si>
+  <si>
+    <t>其他非流动资产E</t>
+  </si>
+  <si>
+    <t>其他非流动资产B</t>
+  </si>
+  <si>
+    <t>非流动资产合计E</t>
+  </si>
+  <si>
+    <t>非流动资产合计B</t>
+  </si>
+  <si>
+    <t>短期借款E</t>
+  </si>
+  <si>
+    <t>短期借款B</t>
+  </si>
+  <si>
+    <t>预收款项E</t>
+  </si>
+  <si>
+    <t>预收款项B</t>
+  </si>
+  <si>
+    <t>应付职工薪酬E</t>
+  </si>
+  <si>
+    <t>应付职工薪酬B</t>
+  </si>
+  <si>
+    <t>应交税费E</t>
+  </si>
+  <si>
+    <t>应交税费B</t>
+  </si>
+  <si>
+    <t>应付利息E</t>
+  </si>
+  <si>
+    <t>应付利息B</t>
+  </si>
+  <si>
+    <t>其他应付款E</t>
+  </si>
+  <si>
+    <t>其他应付款B</t>
+  </si>
+  <si>
+    <t>流动负债合计E</t>
+  </si>
+  <si>
+    <t>流动负债合计B</t>
+  </si>
+  <si>
+    <t>长期借款E</t>
+  </si>
+  <si>
+    <t>长期借款B</t>
+  </si>
+  <si>
+    <t>其他非流动负债E</t>
+  </si>
+  <si>
+    <t>其他非流动负债B</t>
+  </si>
+  <si>
+    <t>递延所得税负债E</t>
+  </si>
+  <si>
+    <t>递延所得税负债B</t>
+  </si>
+  <si>
+    <t>非流动负债合计E</t>
+  </si>
+  <si>
+    <t>非流动负债合计B</t>
+  </si>
+  <si>
+    <t>股东权益合计E</t>
+  </si>
+  <si>
+    <t>股东权益合计B</t>
+  </si>
+  <si>
+    <t>负债和股东权益总计E</t>
+  </si>
+  <si>
+    <t>负债和股东权益总计B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -764,25 +739,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -797,13 +760,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1124,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CE14" sqref="CE14"/>
+    <sheetView topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CF7" sqref="CF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1133,19 +1094,21 @@
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="18" style="1" customWidth="1"/>
-    <col min="34" max="35" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1158,292 +1121,291 @@
     <col min="54" max="57" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="61" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="63" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="69" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="71" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="73" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="76" max="79" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="80" max="81" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="88" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:87">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:87">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2">
         <v>95613130731.470001</v>
@@ -1692,7 +1654,7 @@
         <v>161698016315.06</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="CG2" s="3">
         <v>2016</v>
@@ -1701,12 +1663,12 @@
         <v>0</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:87">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2">
         <v>174121009199.92999</v>
@@ -1955,7 +1917,7 @@
         <v>830674213924.14001</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="CG3" s="3">
         <v>2017</v>
@@ -1964,12 +1926,12 @@
         <v>0</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:87">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2">
         <v>35177276903.910004</v>
@@ -2218,7 +2180,7 @@
         <v>131469157348.78999</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="CG4" s="3">
         <v>2017</v>
@@ -2227,12 +2189,12 @@
         <v>0</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:87">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2">
         <v>99610431730.399994</v>
@@ -2475,7 +2437,7 @@
         <v>182373990389.45999</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="CG5" s="3">
         <v>2017</v>
@@ -2484,261 +2446,261 @@
         <v>0</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:87">
       <c r="A6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="6">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4">
         <v>48274200000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>27169118000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>353327000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>412813000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>10854226000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>7427488000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>17528717000</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>13454511000</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>1672248000</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>1587366000</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>29444166000</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>15626897000</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>46847271000</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>43529597000</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <v>169810676000</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>120621320000</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>1831051000</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <v>5187732000</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="4">
         <v>2633698000</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="4">
         <v>2211732000</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="4">
         <v>420802000</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="4">
         <v>494122000</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="4">
         <v>22600724000</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="4">
         <v>21056791000</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="4">
         <v>879576000</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="4">
         <v>580729000</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="4">
         <v>15167036000</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="4">
         <v>6868538000</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="4">
         <v>28903785000</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="4">
         <v>5730995000</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="4">
         <v>4023334000</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="4">
         <v>3030383000</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="4">
         <v>614822000</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="4">
         <v>4158530000</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="4">
         <v>78296182000</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="4">
         <v>49979391000</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="4">
         <v>248106858000</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="4">
         <v>170600711000</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="4">
         <v>2584102000</v>
       </c>
-      <c r="AO6" s="6">
+      <c r="AO6" s="4">
         <v>3024426000</v>
       </c>
-      <c r="AP6" s="6">
+      <c r="AP6" s="4">
         <v>25207785000</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AQ6" s="4">
         <v>18484939000</v>
       </c>
-      <c r="AR6" s="6">
+      <c r="AR6" s="4">
         <v>35144777000</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AS6" s="4">
         <v>25356960000</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="4">
         <v>17409063000</v>
       </c>
-      <c r="AU6" s="6">
+      <c r="AU6" s="4">
         <v>10252375000</v>
       </c>
-      <c r="AV6" s="6">
+      <c r="AV6" s="4">
         <v>5247500000</v>
       </c>
-      <c r="AW6" s="6">
+      <c r="AW6" s="4">
         <v>3154387000</v>
       </c>
-      <c r="AX6" s="6">
+      <c r="AX6" s="4">
         <v>3544154000</v>
       </c>
-      <c r="AY6" s="6">
+      <c r="AY6" s="4">
         <v>2364446000</v>
       </c>
-      <c r="AZ6" s="6">
+      <c r="AZ6" s="4">
         <v>94801000</v>
       </c>
-      <c r="BA6" s="6">
+      <c r="BA6" s="4">
         <v>21343000</v>
       </c>
-      <c r="BB6" s="6">
+      <c r="BB6" s="4">
         <v>3170405000</v>
       </c>
-      <c r="BC6" s="6">
+      <c r="BC6" s="4">
         <v>1571422000</v>
       </c>
-      <c r="BD6" s="6">
+      <c r="BD6" s="4">
         <v>119091857000</v>
       </c>
-      <c r="BE6" s="6">
+      <c r="BE6" s="4">
         <v>89184000000</v>
       </c>
-      <c r="BF6" s="6">
+      <c r="BF6" s="4">
         <v>32986325000</v>
       </c>
-      <c r="BG6" s="6">
+      <c r="BG6" s="4">
         <v>2254348000</v>
       </c>
-      <c r="BH6" s="6">
+      <c r="BH6" s="4">
         <v>4553054000</v>
       </c>
-      <c r="BI6" s="6">
+      <c r="BI6" s="4">
         <v>4818769000</v>
       </c>
-      <c r="BJ6" s="6">
+      <c r="BJ6" s="4">
         <v>994059000</v>
       </c>
-      <c r="BK6" s="6">
+      <c r="BK6" s="4">
         <v>888152000</v>
       </c>
-      <c r="BL6" s="6">
+      <c r="BL6" s="4">
         <v>3972823000</v>
       </c>
-      <c r="BM6" s="6">
+      <c r="BM6" s="4">
         <v>1831973000</v>
       </c>
-      <c r="BN6" s="6">
+      <c r="BN6" s="4">
         <v>46089830000</v>
       </c>
-      <c r="BO6" s="6">
+      <c r="BO6" s="4">
         <v>12440015000</v>
       </c>
-      <c r="BP6" s="6">
+      <c r="BP6" s="4">
         <v>165181687000</v>
       </c>
-      <c r="BQ6" s="6">
+      <c r="BQ6" s="4">
         <v>101624015000</v>
       </c>
-      <c r="BR6" s="6">
+      <c r="BR6" s="4">
         <v>6561053000</v>
       </c>
-      <c r="BS6" s="6">
+      <c r="BS6" s="4">
         <v>6458767000</v>
       </c>
-      <c r="BT6" s="6">
+      <c r="BT6" s="4">
         <v>15911504000</v>
       </c>
-      <c r="BU6" s="6">
+      <c r="BU6" s="4">
         <v>13596569000</v>
       </c>
-      <c r="BV6" s="6">
+      <c r="BV6" s="4">
         <v>366842</v>
       </c>
       <c r="BW6" s="1">
         <v>0</v>
       </c>
-      <c r="BX6" s="6">
+      <c r="BX6" s="4">
         <v>3882232000</v>
       </c>
-      <c r="BY6" s="6">
+      <c r="BY6" s="4">
         <v>2804469000</v>
       </c>
-      <c r="BZ6" s="6">
+      <c r="BZ6" s="4">
         <v>47627235000</v>
       </c>
-      <c r="CA6" s="6">
+      <c r="CA6" s="4">
         <v>38105391000</v>
       </c>
-      <c r="CB6" s="6">
+      <c r="CB6" s="4">
         <v>82925171000</v>
       </c>
-      <c r="CC6" s="6">
+      <c r="CC6" s="4">
         <v>68976696000</v>
       </c>
-      <c r="CD6" s="6">
+      <c r="CD6" s="4">
         <v>248106858000</v>
       </c>
-      <c r="CE6" s="6">
+      <c r="CE6" s="4">
         <v>170600711000</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="CG6" s="3">
         <v>2017</v>
@@ -2747,12 +2709,12 @@
         <v>0</v>
       </c>
       <c r="CI6" s="1" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:87">
       <c r="A7" s="1" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2">
         <v>87868869913.339996</v>
@@ -3001,7 +2963,7 @@
         <v>112934538280.41</v>
       </c>
       <c r="CF7" s="1" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="CG7" s="3">
         <v>2017</v>
@@ -3010,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="CI7" s="1" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3054,161 +3016,160 @@
   <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="33" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="AJ1" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2">
         <v>110113101850.23</v>
@@ -3319,7 +3280,7 @@
         <v>12484010303.780001</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AM2" s="3">
         <v>2016</v>
@@ -3328,12 +3289,12 @@
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2">
         <v>242897110250.51999</v>
@@ -3444,7 +3405,7 @@
         <v>28311311325.540001</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AM3" s="3">
         <v>2017</v>
@@ -3453,12 +3414,12 @@
         <v>0</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2">
         <v>150019551611.75</v>
@@ -3569,7 +3530,7 @@
         <v>15474851482.24</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="AM4" s="3">
         <v>2017</v>
@@ -3578,12 +3539,12 @@
         <v>0</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>159254466909.45999</v>
@@ -3694,7 +3655,7 @@
         <v>6659288647.04</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="AM5" s="3">
         <v>2017</v>
@@ -3703,30 +3664,30 @@
         <v>0</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="6">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4">
         <v>241918896000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>159841701000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>240712301000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>159044041000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <f>H6+J6+L6+N6+P6+R6</f>
         <v>224462763000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f>I6+K6+M6+O6+Q6+S6</f>
         <v>143425412000</v>
       </c>
@@ -3736,76 +3697,76 @@
       <c r="I6" s="1">
         <v>115615437000</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>250925000</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>439607000</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>1416428000</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>1077119000</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>26738673000</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>17678451000</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <v>14780236000</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>9620777000</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>815949000</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <v>-1005979000</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="4">
         <v>1830221000</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="4">
         <v>1285961000</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="4">
         <v>21627854000</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="4">
         <v>17324101000</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="4">
         <v>467204000</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="4">
         <v>1758220000</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="4">
         <v>240284000</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="4">
         <v>167718000</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="4">
         <v>21854774000</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="4">
         <v>18914603000</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="4">
         <v>3243584000</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="4">
         <v>3052691000</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="4">
         <v>18611190000</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="4">
         <v>15861912000</v>
       </c>
       <c r="AH6" s="1">
@@ -3814,14 +3775,14 @@
       <c r="AI6" s="1">
         <v>2.29</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="4">
         <v>18300562000</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="4">
         <v>17050127000</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="AM6" s="3">
         <v>2017</v>
@@ -3830,12 +3791,12 @@
         <v>0</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2">
         <v>61062756866.160004</v>
@@ -3936,7 +3897,7 @@
       <c r="AH7" s="1">
         <v>21.56</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="5">
         <v>13.31</v>
       </c>
       <c r="AJ7" s="2">
@@ -3946,7 +3907,7 @@
         <v>17932436343.790001</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="AM7" s="3">
         <v>2017</v>
@@ -3955,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4004,287 +3965,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
   <dimension ref="A1:BW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BT12" sqref="BT12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21" style="1" customWidth="1"/>
-    <col min="44" max="44" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="59" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="65" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="76" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75">
-      <c r="A1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="BT1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>204</v>
+        <v>38</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:75">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2">
         <v>69896621293.210007</v>
@@ -4497,7 +4486,7 @@
         <v>77365016845.220001</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="BU2" s="3">
         <v>2016</v>
@@ -4506,12 +4495,12 @@
         <v>0</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:75">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2">
         <v>368405223395.35999</v>
@@ -4724,7 +4713,7 @@
         <v>79490014945.690002</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="BU3" s="3">
         <v>2017</v>
@@ -4733,12 +4722,12 @@
         <v>0</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2">
         <v>107599120105.06</v>
@@ -4951,7 +4940,7 @@
         <v>71321360022.830002</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="BU4" s="3">
         <v>2017</v>
@@ -4960,12 +4949,12 @@
         <v>0</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:75">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>163243966287.70999</v>
@@ -5178,7 +5167,7 @@
         <v>23295239445.049999</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="BU5" s="3">
         <v>2017</v>
@@ -5187,89 +5176,89 @@
         <v>0</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:75">
       <c r="A6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="6">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4">
         <v>195820338000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>153324273000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>5476543000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>5124402000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>4771036000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>3139286000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>207315612000</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>162658812000</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>116508042000</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>89440654000</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>11139448000</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>8824342000</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>29139920000</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>21802729000</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <v>182872989000</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>135963803000</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>24442623000</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <v>26695009000</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="4">
         <v>85127382000</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="4">
         <v>73905220000</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="4">
         <v>2727603000</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="4">
         <v>1954049000</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="4">
         <v>1441101000</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="4">
         <v>191159000</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="4">
         <v>272899000</v>
       </c>
       <c r="AB6" s="1">
@@ -5278,28 +5267,28 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="4">
         <v>89296086000</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="4">
         <v>76323327000</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="4">
         <v>3218402000</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="4">
         <v>2323430000</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="4">
         <v>94967122000</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="4">
         <v>90880725000</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="4">
         <v>25850170000</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="4">
         <v>2900256000</v>
       </c>
       <c r="AL6" s="1">
@@ -5308,46 +5297,46 @@
       <c r="AM6" s="1">
         <v>0</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="4">
         <v>124035694000</v>
       </c>
-      <c r="AO6" s="6">
+      <c r="AO6" s="4">
         <v>96104411000</v>
       </c>
-      <c r="AP6" s="6">
+      <c r="AP6" s="4">
         <v>34739608000</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AQ6" s="4">
         <v>19781084000</v>
       </c>
-      <c r="AR6" s="6">
+      <c r="AR6" s="4">
         <v>1668205000</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AS6" s="4">
         <v>814845000</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="4">
         <v>62169886000</v>
       </c>
-      <c r="AU6" s="6">
+      <c r="AU6" s="4">
         <v>32422027000</v>
       </c>
       <c r="AV6" s="1">
         <v>0</v>
       </c>
-      <c r="AW6" s="6">
+      <c r="AW6" s="4">
         <v>1999500000</v>
       </c>
-      <c r="AX6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="6">
+      <c r="AX6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4">
         <v>63838091000</v>
       </c>
-      <c r="BA6" s="6">
+      <c r="BA6" s="4">
         <v>35236372000</v>
       </c>
       <c r="BB6" s="1">
@@ -5356,56 +5345,56 @@
       <c r="BC6" s="1">
         <v>0</v>
       </c>
-      <c r="BD6" s="6">
+      <c r="BD6" s="4">
         <v>36074251000</v>
       </c>
-      <c r="BE6" s="6">
+      <c r="BE6" s="4">
         <v>26961143000</v>
       </c>
-      <c r="BF6" s="6">
+      <c r="BF6" s="4">
         <v>7908056000</v>
       </c>
-      <c r="BG6" s="6">
+      <c r="BG6" s="4">
         <v>6046355000</v>
       </c>
-      <c r="BH6" s="6">
+      <c r="BH6" s="4">
         <v>204139000</v>
       </c>
-      <c r="BI6" s="6">
+      <c r="BI6" s="4">
         <v>69462000</v>
       </c>
-      <c r="BJ6" s="6">
+      <c r="BJ6" s="4">
         <v>44186446000</v>
       </c>
-      <c r="BK6" s="6">
+      <c r="BK6" s="4">
         <v>35076460000</v>
       </c>
-      <c r="BL6" s="6">
+      <c r="BL6" s="4">
         <v>19651645000</v>
       </c>
-      <c r="BM6" s="6">
+      <c r="BM6" s="4">
         <v>159912000</v>
       </c>
-      <c r="BN6" s="6">
+      <c r="BN6" s="4">
         <v>-36737000</v>
       </c>
-      <c r="BO6" s="6">
+      <c r="BO6" s="4">
         <v>252576000</v>
       </c>
-      <c r="BP6" s="6">
+      <c r="BP6" s="4">
         <v>9317923000</v>
       </c>
-      <c r="BQ6" s="6">
+      <c r="BQ6" s="4">
         <v>7326413000</v>
       </c>
-      <c r="BR6" s="6">
+      <c r="BR6" s="4">
         <v>21831653000</v>
       </c>
-      <c r="BS6" s="6">
+      <c r="BS6" s="4">
         <v>12513730000</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="BU6" s="3">
         <v>2017</v>
@@ -5414,12 +5403,12 @@
         <v>0</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:75">
       <c r="A7" s="1" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2">
         <v>64421479343.019997</v>
@@ -5632,7 +5621,7 @@
         <v>62794794812.989998</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="BU7" s="3">
         <v>2017</v>
@@ -5641,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5690,122 +5679,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9B332-6367-49E7-BDF8-F73878560B57}">
   <dimension ref="B3:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>212</v>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1">
         <v>2010</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1">
         <v>2011</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1">
         <v>2012</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1">
         <v>2013</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1">
         <v>2014</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="D9">
+      <c r="D9" s="1">
         <v>2015</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2016</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2017</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2018</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2019</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="D15">
+      <c r="D15" s="1">
         <v>2021</v>
       </c>
     </row>

--- a/Dataset/公司报表.xlsx
+++ b/Dataset/公司报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0ABA27-59E4-46F4-8857-9DCE21735CAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7BD23-50CD-40AC-A1C1-E1E59D7590CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
@@ -23,121 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="223">
-  <si>
-    <t>应收票据E</t>
-  </si>
-  <si>
-    <t>应收票据B</t>
-  </si>
-  <si>
-    <t>应收账款E</t>
-  </si>
-  <si>
-    <t>应收账款B</t>
-  </si>
-  <si>
-    <t>存货E</t>
-  </si>
-  <si>
-    <t>存货B</t>
-  </si>
-  <si>
-    <t>长期股权投资E</t>
-  </si>
-  <si>
-    <t>长期股权投资B</t>
-  </si>
-  <si>
-    <t>投资性房地产E</t>
-  </si>
-  <si>
-    <t>投资性房地产B</t>
-  </si>
-  <si>
-    <t>固定资产E</t>
-  </si>
-  <si>
-    <t>固定资产B</t>
-  </si>
-  <si>
-    <t>在建工程E</t>
-  </si>
-  <si>
-    <t>在建工程B</t>
-  </si>
-  <si>
-    <t>无形资产E</t>
-  </si>
-  <si>
-    <t>无形资产B</t>
-  </si>
-  <si>
-    <t>商誉E</t>
-  </si>
-  <si>
-    <t>商誉B</t>
-  </si>
-  <si>
-    <t>资产总计E</t>
-  </si>
-  <si>
-    <t>资产总计B</t>
-  </si>
-  <si>
-    <t>应付票据E</t>
-  </si>
-  <si>
-    <t>应付票据B</t>
-  </si>
-  <si>
-    <t>应付账款E</t>
-  </si>
-  <si>
-    <t>应付账款B</t>
-  </si>
-  <si>
-    <t>应付债券E</t>
-  </si>
-  <si>
-    <t>应付债券B</t>
-  </si>
-  <si>
-    <t>负债合计E</t>
-  </si>
-  <si>
-    <t>负债合计B</t>
-  </si>
-  <si>
-    <t>股本E</t>
-  </si>
-  <si>
-    <t>股本B</t>
-  </si>
-  <si>
-    <t>资本公积E</t>
-  </si>
-  <si>
-    <t>资本公积B</t>
-  </si>
-  <si>
-    <t>减库存股E</t>
-  </si>
-  <si>
-    <t>减库存股B</t>
-  </si>
-  <si>
-    <t>盈余公积E</t>
-  </si>
-  <si>
-    <t>盈余公积B</t>
-  </si>
-  <si>
-    <t>未分配利润E</t>
-  </si>
-  <si>
-    <t>未分配利润B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="257">
   <si>
     <t>行业类型</t>
   </si>
@@ -160,72 +46,18 @@
     <t>一营业总收入B</t>
   </si>
   <si>
-    <t>其中营业收入E</t>
-  </si>
-  <si>
-    <t>其中营业收入B</t>
-  </si>
-  <si>
     <t>二营业总成本E</t>
   </si>
   <si>
     <t>二营业总成本B</t>
   </si>
   <si>
-    <t>其中营业成本E</t>
-  </si>
-  <si>
-    <t>其中营业成本B</t>
-  </si>
-  <si>
-    <t>其中利息支出E</t>
-  </si>
-  <si>
-    <t>其中利息支出B</t>
-  </si>
-  <si>
-    <t>其中销售费用E</t>
-  </si>
-  <si>
-    <t>其中销售费用B</t>
-  </si>
-  <si>
-    <t>其中管理费用E</t>
-  </si>
-  <si>
-    <t>其中管理费用B</t>
-  </si>
-  <si>
-    <t>其中财务费用E</t>
-  </si>
-  <si>
-    <t>其中财务费用B</t>
-  </si>
-  <si>
-    <t>加投资收益E</t>
-  </si>
-  <si>
-    <t>加投资收益B</t>
-  </si>
-  <si>
     <t>三营业利润E</t>
   </si>
   <si>
     <t>三营业利润B</t>
   </si>
   <si>
-    <t>加营业外收入E</t>
-  </si>
-  <si>
-    <t>加营业外收入B</t>
-  </si>
-  <si>
-    <t>减营业外支出E</t>
-  </si>
-  <si>
-    <t>减营业外支出B</t>
-  </si>
-  <si>
     <t>四利润总额E</t>
   </si>
   <si>
@@ -238,19 +70,10 @@
     <t>五净利润B</t>
   </si>
   <si>
-    <t>六每股收益E</t>
-  </si>
-  <si>
     <t>八综合收益总额E</t>
   </si>
   <si>
     <t>八综合收益总额B</t>
-  </si>
-  <si>
-    <t>归还投资E</t>
-  </si>
-  <si>
-    <t>归还投资B</t>
   </si>
   <si>
     <t>格力电器</t>
@@ -367,207 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其中税金及附加E</t>
-  </si>
-  <si>
-    <t>其中税金及附加B</t>
-  </si>
-  <si>
-    <t>减所得税费用E</t>
-  </si>
-  <si>
-    <t>减所得税费用B</t>
-  </si>
-  <si>
-    <t>六每股收益B</t>
-  </si>
-  <si>
-    <t>销售商品提供劳务收到的现金E</t>
-  </si>
-  <si>
-    <t>销售商品提供劳务收到的现金B</t>
-  </si>
-  <si>
-    <t>收到的税费返还E</t>
-  </si>
-  <si>
-    <t>收到的税费返还B</t>
-  </si>
-  <si>
-    <t>收到其他与经营活动有关的现金E</t>
-  </si>
-  <si>
-    <t>收到其他与经营活动有关的现金B</t>
-  </si>
-  <si>
-    <t>经营活动现金流入小计E</t>
-  </si>
-  <si>
-    <t>经营活动现金流入小计B</t>
-  </si>
-  <si>
-    <t>购买商品接受劳务支付的现金E</t>
-  </si>
-  <si>
-    <t>购买商品接受劳务支付的现金B</t>
-  </si>
-  <si>
-    <t>支付的各项税费E</t>
-  </si>
-  <si>
-    <t>支付的各项税费B</t>
-  </si>
-  <si>
-    <t>支付其他与经营活动有关的现金E</t>
-  </si>
-  <si>
-    <t>支付其他与经营活动有关的现金B</t>
-  </si>
-  <si>
-    <t>经营活动现金流出小计E</t>
-  </si>
-  <si>
-    <t>经营活动现金流出小计B</t>
-  </si>
-  <si>
-    <t>经营活动产生的现金流量净额E</t>
-  </si>
-  <si>
-    <t>经营活动产生的现金流量净额B</t>
-  </si>
-  <si>
-    <t>收回投资收到的现金E</t>
-  </si>
-  <si>
-    <t>收回投资收到的现金B</t>
-  </si>
-  <si>
-    <t>取得投资收益收到的现金E</t>
-  </si>
-  <si>
-    <t>取得投资收益收到的现金B</t>
-  </si>
-  <si>
-    <t>处置固定资产无形资产和其他长期资产收回的现金净额E</t>
-  </si>
-  <si>
-    <t>处置固定资产无形资产和其他长期资产收回的现金净额B</t>
-  </si>
-  <si>
-    <t>处置子公司及其他营业单位收到的现金净额E</t>
-  </si>
-  <si>
-    <t>处置子公司及其他营业单位收到的现金净额B</t>
-  </si>
-  <si>
-    <t>收到其他与投资活动有关的现金E</t>
-  </si>
-  <si>
-    <t>收到其他与投资活动有关的现金B</t>
-  </si>
-  <si>
-    <t>投资活动现金流入小计E</t>
-  </si>
-  <si>
-    <t>投资活动现金流入小计B</t>
-  </si>
-  <si>
-    <t>购建固定资产无形资产和其他长期资产支付的现金E</t>
-  </si>
-  <si>
-    <t>购建固定资产无形资产和其他长期资产支付的现金B</t>
-  </si>
-  <si>
-    <t>投资支付的现金E</t>
-  </si>
-  <si>
-    <t>投资支付的现金B</t>
-  </si>
-  <si>
-    <t>取得子公司及其他营业单位支付的现金净额E</t>
-  </si>
-  <si>
-    <t>取得子公司及其他营业单位支付的现金净额B</t>
-  </si>
-  <si>
-    <t>支付其他与投资活动有关的现金E</t>
-  </si>
-  <si>
-    <t>支付其他与投资活动有关的现金B</t>
-  </si>
-  <si>
-    <t>投资活动现金流出小计E</t>
-  </si>
-  <si>
-    <t>投资活动现金流出小计B</t>
-  </si>
-  <si>
-    <t>投资活动产生的现金流量净额E</t>
-  </si>
-  <si>
-    <t>投资活动产生的现金流量净额B</t>
-  </si>
-  <si>
-    <t>吸收投资收到的现金E</t>
-  </si>
-  <si>
-    <t>吸收投资收到的现金B</t>
-  </si>
-  <si>
-    <t>取得借款收到的现金E</t>
-  </si>
-  <si>
-    <t>取得借款收到的现金B</t>
-  </si>
-  <si>
-    <t>发行债券收到的现金E</t>
-  </si>
-  <si>
-    <t>发行债券收到的现金B</t>
-  </si>
-  <si>
-    <t>收到其他与筹资活动有关的现金E</t>
-  </si>
-  <si>
-    <t>收到其他与筹资活动有关的现金B</t>
-  </si>
-  <si>
-    <t>筹资活动现金流入小计E</t>
-  </si>
-  <si>
-    <t>筹资活动现金流入小计B</t>
-  </si>
-  <si>
-    <t>偿还债务支付的现金E</t>
-  </si>
-  <si>
-    <t>偿还债务支付的现金B</t>
-  </si>
-  <si>
-    <t>分配股利利润或偿付利息支付的现金E</t>
-  </si>
-  <si>
-    <t>分配股利利润或偿付利息支付的现金B</t>
-  </si>
-  <si>
-    <t>支付其他与筹资活动有关的现金E</t>
-  </si>
-  <si>
-    <t>支付其他与筹资活动有关的现金B</t>
-  </si>
-  <si>
-    <t>筹资活动现金流出小计E</t>
-  </si>
-  <si>
-    <t>筹资活动现金流出小计B</t>
-  </si>
-  <si>
-    <t>筹资活动产生的现金流量净额E</t>
-  </si>
-  <si>
-    <t>筹资活动产生的现金流量净额B</t>
-  </si>
-  <si>
     <t>四汇率变动对现金及现金等价物的影响E</t>
   </si>
   <si>
@@ -586,136 +208,619 @@
     <t>六期末现金及现金等价物余额B</t>
   </si>
   <si>
-    <t>货币资金E</t>
-  </si>
-  <si>
-    <t>货币资金B</t>
-  </si>
-  <si>
-    <t>衍生金融资产E</t>
-  </si>
-  <si>
-    <t>衍生金融资产B</t>
-  </si>
-  <si>
-    <t>预付款项E</t>
-  </si>
-  <si>
-    <t>预付款项B</t>
-  </si>
-  <si>
-    <t>其他流动资产E</t>
-  </si>
-  <si>
-    <t>其他流动资产B</t>
-  </si>
-  <si>
-    <t>流动资产合计E</t>
-  </si>
-  <si>
-    <t>流动资产合计B</t>
-  </si>
-  <si>
-    <t>可供出售金融资产E</t>
-  </si>
-  <si>
-    <t>可供出售金融资产B</t>
-  </si>
-  <si>
-    <t>递延所得税资产E</t>
-  </si>
-  <si>
-    <t>递延所得税资产B</t>
-  </si>
-  <si>
-    <t>其他非流动资产E</t>
-  </si>
-  <si>
-    <t>其他非流动资产B</t>
-  </si>
-  <si>
-    <t>非流动资产合计E</t>
-  </si>
-  <si>
-    <t>非流动资产合计B</t>
-  </si>
-  <si>
-    <t>短期借款E</t>
-  </si>
-  <si>
-    <t>短期借款B</t>
-  </si>
-  <si>
-    <t>预收款项E</t>
-  </si>
-  <si>
-    <t>预收款项B</t>
-  </si>
-  <si>
-    <t>应付职工薪酬E</t>
-  </si>
-  <si>
-    <t>应付职工薪酬B</t>
-  </si>
-  <si>
-    <t>应交税费E</t>
-  </si>
-  <si>
-    <t>应交税费B</t>
-  </si>
-  <si>
-    <t>应付利息E</t>
-  </si>
-  <si>
-    <t>应付利息B</t>
-  </si>
-  <si>
-    <t>其他应付款E</t>
-  </si>
-  <si>
-    <t>其他应付款B</t>
-  </si>
-  <si>
-    <t>流动负债合计E</t>
-  </si>
-  <si>
-    <t>流动负债合计B</t>
-  </si>
-  <si>
-    <t>长期借款E</t>
-  </si>
-  <si>
-    <t>长期借款B</t>
-  </si>
-  <si>
-    <t>其他非流动负债E</t>
-  </si>
-  <si>
-    <t>其他非流动负债B</t>
-  </si>
-  <si>
-    <t>递延所得税负债E</t>
-  </si>
-  <si>
-    <t>递延所得税负债B</t>
-  </si>
-  <si>
-    <t>非流动负债合计E</t>
-  </si>
-  <si>
-    <t>非流动负债合计B</t>
-  </si>
-  <si>
-    <t>股东权益合计E</t>
-  </si>
-  <si>
-    <t>股东权益合计B</t>
-  </si>
-  <si>
-    <t>负债和股东权益总计E</t>
-  </si>
-  <si>
-    <t>负债和股东权益总计B</t>
+    <t>一营业收入E</t>
+  </si>
+  <si>
+    <t>一营业收入B</t>
+  </si>
+  <si>
+    <t>二营业成本E</t>
+  </si>
+  <si>
+    <t>二营业成本B</t>
+  </si>
+  <si>
+    <t>二利息支出E</t>
+  </si>
+  <si>
+    <t>二利息支出B</t>
+  </si>
+  <si>
+    <t>二税金及附加E</t>
+  </si>
+  <si>
+    <t>二税金及附加B</t>
+  </si>
+  <si>
+    <t>二销售费用E</t>
+  </si>
+  <si>
+    <t>二销售费用B</t>
+  </si>
+  <si>
+    <t>二管理费用E</t>
+  </si>
+  <si>
+    <t>二管理费用B</t>
+  </si>
+  <si>
+    <t>二财务费用B</t>
+  </si>
+  <si>
+    <t>二资产减值损失E</t>
+  </si>
+  <si>
+    <t>二资产减值损失B</t>
+  </si>
+  <si>
+    <t>二公允价值变动收益E</t>
+  </si>
+  <si>
+    <t>二公允价值变动收益B</t>
+  </si>
+  <si>
+    <t>二投资收益E</t>
+  </si>
+  <si>
+    <t>二投资收益B</t>
+  </si>
+  <si>
+    <t>三营业外收入E</t>
+  </si>
+  <si>
+    <t>三营业外收入B</t>
+  </si>
+  <si>
+    <t>三营业外支出E</t>
+  </si>
+  <si>
+    <t>三营业外支出B</t>
+  </si>
+  <si>
+    <t>四所得税费用E</t>
+  </si>
+  <si>
+    <t>四所得税费用B</t>
+  </si>
+  <si>
+    <t>一货币资金E</t>
+  </si>
+  <si>
+    <t>一货币资金B</t>
+  </si>
+  <si>
+    <t>一以公允价值计量且其变动计入当期损益的金融资产B</t>
+  </si>
+  <si>
+    <t>一衍生金融资产E</t>
+  </si>
+  <si>
+    <t>一衍生金融资产B</t>
+  </si>
+  <si>
+    <t>一应收票据E</t>
+  </si>
+  <si>
+    <t>一应收票据B</t>
+  </si>
+  <si>
+    <t>一应收账款E</t>
+  </si>
+  <si>
+    <t>一应收账款B</t>
+  </si>
+  <si>
+    <t>一预付款项E</t>
+  </si>
+  <si>
+    <t>一预付款项B</t>
+  </si>
+  <si>
+    <t>一其他应收款E</t>
+  </si>
+  <si>
+    <t>一其他应收款B</t>
+  </si>
+  <si>
+    <t>一存货E</t>
+  </si>
+  <si>
+    <t>一存货B</t>
+  </si>
+  <si>
+    <t>一其他流动资产E</t>
+  </si>
+  <si>
+    <t>一其他流动资产B</t>
+  </si>
+  <si>
+    <t>一流动资产合计E</t>
+  </si>
+  <si>
+    <t>一流动资产合计B</t>
+  </si>
+  <si>
+    <t>一可供出售金融资产E</t>
+  </si>
+  <si>
+    <t>一可供出售金融资产B</t>
+  </si>
+  <si>
+    <t>一持有至到期投资E</t>
+  </si>
+  <si>
+    <t>一持有至到期投资B</t>
+  </si>
+  <si>
+    <t>一长期股权投资E</t>
+  </si>
+  <si>
+    <t>一长期股权投资B</t>
+  </si>
+  <si>
+    <t>一投资性房地产E</t>
+  </si>
+  <si>
+    <t>一投资性房地产B</t>
+  </si>
+  <si>
+    <t>一固定资产E</t>
+  </si>
+  <si>
+    <t>一固定资产B</t>
+  </si>
+  <si>
+    <t>一在建工程E</t>
+  </si>
+  <si>
+    <t>一在建工程B</t>
+  </si>
+  <si>
+    <t>一无形资产E</t>
+  </si>
+  <si>
+    <t>一无形资产B</t>
+  </si>
+  <si>
+    <t>一商誉E</t>
+  </si>
+  <si>
+    <t>一商誉B</t>
+  </si>
+  <si>
+    <t>一长期待摊费用E</t>
+  </si>
+  <si>
+    <t>一长期待摊费用B</t>
+  </si>
+  <si>
+    <t>一递延所得税资产E</t>
+  </si>
+  <si>
+    <t>一递延所得税资产B</t>
+  </si>
+  <si>
+    <t>一其他非流动资产E</t>
+  </si>
+  <si>
+    <t>一其他非流动资产B</t>
+  </si>
+  <si>
+    <t>一非流动资产合计E</t>
+  </si>
+  <si>
+    <t>一非流动资产合计B</t>
+  </si>
+  <si>
+    <t>一资产总计E</t>
+  </si>
+  <si>
+    <t>一资产总计B</t>
+  </si>
+  <si>
+    <t>二短期借款E</t>
+  </si>
+  <si>
+    <t>二短期借款B</t>
+  </si>
+  <si>
+    <t>二应付票据E</t>
+  </si>
+  <si>
+    <t>二应付票据B</t>
+  </si>
+  <si>
+    <t>二应付账款E</t>
+  </si>
+  <si>
+    <t>二应付账款B</t>
+  </si>
+  <si>
+    <t>二预收款项E</t>
+  </si>
+  <si>
+    <t>二预收款项B</t>
+  </si>
+  <si>
+    <t>二应付职工薪酬E</t>
+  </si>
+  <si>
+    <t>二应付职工薪酬B</t>
+  </si>
+  <si>
+    <t>二应交税费E</t>
+  </si>
+  <si>
+    <t>二应交税费B</t>
+  </si>
+  <si>
+    <t>二应付利息E</t>
+  </si>
+  <si>
+    <t>二应付利息B</t>
+  </si>
+  <si>
+    <t>二应付股利E</t>
+  </si>
+  <si>
+    <t>二应付股利B</t>
+  </si>
+  <si>
+    <t>二其他应付款E</t>
+  </si>
+  <si>
+    <t>二其他应付款B</t>
+  </si>
+  <si>
+    <t>二其他流动负债E</t>
+  </si>
+  <si>
+    <t>二其他流动负债B</t>
+  </si>
+  <si>
+    <t>二流动负债合计E</t>
+  </si>
+  <si>
+    <t>二流动负债合计B</t>
+  </si>
+  <si>
+    <t>二长期借款E</t>
+  </si>
+  <si>
+    <t>二长期借款B</t>
+  </si>
+  <si>
+    <t>二应付债券E</t>
+  </si>
+  <si>
+    <t>二应付债券B</t>
+  </si>
+  <si>
+    <t>二长期应付款E</t>
+  </si>
+  <si>
+    <t>二长期应付款B</t>
+  </si>
+  <si>
+    <t>二长期应付职工薪酬E</t>
+  </si>
+  <si>
+    <t>二长期应付职工薪酬B</t>
+  </si>
+  <si>
+    <t>二预计负债E</t>
+  </si>
+  <si>
+    <t>二预计负债B</t>
+  </si>
+  <si>
+    <t>二递延收益E</t>
+  </si>
+  <si>
+    <t>二递延收益B</t>
+  </si>
+  <si>
+    <t>二其他非流动负债E</t>
+  </si>
+  <si>
+    <t>二其他非流动负债B</t>
+  </si>
+  <si>
+    <t>二递延所得税负债E</t>
+  </si>
+  <si>
+    <t>二递延所得税负债B</t>
+  </si>
+  <si>
+    <t>二非流动负债合计E</t>
+  </si>
+  <si>
+    <t>二非流动负债合计B</t>
+  </si>
+  <si>
+    <t>二负债合计E</t>
+  </si>
+  <si>
+    <t>二负债合计B</t>
+  </si>
+  <si>
+    <t>三股本E</t>
+  </si>
+  <si>
+    <t>三股本B</t>
+  </si>
+  <si>
+    <t>三资本公积E</t>
+  </si>
+  <si>
+    <t>三资本公积B</t>
+  </si>
+  <si>
+    <t>三库存股E</t>
+  </si>
+  <si>
+    <t>三库存股B</t>
+  </si>
+  <si>
+    <t>三其他综合收益E</t>
+  </si>
+  <si>
+    <t>三其他综合收益B</t>
+  </si>
+  <si>
+    <t>三盈余公积E</t>
+  </si>
+  <si>
+    <t>三盈余公积B</t>
+  </si>
+  <si>
+    <t>三未分配利润E</t>
+  </si>
+  <si>
+    <t>三未分配利润B</t>
+  </si>
+  <si>
+    <t>三股东权益合计E</t>
+  </si>
+  <si>
+    <t>三股东权益合计B</t>
+  </si>
+  <si>
+    <t>三负债和股东权益总计E</t>
+  </si>
+  <si>
+    <t>三负债和股东权益总计B</t>
+  </si>
+  <si>
+    <t>三一般风险准备E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一般风险准备B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二财务费用E</t>
+  </si>
+  <si>
+    <t>六其他综合收益的税后净额E</t>
+  </si>
+  <si>
+    <t>六其他综合收益的税后净额B</t>
+  </si>
+  <si>
+    <t>七基本每股收益E</t>
+  </si>
+  <si>
+    <t>七基本每股收益B</t>
+  </si>
+  <si>
+    <t>七稀释每股收益E</t>
+  </si>
+  <si>
+    <t>七稀释每股收益B</t>
+  </si>
+  <si>
+    <t>一销售商品提供劳务收到的现金E</t>
+  </si>
+  <si>
+    <t>一销售商品提供劳务收到的现金B</t>
+  </si>
+  <si>
+    <t>一收到的税费返还E</t>
+  </si>
+  <si>
+    <t>一收到的税费返还B</t>
+  </si>
+  <si>
+    <t>一收到其他与经营活动有关的现金E</t>
+  </si>
+  <si>
+    <t>一收到其他与经营活动有关的现金B</t>
+  </si>
+  <si>
+    <t>一经营活动现金流入小计E</t>
+  </si>
+  <si>
+    <t>一经营活动现金流入小计B</t>
+  </si>
+  <si>
+    <t>一购买商品接受劳务支付的现金E</t>
+  </si>
+  <si>
+    <t>一购买商品接受劳务支付的现金B</t>
+  </si>
+  <si>
+    <t>一支付给职工以及为职工支付的现金E</t>
+  </si>
+  <si>
+    <t>一支付给职工以及为职工支付的现金B</t>
+  </si>
+  <si>
+    <t>一支付的各项税费E</t>
+  </si>
+  <si>
+    <t>一支付的各项税费B</t>
+  </si>
+  <si>
+    <t>一支付其他与经营活动有关的现金E</t>
+  </si>
+  <si>
+    <t>一支付其他与经营活动有关的现金B</t>
+  </si>
+  <si>
+    <t>一经营活动现金流出小计E</t>
+  </si>
+  <si>
+    <t>一经营活动现金流出小计B</t>
+  </si>
+  <si>
+    <t>一经营活动产生的现金流量净额E</t>
+  </si>
+  <si>
+    <t>一经营活动产生的现金流量净额B</t>
+  </si>
+  <si>
+    <t>二收回投资收到的现金E</t>
+  </si>
+  <si>
+    <t>二收回投资收到的现金B</t>
+  </si>
+  <si>
+    <t>二取得投资收益收到的现金E</t>
+  </si>
+  <si>
+    <t>二取得投资收益收到的现金B</t>
+  </si>
+  <si>
+    <t>二处置固定资产无形资产和其他长期资产收回的现金净额E</t>
+  </si>
+  <si>
+    <t>二处置固定资产无形资产和其他长期资产收回的现金净额B</t>
+  </si>
+  <si>
+    <t>二处置子公司及其他营业单位收到的现金净额E</t>
+  </si>
+  <si>
+    <t>二处置子公司及其他营业单位收到的现金净额B</t>
+  </si>
+  <si>
+    <t>二收到其他与投资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>二收到其他与投资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>二投资活动现金流入小计E</t>
+  </si>
+  <si>
+    <t>二投资活动现金流入小计B</t>
+  </si>
+  <si>
+    <t>二购建固定资产无形资产和其他长期资产支付的现金E</t>
+  </si>
+  <si>
+    <t>二购建固定资产无形资产和其他长期资产支付的现金B</t>
+  </si>
+  <si>
+    <t>二投资支付的现金E</t>
+  </si>
+  <si>
+    <t>二投资支付的现金B</t>
+  </si>
+  <si>
+    <t>二取得子公司及其他营业单位支付的现金净额E</t>
+  </si>
+  <si>
+    <t>二取得子公司及其他营业单位支付的现金净额B</t>
+  </si>
+  <si>
+    <t>二支付其他与投资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>二支付其他与投资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>二投资活动现金流出小计E</t>
+  </si>
+  <si>
+    <t>二投资活动现金流出小计B</t>
+  </si>
+  <si>
+    <t>二投资活动产生的现金流量净额E</t>
+  </si>
+  <si>
+    <t>二投资活动产生的现金流量净额B</t>
+  </si>
+  <si>
+    <t>三吸收投资收到的现金E</t>
+  </si>
+  <si>
+    <t>三吸收投资收到的现金B</t>
+  </si>
+  <si>
+    <t>三取得借款收到的现金E</t>
+  </si>
+  <si>
+    <t>三取得借款收到的现金B</t>
+  </si>
+  <si>
+    <t>三发行债券收到的现金E</t>
+  </si>
+  <si>
+    <t>三发行债券收到的现金B</t>
+  </si>
+  <si>
+    <t>三收到其他与筹资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>三收到其他与筹资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>三筹资活动现金流入小计E</t>
+  </si>
+  <si>
+    <t>三筹资活动现金流入小计B</t>
+  </si>
+  <si>
+    <t>三归还投资E</t>
+  </si>
+  <si>
+    <t>三归还投资B</t>
+  </si>
+  <si>
+    <t>三偿还债务支付的现金E</t>
+  </si>
+  <si>
+    <t>三偿还债务支付的现金B</t>
+  </si>
+  <si>
+    <t>三分配股利利润或偿付利息支付的现金E</t>
+  </si>
+  <si>
+    <t>三分配股利利润或偿付利息支付的现金B</t>
+  </si>
+  <si>
+    <t>三支付其他与筹资活动有关的现金E</t>
+  </si>
+  <si>
+    <t>三支付其他与筹资活动有关的现金B</t>
+  </si>
+  <si>
+    <t>三筹资活动现金流出小计E</t>
+  </si>
+  <si>
+    <t>三筹资活动现金流出小计B</t>
+  </si>
+  <si>
+    <t>三筹资活动产生的现金流量净额E</t>
+  </si>
+  <si>
+    <t>三筹资活动产生的现金流量净额B</t>
+  </si>
+  <si>
+    <t>一以公允价值计量且其变动计入当期损益的金融资产E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -760,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -768,6 +873,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI7"/>
+  <dimension ref="A1:DG7"/>
   <sheetViews>
-    <sheetView topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CF7" sqref="CF7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,318 +1202,404 @@
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="43" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="47" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="57" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="61" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="18.7109375" style="1" customWidth="1"/>
+    <col min="26" max="31" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="19.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18" style="1" customWidth="1"/>
+    <col min="42" max="42" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="16.28515625" style="1" customWidth="1"/>
+    <col min="64" max="65" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="20.5703125" style="1" customWidth="1"/>
     <col min="68" max="69" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="79" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="16384" width="9.140625" style="1"/>
+    <col min="70" max="73" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="19.28515625" style="1" customWidth="1"/>
+    <col min="82" max="83" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="13.7109375" style="1" customWidth="1"/>
+    <col min="98" max="99" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="19.28515625" style="1" customWidth="1"/>
+    <col min="102" max="103" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="31" style="1" customWidth="1"/>
+    <col min="106" max="106" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:111" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="CP1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="CQ1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="CR1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CS1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="CT1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="CU1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="CV1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CW1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CX1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="CY1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CZ1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DA1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="DB1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="DC1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="DD1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="DF1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="DG1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:111">
+      <c r="A2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:87">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="B2" s="2">
         <v>95613130731.470001</v>
@@ -1413,262 +1607,300 @@
       <c r="C2" s="2">
         <v>88819798560.529999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>250848418.63</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>29963355478.450001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>14879805537.959999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>2960534651.3699999</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>2879212111.9299998</v>
       </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
         <v>1814945790.78</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>847929149.71000004</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
         <v>9024905239.4099998</v>
       </c>
-      <c r="M2" s="2">
+      <c r="Q2" s="2">
         <v>9473942712.5100002</v>
       </c>
-      <c r="N2" s="2">
+      <c r="R2" s="2">
         <v>1992536503.4300001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="S2" s="2">
         <v>1684833479.54</v>
       </c>
-      <c r="P2" s="2">
+      <c r="T2" s="2">
         <v>142910783531.64001</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="U2" s="2">
         <v>120949314644.95</v>
       </c>
-      <c r="R2" s="2">
+      <c r="V2" s="2">
         <v>1384303560.4000001</v>
       </c>
-      <c r="S2" s="2">
+      <c r="W2" s="2">
         <v>2704719177.5599999</v>
       </c>
-      <c r="T2" s="2">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>103913171.51000001</v>
       </c>
-      <c r="U2" s="2">
+      <c r="AA2" s="2">
         <v>95459187.549999997</v>
       </c>
-      <c r="V2" s="2">
+      <c r="AB2" s="2">
         <v>597736633.95000005</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AC2" s="2">
         <v>491540849.66000003</v>
       </c>
-      <c r="X2" s="2">
+      <c r="AD2" s="2">
         <v>17681655478.060001</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AE2" s="2">
         <v>15431813077.200001</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AF2" s="2">
         <v>581543756.84000003</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AG2" s="2">
         <v>2044837830.02</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AH2" s="2">
         <v>3355276284.7199998</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AI2" s="2">
         <v>2656143811.7399998</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
         <v>9667717152.1499996</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AO2" s="2">
         <v>8764376136.2700005</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AP2" s="2">
         <v>1311590311.26</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AQ2" s="2">
         <v>657000100.13</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AR2" s="2">
         <v>39458921517.709999</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AS2" s="2">
         <v>40748701670.110001</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AT2" s="2">
         <v>182369705049.35001</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AU2" s="2">
         <v>161698016315.06</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AV2" s="2">
         <v>10701081645.32</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AW2" s="2">
         <v>6276660136.0299997</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AX2" s="2">
         <v>9127336849.6800003</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AY2" s="2">
         <v>7427635753.7399998</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AZ2" s="2">
         <v>29541466861.099998</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="BA2" s="2">
         <v>24794268372.470001</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="BB2" s="2">
         <v>10021885515.93</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="BC2" s="2">
         <v>7619598042.8599997</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="BD2" s="2">
         <v>1702949427.0599999</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="BE2" s="2">
         <v>1697282605.51</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="BF2" s="2">
         <v>3126302754.29</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="BG2" s="2">
         <v>2977801480.5500002</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BH2" s="2">
         <v>41781977.25</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BI2" s="2">
         <v>48386709.75</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BJ2" s="2">
+        <v>87732811.560000002</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>707913.6</v>
+      </c>
+      <c r="BL2" s="2">
         <v>2222613974.8200002</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BM2" s="2">
         <v>2607601936.21</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BN2" s="2">
+        <v>59758848571.940002</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>55007851867.480003</v>
+      </c>
+      <c r="BP2" s="2">
         <v>126876279738.73</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BQ2" s="2">
         <v>112625180977.75999</v>
       </c>
-      <c r="BF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="2">
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>117732064</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>127518492</v>
+      </c>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2">
         <v>172081044.75</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="CC2" s="2">
         <v>134571708.03</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>172081044.75</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>134571708.03</v>
+      </c>
+      <c r="CH2" s="2">
         <v>569822520.11000001</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="CI2" s="2">
         <v>506226759.38</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="CJ2" s="2">
         <v>127446102258.84</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="CK2" s="2">
         <v>113131407737.14</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="CL2" s="2">
         <v>6015730878</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="CM2" s="2">
         <v>6015730878</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="CN2" s="2">
         <v>183400626.71000001</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="CO2" s="2">
         <v>185950626.71000001</v>
       </c>
-      <c r="BV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2">
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="CU2" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="CV2" s="2">
+        <v>267370640.37</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>207764066.72</v>
+      </c>
+      <c r="CX2" s="2">
         <v>44074949590.07</v>
       </c>
-      <c r="CA2" s="2">
+      <c r="CY2" s="2">
         <v>37737187489.779999</v>
       </c>
-      <c r="CB2" s="2">
+      <c r="CZ2" s="2">
         <v>54923602790.510002</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="DA2" s="2">
         <v>48566608577.919998</v>
       </c>
-      <c r="CD2" s="2">
+      <c r="DB2" s="2">
         <v>182369705049.35001</v>
       </c>
-      <c r="CE2" s="2">
+      <c r="DC2" s="2">
         <v>161698016315.06</v>
       </c>
-      <c r="CF2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG2" s="3">
+      <c r="DD2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DE2" s="3">
         <v>2016</v>
       </c>
-      <c r="CH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>83</v>
+      <c r="DF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:111">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>174121009199.92999</v>
@@ -1676,262 +1908,284 @@
       <c r="C3" s="2">
         <v>87032118210.630005</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>12493711.4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>458671184.10000002</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>1432734013.8399999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>2075256823.79</v>
       </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>73017106922.210007</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>50262540606.599998</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
         <v>598087657618.32996</v>
       </c>
-      <c r="M3" s="2">
+      <c r="Q3" s="2">
         <v>467361336133.57001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="R3" s="2">
         <v>721893499.95000005</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>8670500000</v>
       </c>
-      <c r="P3" s="2">
+      <c r="T3" s="2">
         <v>1017552832148.3</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="U3" s="2">
         <v>721295427853.28003</v>
       </c>
-      <c r="R3" s="2">
+      <c r="V3" s="2">
         <v>1340749439.5999999</v>
       </c>
-      <c r="S3" s="2">
+      <c r="W3" s="2">
         <v>1328014343.9200001</v>
       </c>
-      <c r="T3" s="2">
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2">
         <v>81224305346.589996</v>
       </c>
-      <c r="U3" s="2">
+      <c r="AA3" s="2">
         <v>61701988409.620003</v>
       </c>
-      <c r="V3" s="2">
+      <c r="AB3" s="2">
         <v>28811300333.549999</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AC3" s="2">
         <v>21874424322.700001</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AD3" s="2">
         <v>7098808083.3999996</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AE3" s="2">
         <v>6810793073.5799999</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AF3" s="2">
         <v>1022410893.84</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AG3" s="2">
         <v>765312561.25999999</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AH3" s="2">
         <v>1437504847.54</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AI3" s="2">
         <v>1260363652.26</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AJ3" s="2">
         <v>206342883.91999999</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AK3" s="2">
         <v>201689835.80000001</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2">
         <v>9651001968.2600002</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AO3" s="2">
         <v>7198532974.1599998</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AP3" s="2">
         <v>14935685952.83</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AQ3" s="2">
         <v>7277440604.4499998</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AR3" s="2">
         <v>147794085656.25</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AS3" s="2">
         <v>109378786070.86</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AT3" s="2">
         <v>1165346917804.55</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AU3" s="2">
         <v>830674213924.14001</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AV3" s="2">
         <v>16108858651.309999</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AW3" s="2">
         <v>16576589202.379999</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AX3" s="2">
         <v>3330183222.9099998</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AY3" s="2">
         <v>3603839089.8499999</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AZ3" s="2">
         <v>173439402739.67001</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="BA3" s="2">
         <v>138047562476.06</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="BB3" s="2">
         <v>407705939864.83002</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="BC3" s="2">
         <v>274645554496.88</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="BD3" s="2">
         <v>4930413960.9799995</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="BE3" s="2">
         <v>3839926643.4299998</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BF3" s="2">
         <v>10774906265.559999</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="BG3" s="2">
         <v>9553084094.3799992</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="BH3" s="2">
         <v>995144331.40999997</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BI3" s="2">
         <v>378374906.63</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2">
         <v>182886802898.35999</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BM3" s="2">
         <v>106580257219.71001</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2">
         <v>847355429875.81006</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BQ3" s="2">
         <v>579998485463.06995</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BR3" s="2">
         <v>96029044735.039993</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BS3" s="2">
         <v>56406061283.419998</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BT3" s="2">
         <v>32322671927.209999</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BU3" s="2">
         <v>29108375807.959999</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2">
         <v>2540666010.1500001</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="CE3" s="2">
         <v>2861999502.1199999</v>
       </c>
-      <c r="BL3" s="2">
+      <c r="CF3" s="2">
         <v>265299666.71000001</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="CG3" s="2">
         <v>504048203.85000002</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="CH3" s="2">
         <v>131317548770.45</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="CI3" s="2">
         <v>88999157180.070007</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="CJ3" s="2">
         <v>978672978646.26001</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="CK3" s="2">
         <v>668997642643.14001</v>
       </c>
-      <c r="BR3" s="2">
+      <c r="CL3" s="2">
         <v>11039152001</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="CM3" s="2">
         <v>11039152001</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="CN3" s="2">
         <v>8329263089.0100002</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="CO3" s="2">
         <v>8268267782.1499996</v>
       </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="2">
+      <c r="CP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2">
         <v>35900071829.040001</v>
       </c>
-      <c r="BY3" s="2">
+      <c r="CU3" s="2">
         <v>32540767833.970001</v>
       </c>
-      <c r="BZ3" s="2">
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2">
         <v>77171850609.869995</v>
       </c>
-      <c r="CA3" s="2">
+      <c r="CY3" s="2">
         <v>61200269803.370003</v>
       </c>
-      <c r="CB3" s="2">
+      <c r="CZ3" s="2">
         <v>186673939158.29001</v>
       </c>
-      <c r="CC3" s="2">
+      <c r="DA3" s="2">
         <v>161676571281</v>
       </c>
-      <c r="CD3" s="2">
+      <c r="DB3" s="2">
         <v>1165346917804.55</v>
       </c>
-      <c r="CE3" s="2">
+      <c r="DC3" s="2">
         <v>830674213924.14001</v>
       </c>
-      <c r="CF3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG3" s="3">
+      <c r="DD3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE3" s="3">
         <v>2017</v>
       </c>
-      <c r="CH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>79</v>
+      <c r="DF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:111">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>35177276903.910004</v>
@@ -1939,262 +2193,294 @@
       <c r="C4" s="2">
         <v>23582239011.200001</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>13033083520.99</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>13796561238.049999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>12448004833.059999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>12265195443.4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>590693658.21000004</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>592510116.61000001</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
+        <v>244984154.66999999</v>
+      </c>
+      <c r="O4" s="2">
+        <v>254016643</v>
+      </c>
+      <c r="P4" s="2">
         <v>21503524800.18</v>
       </c>
-      <c r="M4" s="2">
+      <c r="Q4" s="2">
         <v>15284904331.040001</v>
       </c>
-      <c r="N4" s="2">
+      <c r="R4" s="2">
         <v>4389760018.8299999</v>
       </c>
-      <c r="O4" s="2">
+      <c r="S4" s="2">
         <v>2657462188.8899999</v>
       </c>
-      <c r="P4" s="2">
+      <c r="T4" s="2">
         <v>88332451429.220001</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="U4" s="2">
         <v>69676691453.619995</v>
       </c>
-      <c r="R4" s="2">
+      <c r="V4" s="2">
         <v>1415354307.8199999</v>
       </c>
-      <c r="S4" s="2">
+      <c r="W4" s="2">
         <v>1555878717.05</v>
       </c>
-      <c r="T4" s="2">
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2">
         <v>12992767394.280001</v>
       </c>
-      <c r="U4" s="2">
+      <c r="AA4" s="2">
         <v>11057819628.139999</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AB4" s="2">
         <v>31214015.989999998</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AC4" s="2">
         <v>34600393.369999997</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AD4" s="2">
         <v>16017523376.110001</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AE4" s="2">
         <v>15544099343.4</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AF4" s="2">
         <v>1530390130.25</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AG4" s="2">
         <v>1786167265.52</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AH4" s="2">
         <v>7005186296.2799997</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AI4" s="2">
         <v>7274440410.9399996</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AJ4" s="2">
         <v>19843317357.299999</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AK4" s="2">
         <v>21004123145.389999</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2">
         <v>1895213404.6700001</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AO4" s="2">
         <v>1592009404.5899999</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AP4" s="2">
         <v>1254064181.76</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AQ4" s="2">
         <v>858461388.86000001</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AR4" s="2">
         <v>63130659278.410004</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AS4" s="2">
         <v>61792465895.169998</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AT4" s="2">
         <v>151463110707.63</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AU4" s="2">
         <v>131469157348.78999</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AV4" s="2">
         <v>10878580275.18</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AW4" s="2">
         <v>18165531879.150002</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AX4" s="2">
         <v>16378699659.77</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AY4" s="2">
         <v>12404889760.049999</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AZ4" s="2">
         <v>25654013649.959999</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="BA4" s="2">
         <v>20601681120.029999</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="BB4" s="2">
         <v>5833552815.0500002</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="BC4" s="2">
         <v>5737348712.9700003</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="BD4" s="2">
         <v>2349189122.9000001</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="BE4" s="2">
         <v>2408525656.48</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="BF4" s="2">
         <v>1909260527.4200001</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="BG4" s="2">
         <v>1620588401.27</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BH4" s="2">
         <v>57656458.789999999</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BI4" s="2">
         <v>30570328.66</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2">
         <v>10805162943.620001</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BM4" s="2">
         <v>9459636746.0499992</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2">
         <v>76894450536.479996</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BQ4" s="2">
         <v>73563840461.710007</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BR4" s="2">
         <v>16036492809.809999</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BS4" s="2">
         <v>15530801311.799999</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BT4" s="2">
         <v>6211088362.6800003</v>
       </c>
-      <c r="BI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="1">
+      <c r="BU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="1">
         <v>1170936828.55</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="CE4" s="2">
         <v>582785069.86000001</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="CF4" s="2">
         <v>279114620.35000002</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="CG4" s="2">
         <v>133243146.68000001</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="CH4" s="2">
         <v>27818654033.790001</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="CI4" s="2">
         <v>20224776499.360001</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="CJ4" s="2">
         <v>104713104570.27</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="CK4" s="2">
         <v>93788616961.070007</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="CL4" s="2">
         <v>6097402727</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="CM4" s="2">
         <v>6097630727</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="CN4" s="2">
         <v>826883093.84000003</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="CO4" s="2">
         <v>83383194.510000005</v>
       </c>
-      <c r="BV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="2">
+      <c r="CP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="2">
         <v>1041960</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2">
         <v>2103057782.4100001</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="CU4" s="2">
         <v>2076460077.78</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CV4" s="2">
+        <v>327347621.67000002</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>267370640.37</v>
+      </c>
+      <c r="CX4" s="2">
         <v>22793110884.09</v>
       </c>
-      <c r="CA4" s="2">
+      <c r="CY4" s="2">
         <v>17614768751.700001</v>
       </c>
-      <c r="CB4" s="2">
+      <c r="CZ4" s="2">
         <v>46750006137.360001</v>
       </c>
-      <c r="CC4" s="2">
+      <c r="DA4" s="2">
         <v>37680540387.720001</v>
       </c>
-      <c r="CD4" s="2">
+      <c r="DB4" s="2">
         <v>151463110707.63</v>
       </c>
-      <c r="CE4" s="2">
+      <c r="DC4" s="2">
         <v>131469157348.78999</v>
       </c>
-      <c r="CF4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CG4" s="3">
+      <c r="DD4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DE4" s="3">
         <v>2017</v>
       </c>
-      <c r="CH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>93</v>
+      <c r="DF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:111">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>99610431730.399994</v>
@@ -2202,256 +2488,290 @@
       <c r="C5" s="2">
         <v>95753662304.520004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>481055568</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>250848418.63</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>32256413538.139999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>29963355478.450001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>5814491641.1800003</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>2824288418.4299998</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>3717874635.4400001</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>1814945790.78</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
         <v>16568347179.120001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="Q5" s="2">
         <v>9024905239.4099998</v>
       </c>
-      <c r="N5" s="2">
+      <c r="R5" s="2">
         <v>10341912577.58</v>
       </c>
-      <c r="O5" s="2">
+      <c r="S5" s="2">
         <v>1992536503.4300001</v>
       </c>
-      <c r="P5" s="2">
+      <c r="T5" s="2">
         <v>171534646159.35999</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="U5" s="2">
         <v>142915068871.75</v>
       </c>
-      <c r="R5" s="2">
+      <c r="V5" s="2">
         <v>2174941527.25</v>
       </c>
-      <c r="S5" s="2">
+      <c r="W5" s="2">
         <v>1384303560.4000001</v>
       </c>
-      <c r="T5" s="2">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2">
         <v>110391368.86</v>
       </c>
-      <c r="U5" s="2">
+      <c r="AA5" s="2">
         <v>103913171.51000001</v>
       </c>
-      <c r="V5" s="2">
+      <c r="AB5" s="2">
         <v>516630135.79000002</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AC5" s="2">
         <v>597736633.95000005</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AD5" s="2">
         <v>17467371455.630001</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AE5" s="2">
         <v>17681655478.060001</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AF5" s="2">
         <v>1020709311.3099999</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AG5" s="2">
         <v>581543756.84000003</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AH5" s="2">
         <v>3604467335.23</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AI5" s="2">
         <v>3355276284.7199998</v>
       </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2">
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
         <v>10838333080.790001</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AO5" s="2">
         <v>9667717152.1499996</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AP5" s="2">
         <v>1010128134.1799999</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AQ5" s="2">
         <v>1311590311.26</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AR5" s="2">
         <v>43433353169.019997</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AS5" s="2">
         <v>39458921517.709999</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AT5" s="2">
         <v>214967999328.38</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AU5" s="2">
         <v>182373990389.45999</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AV5" s="2">
         <v>18646095044.32</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AW5" s="2">
         <v>10701081645.32</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AX5" s="2">
         <v>9766929541.3299999</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AY5" s="2">
         <v>9127336849.6800003</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AZ5" s="2">
         <v>34552886331.559998</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="BA5" s="2">
         <v>29541332496.720001</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="BB5" s="2">
         <v>14143038242.58</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="BC5" s="2">
         <v>10021885515.93</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="BD5" s="2">
         <v>1876728937.3399999</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="BE5" s="2">
         <v>1702949427.0599999</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="BF5" s="2">
         <v>3908873986.27</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="BG5" s="2">
         <v>3126302754.29</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="BH5" s="2">
         <v>196103905.86000001</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BI5" s="2">
         <v>41781977.25</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BJ5" s="2">
+        <v>707913.6</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>87732811.560000002</v>
+      </c>
+      <c r="BL5" s="2">
         <v>2604482345.3000002</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BM5" s="2">
         <v>2224272271.0900002</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BN5" s="2">
+        <v>60912220150.82</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>59733057515.57</v>
+      </c>
+      <c r="BP5" s="2">
         <v>147490788889.60999</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BQ5" s="2">
         <v>126852012614.25</v>
       </c>
-      <c r="BF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="2">
+      <c r="BR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>112708961</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>117732064</v>
+      </c>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2">
+        <v>126215974.15000001</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>172081044.75</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="2">
         <v>403487740.43000001</v>
       </c>
-      <c r="BM5" s="2">
+      <c r="CG5" s="2">
         <v>280009411.36000001</v>
       </c>
-      <c r="BN5" s="2">
+      <c r="CH5" s="2">
         <v>642412675.58000004</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="CI5" s="2">
         <v>569822520.11000001</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="CJ5" s="2">
         <v>148133201565.19</v>
       </c>
-      <c r="BQ5" s="2">
+      <c r="CK5" s="2">
         <v>127421835134.36</v>
       </c>
-      <c r="BR5" s="2">
+      <c r="CL5" s="2">
         <v>6015730878</v>
       </c>
-      <c r="BS5" s="2">
+      <c r="CM5" s="2">
         <v>6015730878</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="CN5" s="2">
         <v>103880600.70999999</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="CO5" s="2">
         <v>183400626.71000001</v>
       </c>
-      <c r="BX5" s="2">
+      <c r="CT5" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="BY5" s="2">
+      <c r="CU5" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="BZ5" s="2">
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2">
         <v>55740076085.900002</v>
       </c>
-      <c r="CA5" s="2">
+      <c r="CY5" s="2">
         <v>44226792442.660004</v>
       </c>
-      <c r="CB5" s="2">
+      <c r="CZ5" s="2">
         <v>66834797763.190002</v>
       </c>
-      <c r="CC5" s="2">
+      <c r="DA5" s="2">
         <v>54952155255.099998</v>
       </c>
-      <c r="CD5" s="2">
+      <c r="DB5" s="2">
         <v>214967999328.38</v>
       </c>
-      <c r="CE5" s="2">
+      <c r="DC5" s="2">
         <v>182373990389.45999</v>
       </c>
-      <c r="CF5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CG5" s="3">
+      <c r="DD5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DE5" s="3">
         <v>2017</v>
       </c>
-      <c r="CH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>95</v>
+      <c r="DF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:111">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4">
         <v>48274200000</v>
@@ -2459,262 +2779,284 @@
       <c r="C6" s="4">
         <v>27169118000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>353327000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>412813000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>10854226000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
         <v>7427488000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>17528717000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>13454511000</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>1672248000</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>1587366000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4">
         <v>29444166000</v>
       </c>
-      <c r="M6" s="4">
+      <c r="Q6" s="4">
         <v>15626897000</v>
       </c>
-      <c r="N6" s="4">
+      <c r="R6" s="4">
         <v>46847271000</v>
       </c>
-      <c r="O6" s="4">
+      <c r="S6" s="4">
         <v>43529597000</v>
       </c>
-      <c r="P6" s="4">
+      <c r="T6" s="4">
         <v>169810676000</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="U6" s="4">
         <v>120621320000</v>
       </c>
-      <c r="R6" s="4">
+      <c r="V6" s="4">
         <v>1831051000</v>
       </c>
-      <c r="S6" s="4">
+      <c r="W6" s="4">
         <v>5187732000</v>
       </c>
-      <c r="T6" s="4">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
         <v>2633698000</v>
       </c>
-      <c r="U6" s="4">
+      <c r="AA6" s="4">
         <v>2211732000</v>
       </c>
-      <c r="V6" s="4">
+      <c r="AB6" s="4">
         <v>420802000</v>
       </c>
-      <c r="W6" s="4">
+      <c r="AC6" s="4">
         <v>494122000</v>
       </c>
-      <c r="X6" s="4">
+      <c r="AD6" s="4">
         <v>22600724000</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AE6" s="4">
         <v>21056791000</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AF6" s="4">
         <v>879576000</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AG6" s="4">
         <v>580729000</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AH6" s="4">
         <v>15167036000</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AI6" s="4">
         <v>6868538000</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AJ6" s="4">
         <v>28903785000</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AK6" s="4">
         <v>5730995000</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4">
         <v>4023334000</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AO6" s="4">
         <v>3030383000</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AP6" s="4">
         <v>614822000</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AQ6" s="4">
         <v>4158530000</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AR6" s="4">
         <v>78296182000</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AS6" s="4">
         <v>49979391000</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AT6" s="4">
         <v>248106858000</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AU6" s="4">
         <v>170600711000</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AV6" s="4">
         <v>2584102000</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AW6" s="4">
         <v>3024426000</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AX6" s="4">
         <v>25207785000</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AY6" s="4">
         <v>18484939000</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AZ6" s="4">
         <v>35144777000</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="BA6" s="4">
         <v>25356960000</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="BB6" s="4">
         <v>17409063000</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="BC6" s="4">
         <v>10252375000</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="BD6" s="4">
         <v>5247500000</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="BE6" s="4">
         <v>3154387000</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="BF6" s="4">
         <v>3544154000</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="BG6" s="4">
         <v>2364446000</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="BH6" s="4">
         <v>94801000</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="BI6" s="4">
         <v>21343000</v>
       </c>
-      <c r="BB6" s="4">
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4">
         <v>3170405000</v>
       </c>
-      <c r="BC6" s="4">
+      <c r="BM6" s="4">
         <v>1571422000</v>
       </c>
-      <c r="BD6" s="4">
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4">
         <v>119091857000</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BQ6" s="4">
         <v>89184000000</v>
       </c>
-      <c r="BF6" s="4">
+      <c r="BR6" s="4">
         <v>32986325000</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BS6" s="4">
         <v>2254348000</v>
       </c>
-      <c r="BH6" s="4">
+      <c r="BT6" s="4">
         <v>4553054000</v>
       </c>
-      <c r="BI6" s="4">
+      <c r="BU6" s="4">
         <v>4818769000</v>
       </c>
-      <c r="BJ6" s="4">
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4">
         <v>994059000</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="CE6" s="4">
         <v>888152000</v>
       </c>
-      <c r="BL6" s="4">
+      <c r="CF6" s="4">
         <v>3972823000</v>
       </c>
-      <c r="BM6" s="4">
+      <c r="CG6" s="4">
         <v>1831973000</v>
       </c>
-      <c r="BN6" s="4">
+      <c r="CH6" s="4">
         <v>46089830000</v>
       </c>
-      <c r="BO6" s="4">
+      <c r="CI6" s="4">
         <v>12440015000</v>
       </c>
-      <c r="BP6" s="4">
+      <c r="CJ6" s="4">
         <v>165181687000</v>
       </c>
-      <c r="BQ6" s="4">
+      <c r="CK6" s="4">
         <v>101624015000</v>
       </c>
-      <c r="BR6" s="4">
+      <c r="CL6" s="4">
         <v>6561053000</v>
       </c>
-      <c r="BS6" s="4">
+      <c r="CM6" s="4">
         <v>6458767000</v>
       </c>
-      <c r="BT6" s="4">
+      <c r="CN6" s="4">
         <v>15911504000</v>
       </c>
-      <c r="BU6" s="4">
+      <c r="CO6" s="4">
         <v>13596569000</v>
       </c>
-      <c r="BV6" s="4">
+      <c r="CP6" s="4">
         <v>366842</v>
       </c>
-      <c r="BW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="4">
+      <c r="CQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="4">
         <v>3882232000</v>
       </c>
-      <c r="BY6" s="4">
+      <c r="CU6" s="4">
         <v>2804469000</v>
       </c>
-      <c r="BZ6" s="4">
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4">
         <v>47627235000</v>
       </c>
-      <c r="CA6" s="4">
+      <c r="CY6" s="4">
         <v>38105391000</v>
       </c>
-      <c r="CB6" s="4">
+      <c r="CZ6" s="4">
         <v>82925171000</v>
       </c>
-      <c r="CC6" s="4">
+      <c r="DA6" s="4">
         <v>68976696000</v>
       </c>
-      <c r="CD6" s="4">
+      <c r="DB6" s="4">
         <v>248106858000</v>
       </c>
-      <c r="CE6" s="4">
+      <c r="DC6" s="4">
         <v>170600711000</v>
       </c>
-      <c r="CF6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CG6" s="3">
+      <c r="DD6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DE6" s="3">
         <v>2017</v>
       </c>
-      <c r="CH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="1" t="s">
-        <v>100</v>
+      <c r="DF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:111">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2">
         <v>87868869913.339996</v>
@@ -2722,257 +3064,269 @@
       <c r="C7" s="2">
         <v>66854962118.220001</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>1221706039</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>817627172</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>790807322.07000005</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>1046100696.92</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
         <v>22057481376.459999</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>20622251825.549999</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>37539231.490000002</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>231474570.63</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>112249185961.60001</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>90180548805.570007</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>29000000</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>29000000</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
         <v>15244096632.02</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AE7" s="2">
         <v>14453177439.34</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AF7" s="2">
         <v>2016405005.77</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AG7" s="2">
         <v>2745579995.6799998</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AH7" s="2">
         <v>3458622239.3800001</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AI7" s="2">
         <v>3531740625.5999999</v>
       </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
         <v>1401797361.77</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AO7" s="2">
         <v>1745539120.6800001</v>
       </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
         <v>22360930913.48</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AS7" s="2">
         <v>22753989474.84</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AT7" s="2">
         <v>134610116875.08</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AU7" s="2">
         <v>112934538280.41</v>
       </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2">
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2">
         <v>992055910.47000003</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="BA7" s="2">
         <v>1040608203.1799999</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="BB7" s="2">
         <v>14429106902.379999</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="BC7" s="2">
         <v>17541082237.009998</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="BD7" s="2">
         <v>1901644193.6400001</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="BE7" s="2">
         <v>1628507252.03</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="BF7" s="2">
         <v>7726135741.8999996</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="BG7" s="2">
         <v>4272289194.5700002</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BH7" s="2">
         <v>23414593.670000002</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BI7" s="2">
         <v>34481635.329999998</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2">
         <v>3039948303.8000002</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BM7" s="2">
         <v>1724638571.4400001</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2">
         <v>38574919400</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BQ7" s="2">
         <v>37020425425.690002</v>
       </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="2">
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2">
         <v>15570000</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="CE7" s="2">
         <v>15570000</v>
       </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="2">
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2">
         <v>15570000</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="CI7" s="2">
         <v>15570000</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="CJ7" s="2">
         <v>38590489400</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="CK7" s="2">
         <v>37035995425.690002</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="CL7" s="2">
         <v>1256197800</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="CM7" s="2">
         <v>1256197800</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="CN7" s="2">
         <v>1374964415.72</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="CO7" s="2">
         <v>1374964415.72</v>
       </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="2">
+      <c r="CP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="2">
         <v>8215595509.6899996</v>
       </c>
-      <c r="BY7" s="2">
+      <c r="CU7" s="2">
         <v>7135649963.1199999</v>
       </c>
-      <c r="BZ7" s="2">
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2">
         <v>80011307450.330002</v>
       </c>
-      <c r="CA7" s="2">
+      <c r="CY7" s="2">
         <v>62717808036.610001</v>
       </c>
-      <c r="CB7" s="2">
+      <c r="CZ7" s="2">
         <v>96019627475.080002</v>
       </c>
-      <c r="CC7" s="2">
+      <c r="DA7" s="2">
         <v>75898542854.720001</v>
       </c>
-      <c r="CD7" s="2">
+      <c r="DB7" s="2">
         <v>134610116875.08</v>
       </c>
-      <c r="CE7" s="2">
+      <c r="DC7" s="2">
         <v>112934538280.41</v>
       </c>
-      <c r="CF7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CG7" s="3">
+      <c r="DD7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DE7" s="3">
         <v>2017</v>
       </c>
-      <c r="CH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="1" t="s">
-        <v>105</v>
+      <c r="DF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2991,19 +3345,19 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>CF2:CF1048576</xm:sqref>
+          <xm:sqref>DD2:DD1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9A79555-3BA3-4A87-8DEF-6FB02FF4564C}">
           <x14:formula1>
             <xm:f>基础数据表!$D$4:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>CG2:CG1048576</xm:sqref>
+          <xm:sqref>DE2:DE1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{465D3134-51B9-4278-8C57-E117E3DDF830}">
           <x14:formula1>
             <xm:f>基础数据表!$E$4:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>CH2:CH1048576</xm:sqref>
+          <xm:sqref>DF2:DF1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3013,163 +3367,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="19" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="19" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="16.5703125" style="1" customWidth="1"/>
+    <col min="44" max="45" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="1" t="s">
+    <row r="1" spans="1:49" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="R1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="V1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="X1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>41</v>
+      <c r="AD1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
-      <c r="A2" s="1" t="s">
-        <v>82</v>
+    <row r="2" spans="1:49">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>110113101850.23</v>
@@ -3226,75 +3609,99 @@
         <v>-1928797250.1800001</v>
       </c>
       <c r="T2" s="2">
+        <v>-991560.45</v>
+      </c>
+      <c r="U2" s="2">
+        <v>86317962.760000005</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1093332134.6500001</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-1010322499.17</v>
+      </c>
+      <c r="X2" s="2">
         <v>-2221356324.5500002</v>
       </c>
-      <c r="U2" s="2">
+      <c r="Y2" s="2">
         <v>96654919.950000003</v>
       </c>
-      <c r="V2" s="2">
+      <c r="Z2" s="2">
         <v>17455697835.720001</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AA2" s="2">
         <v>13516176980.540001</v>
       </c>
-      <c r="X2" s="2">
+      <c r="AB2" s="2">
         <v>1096234774.23</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AC2" s="2">
         <v>1404291659.8499999</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AD2" s="2">
         <v>20742533.350000001</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AE2" s="2">
         <v>11049178.359999999</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AF2" s="2">
         <v>18531190076.599998</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AG2" s="2">
         <v>14909419462.030001</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AH2" s="2">
         <v>3006555172.73</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AI2" s="2">
         <v>2285686841.8099999</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AJ2" s="2">
         <v>15524634903.870001</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AK2" s="2">
         <v>12623732620.219999</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AL2" s="2">
+        <v>-54469476.32</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>-139722316.44</v>
+      </c>
+      <c r="AN2" s="1">
         <v>2.56</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AO2" s="1">
         <v>2.08</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AP2" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="AR2" s="2">
         <v>15470165427.549999</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AS2" s="2">
         <v>12484010303.780001</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM2" s="3">
+      <c r="AT2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" s="3">
         <v>2016</v>
       </c>
-      <c r="AN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>83</v>
+      <c r="AV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="1" t="s">
-        <v>81</v>
+    <row r="3" spans="1:49">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>242897110250.51999</v>
@@ -3350,76 +3757,88 @@
       <c r="S3" s="2">
         <v>1592067967.1400001</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2">
         <v>6244561688.3900003</v>
       </c>
-      <c r="U3" s="2">
+      <c r="Y3" s="2">
         <v>5013835862.3800001</v>
       </c>
-      <c r="V3" s="2">
+      <c r="Z3" s="2">
         <v>50812916408.400002</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AA3" s="2">
         <v>39021784520.230003</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AB3" s="2">
         <v>723287994.90999997</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AC3" s="2">
         <v>396761212.13</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AD3" s="2">
         <v>394251737.89999998</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AE3" s="2">
         <v>164934006.08000001</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AF3" s="2">
         <v>51141952665.410004</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AG3" s="2">
         <v>39253611726.279999</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AH3" s="2">
         <v>13933565335.34</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AI3" s="2">
         <v>10903356245.620001</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AJ3" s="2">
         <v>37208387330.07</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AK3" s="2">
         <v>28350255480.66</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="1">
         <v>2.54</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AO3" s="1">
         <v>1.9</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AP3" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AR3" s="2">
         <v>37007858045.099998</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AS3" s="2">
         <v>28311311325.540001</v>
       </c>
-      <c r="AL3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="3">
+      <c r="AT3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU3" s="3">
         <v>2017</v>
       </c>
-      <c r="AN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>79</v>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
+    <row r="4" spans="1:49">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>150019551611.75</v>
@@ -3476,75 +3895,99 @@
         <v>-4845422380.2600002</v>
       </c>
       <c r="T4" s="2">
+        <v>263787001.81999999</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-43913008.689999998</v>
+      </c>
+      <c r="V4" s="2">
+        <v>9212503.5899999999</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1093332134.6500001</v>
+      </c>
+      <c r="X4" s="2">
         <v>396648138.31999999</v>
       </c>
-      <c r="U4" s="2">
+      <c r="Y4" s="2">
         <v>-2221356324.5500002</v>
       </c>
-      <c r="V4" s="2">
+      <c r="Z4" s="2">
         <v>26126666010.259998</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AA4" s="2">
         <v>17503625548.310001</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AB4" s="2">
         <v>511059113.00999999</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AC4" s="2">
         <v>1093853241.0899999</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AD4" s="2">
         <v>20540169.370000001</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AE4" s="2">
         <v>24405359.559999999</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AF4" s="2">
         <v>26617184953.900002</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AG4" s="2">
         <v>18573073429.84</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AH4" s="2">
         <v>4108585909.8099999</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AI4" s="2">
         <v>3006619752.2399998</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AJ4" s="2">
         <v>22508599044.09</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AK4" s="2">
         <v>15566453677.6</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AL4" s="2">
+        <v>125720324.63</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>-91602195.359999999</v>
+      </c>
+      <c r="AN4" s="1">
         <v>3.72</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AO4" s="1">
         <v>2.57</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AP4" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="AR4" s="2">
         <v>22634319368.720001</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AS4" s="2">
         <v>15474851482.24</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM4" s="3">
+      <c r="AT4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU4" s="3">
         <v>2017</v>
       </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>95</v>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
+    <row r="5" spans="1:49">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="2">
         <v>159254466909.45999</v>
@@ -3600,76 +4043,88 @@
       <c r="S5" s="2">
         <v>720408216.52999997</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2">
         <v>1481800064.8199999</v>
       </c>
-      <c r="U5" s="2">
+      <c r="Y5" s="2">
         <v>1619717433.78</v>
       </c>
-      <c r="V5" s="2">
+      <c r="Z5" s="2">
         <v>10113122382</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AA5" s="2">
         <v>7354226263.7200003</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AB5" s="2">
         <v>692963237.75999999</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AC5" s="2">
         <v>1170564378.2</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AD5" s="2">
         <v>261629717.99000001</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AE5" s="2">
         <v>336173701.05000001</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AF5" s="2">
         <v>10544455901.77</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AG5" s="2">
         <v>8188616940.8699999</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AH5" s="2">
         <v>1492806717.73</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AI5" s="2">
         <v>1492636755.3199999</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AJ5" s="2">
         <v>9051649184.0400009</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AK5" s="2">
         <v>6695980185.5500002</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="1">
         <v>1.1359999999999999</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AO5" s="1">
         <v>0.82699999999999996</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AP5" s="1">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AR5" s="2">
         <v>8447593492.4300003</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AS5" s="2">
         <v>6659288647.04</v>
       </c>
-      <c r="AL5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM5" s="3">
+      <c r="AT5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU5" s="3">
         <v>2017</v>
       </c>
-      <c r="AN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>93</v>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>98</v>
+    <row r="6" spans="1:49">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="4">
         <v>241918896000</v>
@@ -3727,76 +4182,88 @@
       <c r="S6" s="4">
         <v>-1005979000</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
         <v>1830221000</v>
       </c>
-      <c r="U6" s="4">
+      <c r="Y6" s="4">
         <v>1285961000</v>
       </c>
-      <c r="V6" s="4">
+      <c r="Z6" s="4">
         <v>21627854000</v>
       </c>
-      <c r="W6" s="4">
+      <c r="AA6" s="4">
         <v>17324101000</v>
       </c>
-      <c r="X6" s="4">
+      <c r="AB6" s="4">
         <v>467204000</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AC6" s="4">
         <v>1758220000</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AD6" s="4">
         <v>240284000</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AE6" s="4">
         <v>167718000</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AF6" s="4">
         <v>21854774000</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AG6" s="4">
         <v>18914603000</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AH6" s="4">
         <v>3243584000</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AI6" s="4">
         <v>3052691000</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AJ6" s="4">
         <v>18611190000</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AK6" s="4">
         <v>15861912000</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="1">
         <v>2.66</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AO6" s="1">
         <v>2.29</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AP6" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="AR6" s="4">
         <v>18300562000</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AS6" s="4">
         <v>17050127000</v>
       </c>
-      <c r="AL6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM6" s="3">
+      <c r="AT6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU6" s="3">
         <v>2017</v>
       </c>
-      <c r="AN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>100</v>
+      <c r="AV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="1" t="s">
-        <v>101</v>
+    <row r="7" spans="1:49">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="2">
         <v>61062756866.160004</v>
@@ -3852,71 +4319,79 @@
       <c r="S7" s="2">
         <v>-33175188.52</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
         <v>38940007533.449997</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>24265625169.419998</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AB7" s="2">
         <v>12201990.51</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AC7" s="2">
         <v>8553926.0600000005</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AD7" s="2">
         <v>212137381.36000001</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AE7" s="2">
         <v>316298138.37</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AF7" s="2">
         <v>38740072142.599998</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AG7" s="2">
         <v>23957880957.110001</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AH7" s="2">
         <v>9733648906.6000004</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AI7" s="2">
         <v>6027237847.2299995</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AJ7" s="2">
         <v>29006423236</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AK7" s="2">
         <v>17930643109.880001</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="1">
         <v>21.56</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AO7" s="5">
         <v>13.31</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AP7" s="1">
+        <v>21.56</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>13.31</v>
+      </c>
+      <c r="AR7" s="2">
         <v>29010262501.16</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AS7" s="2">
         <v>17932436343.790001</v>
       </c>
-      <c r="AL7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM7" s="3">
+      <c r="AT7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU7" s="3">
         <v>2017</v>
       </c>
-      <c r="AN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>105</v>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3935,25 +4410,25 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$28</xm:f>
           </x14:formula1>
-          <xm:sqref>AL2:AL5 AL7:AL1048576</xm:sqref>
+          <xm:sqref>AT2:AT5 AT7:AT1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2417C863-140F-476E-A3CC-75593D8F8DAA}">
           <x14:formula1>
             <xm:f>基础数据表!$D$4:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AM2:AM1048576</xm:sqref>
+          <xm:sqref>AU2:AU1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC35E51B-C16D-490D-945D-07F24671BF68}">
           <x14:formula1>
             <xm:f>基础数据表!$E$4:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AN2:AN1048576</xm:sqref>
+          <xm:sqref>AV2:AV1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{302DFDD0-7217-4772-8C5F-68AF0FEBE3E3}">
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>AL6</xm:sqref>
+          <xm:sqref>AT6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3963,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
-  <dimension ref="A1:BW7"/>
+  <dimension ref="A1:BY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3981,299 +4456,307 @@
     <col min="9" max="9" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="1"/>
+    <col min="72" max="72" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:77">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>69896621293.210007</v>
@@ -4306,201 +4789,207 @@
         <v>42541255260.220001</v>
       </c>
       <c r="L2" s="2">
+        <v>5657046182.4399996</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5590514442.0299997</v>
+      </c>
+      <c r="N2" s="2">
         <v>11333898757.719999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>13773887181.66</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>8371524851.1400003</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>10435185083.9</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>60655483825.389999</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>74418126295.960007</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>14859952106.92</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
         <v>44378381827.68</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <v>3142289553.3499999</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
         <v>950000000</v>
       </c>
-      <c r="V2" s="2">
+      <c r="X2" s="2">
         <v>264728491.86000001</v>
       </c>
-      <c r="W2" s="2">
+      <c r="Y2" s="2">
         <v>84643291.790000007</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Z2" s="2">
         <v>27196374.800000001</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AA2" s="2">
         <v>1228803.43</v>
       </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
         <v>6500000</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AE2" s="2">
         <v>143435881.62</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AF2" s="2">
         <v>3440714420.0100002</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AG2" s="2">
         <v>1179307976.8399999</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AH2" s="2">
         <v>3276936026.6799998</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AI2" s="2">
         <v>2884513074.71</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AJ2" s="2">
         <v>1496403698.8599999</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AK2" s="2">
         <v>2832663335.6199999</v>
       </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
         <v>17913927388.57</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AO2" s="2">
         <v>175286430.99000001</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AP2" s="2">
         <v>22687267114.110001</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AQ2" s="2">
         <v>5892462841.3199997</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AR2" s="2">
         <v>-19246552694.099998</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AS2" s="2">
         <v>-4713154864.4799995</v>
       </c>
-      <c r="AR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2">
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
         <v>12382413204.610001</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AW2" s="2">
         <v>10096926967.84</v>
       </c>
-      <c r="AV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2">
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2">
         <v>2110522945.98</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="BA2" s="2">
         <v>1257485012.71</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BB2" s="2">
         <v>14492936150.59</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BC2" s="2">
         <v>11354411980.549999</v>
       </c>
-      <c r="BB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="2">
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2">
         <v>11054156840.309999</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BG2" s="2">
         <v>9512423538.1499996</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BH2" s="2">
         <v>9180067571.7099991</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BI2" s="2">
         <v>9525010447.4599991</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BJ2" s="2">
         <v>10271924.02</v>
       </c>
-      <c r="BI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="2">
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2">
         <v>20244496336.040001</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BM2" s="2">
         <v>19037433985.610001</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BN2" s="2">
         <v>-5751560185.4499998</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="BO2" s="2">
         <v>-7683022005.0600004</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BP2" s="2">
         <v>4094503950.2399998</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BQ2" s="2">
         <v>1876340773.99</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BR2" s="2">
         <v>-6043656822.3900003</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BS2" s="2">
         <v>33858545732.130001</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="BT2" s="2">
         <v>71321360022.830002</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="BU2" s="2">
         <v>77365016845.220001</v>
       </c>
-      <c r="BT2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU2" s="3">
+      <c r="BV2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW2" s="3">
         <v>2016</v>
       </c>
-      <c r="BV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>83</v>
+      <c r="BX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:77">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>368405223395.35999</v>
@@ -4533,201 +5022,207 @@
         <v>178468699955.35999</v>
       </c>
       <c r="L3" s="2">
+        <v>9243602564.2199993</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6689013465.8199997</v>
+      </c>
+      <c r="N3" s="2">
         <v>39759746765.400002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>33760312000.18</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>46058348068.660004</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>54351461300.449997</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>329938052611.35999</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>273269486721.81</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>82322834216.5</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>39566129021.690002</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <v>3367297383.8499999</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <v>493101153.44</v>
       </c>
-      <c r="V3" s="2">
+      <c r="X3" s="2">
         <v>1251494572.5999999</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Y3" s="2">
         <v>2582729064.1399999</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Z3" s="2">
         <v>141605787.75</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AA3" s="2">
         <v>247376847.5</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AB3" s="2">
         <v>3191189237.6799998</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AC3" s="2">
         <v>419725190.02999997</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AD3" s="2">
         <v>11819981019.690001</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AE3" s="2">
         <v>2821834610.21</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AF3" s="2">
         <v>19771568001.57</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AG3" s="2">
         <v>6564766865.3199997</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AH3" s="2">
         <v>2360481196.9899998</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AI3" s="2">
         <v>2146785574.6700001</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AJ3" s="2">
         <v>46833228034.379997</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AK3" s="2">
         <v>31771132896.709999</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AL3" s="2">
         <v>21315728901.150002</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AM3" s="2">
         <v>14646744872.860001</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AN3" s="2">
         <v>875362911.55999994</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AO3" s="2">
         <v>1389153665.3900001</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AP3" s="2">
         <v>71384801044.080002</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AQ3" s="2">
         <v>49953817009.629997</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AR3" s="2">
         <v>-51613233042.510002</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AS3" s="2">
         <v>-43389050144.309998</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AT3" s="2">
         <v>14253822653.98</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AU3" s="2">
         <v>9735250248.5599995</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AV3" s="2">
         <v>94575766875.149994</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AW3" s="2">
         <v>68774573215.130005</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AX3" s="2">
         <v>10620400000</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AY3" s="2">
         <v>11645762254.379999</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AZ3" s="2">
         <v>4324560000</v>
       </c>
-      <c r="AY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2">
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2">
         <v>123774549529.13</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BC3" s="2">
         <v>90155585718.070007</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BD3" s="2">
         <v>8120957372.0299997</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BE3" s="2">
         <v>4006258178.1300001</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BF3" s="2">
         <v>41254319676.169998</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BG3" s="2">
         <v>38826219711.440002</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BH3" s="2">
         <v>19134376263.23</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BI3" s="2">
         <v>16026457227.879999</v>
       </c>
-      <c r="BH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="2">
+      <c r="BJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2">
         <v>68509653311.43</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BM3" s="2">
         <v>58858935117.449997</v>
       </c>
-      <c r="BL3" s="2">
+      <c r="BN3" s="2">
         <v>55264896217.699997</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="BO3" s="2">
         <v>31296650600.619999</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="BP3" s="2">
         <v>-1138504966.0799999</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="BQ3" s="2">
         <v>268664301.75</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="BR3" s="2">
         <v>84835992425.610001</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BS3" s="2">
         <v>27742393779.75</v>
       </c>
-      <c r="BR3" s="2">
+      <c r="BT3" s="2">
         <v>164326007371.29999</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="BU3" s="2">
         <v>79490014945.690002</v>
       </c>
-      <c r="BT3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BU3" s="3">
+      <c r="BV3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW3" s="3">
         <v>2017</v>
       </c>
-      <c r="BV3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>79</v>
+      <c r="BX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:77">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>107599120105.06</v>
@@ -4760,201 +5255,207 @@
         <v>40478783811.269997</v>
       </c>
       <c r="L4" s="2">
+        <v>7684869151.8800001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5657046182.4399996</v>
+      </c>
+      <c r="N4" s="2">
         <v>13196771806.07</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>11333898757.719999</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>15589887099.860001</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>8371651668.8199997</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>97282757643.330002</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>60655610643.07</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>16358538247.83</v>
       </c>
-      <c r="S4" s="2">
+      <c r="U4" s="2">
         <v>14859952106.92</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
         <v>3403888789.0500002</v>
       </c>
-      <c r="U4" s="2">
+      <c r="W4" s="2">
         <v>3142289553.3499999</v>
       </c>
-      <c r="V4" s="2">
+      <c r="X4" s="2">
         <v>152095873.44999999</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Y4" s="2">
         <v>264728491.86000001</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Z4" s="2">
         <v>3549493.8</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AA4" s="2">
         <v>27196374.800000001</v>
       </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
         <v>443244425.44999999</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AE4" s="2">
         <v>6500000</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AF4" s="2">
         <v>4002778581.75</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AG4" s="2">
         <v>3440714420.0100002</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AH4" s="2">
         <v>2424806990.73</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AI4" s="2">
         <v>3276936026.6799998</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AJ4" s="2">
         <v>12419732249.51</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AK4" s="2">
         <v>1496403698.8599999</v>
       </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
         <v>51411697310.269997</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AO4" s="2">
         <v>17913927388.57</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AP4" s="2">
         <v>66256236550.510002</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AQ4" s="2">
         <v>22687267114.110001</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AR4" s="2">
         <v>-62253457968.760002</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AS4" s="2">
         <v>-19246552694.099998</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AT4" s="2">
         <v>90490000</v>
       </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2">
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
         <v>21610162758.279999</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AW4" s="2">
         <v>12382413204.610001</v>
       </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="2">
+      <c r="AX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2">
         <v>160275000</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="BA4" s="2">
         <v>2110522945.98</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BB4" s="2">
         <v>21860927758.279999</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BC4" s="2">
         <v>14492936150.59</v>
       </c>
-      <c r="BB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="2">
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2">
         <v>13008985202.68</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BG4" s="2">
         <v>11054156840.309999</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BH4" s="2">
         <v>11121283724.41</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BI4" s="2">
         <v>9180067571.7099991</v>
       </c>
-      <c r="BH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="2">
+      <c r="BJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="2">
         <v>10271924.02</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BL4" s="2">
         <v>24130268927.09</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BM4" s="2">
         <v>20244496336.040001</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BN4" s="2">
         <v>-2269341168.8099999</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="BO4" s="2">
         <v>-5751560185.4499998</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="BP4" s="2">
         <v>-1798027435.5699999</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BQ4" s="2">
         <v>4094503950.2399998</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="BR4" s="2">
         <v>-49962288325.309998</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BS4" s="2">
         <v>-6043656822.3900003</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="BT4" s="2">
         <v>21359071697.52</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="BU4" s="2">
         <v>71321360022.830002</v>
       </c>
-      <c r="BT4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU4" s="3">
+      <c r="BV4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW4" s="3">
         <v>2017</v>
       </c>
-      <c r="BV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>96</v>
+      <c r="BX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:77">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
         <v>163243966287.70999</v>
@@ -4986,202 +5487,204 @@
       <c r="K5" s="2">
         <v>101379852303.83</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
         <v>7835178863.9499998</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>6348293330.29</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>13887073804.059999</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>10738781692.67</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>149393404784.5</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>130638837175.00999</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>16086588028.309999</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>8135878351.8800001</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <v>275405926.37</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <v>682200570.32000005</v>
       </c>
-      <c r="V5" s="2">
+      <c r="X5" s="2">
         <v>282045768.45999998</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Y5" s="2">
         <v>130529291.68000001</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Z5" s="2">
         <v>191270429.93000001</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AA5" s="2">
         <v>260932344.56</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AB5" s="2">
         <v>23620711.449999999</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AC5" s="2">
         <v>41133607.210000001</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AD5" s="2">
         <v>191730448.52000001</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AE5" s="2">
         <v>10042470.810000001</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AF5" s="2">
         <v>964073284.73000002</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AG5" s="2">
         <v>1124838284.5799999</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AH5" s="2">
         <v>3967160912.29</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AI5" s="2">
         <v>2627363433.7800002</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AJ5" s="2">
         <v>2566398552.0599999</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AK5" s="2">
         <v>1448790904.9300001</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AL5" s="2">
         <v>52334438.579999998</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AM5" s="2">
         <v>36647350833.82</v>
       </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
         <v>27136079.07</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AP5" s="2">
         <v>6585893902.9300003</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AQ5" s="2">
         <v>40750641251.599998</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AR5" s="2">
         <v>-5621820618.1999998</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AS5" s="2">
         <v>-39625802967.019997</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AT5" s="2">
         <v>1379989798.26</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AU5" s="2">
         <v>94182889.430000007</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AV5" s="2">
         <v>18694640060.560001</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AW5" s="2">
         <v>43446247876.57</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AX5" s="2">
         <v>6796000000</v>
       </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2">
+      <c r="AY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2">
         <v>24716628.629999999</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="BB5" s="2">
         <v>26870629858.82</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BC5" s="2">
         <v>43565147394.629997</v>
       </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="2">
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2">
         <v>22922113456.970001</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BG5" s="2">
         <v>11685054603.51</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BH5" s="2">
         <v>2898969569.6100001</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BI5" s="2">
         <v>1807044796.22</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BJ5" s="2">
         <v>126660039.02</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BK5" s="2">
         <v>223282344.34999999</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BL5" s="2">
         <v>25947743065.599998</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="BM5" s="2">
         <v>13715381744.08</v>
       </c>
-      <c r="BL5" s="2">
+      <c r="BN5" s="2">
         <v>922886793.22000003</v>
       </c>
-      <c r="BM5" s="2">
+      <c r="BO5" s="2">
         <v>29849765650.549999</v>
       </c>
-      <c r="BN5" s="2">
+      <c r="BP5" s="2">
         <v>-342880074.16000003</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="BQ5" s="2">
         <v>209746501.09</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="BR5" s="2">
         <v>11044774129.17</v>
       </c>
-      <c r="BQ5" s="2">
+      <c r="BS5" s="2">
         <v>-1430412463.5</v>
       </c>
-      <c r="BR5" s="2">
+      <c r="BT5" s="2">
         <v>34340013574.220001</v>
       </c>
-      <c r="BS5" s="2">
+      <c r="BU5" s="2">
         <v>23295239445.049999</v>
       </c>
-      <c r="BT5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU5" s="3">
+      <c r="BV5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW5" s="3">
         <v>2017</v>
       </c>
-      <c r="BV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>97</v>
+      <c r="BX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:77">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4">
         <v>195820338000</v>
@@ -5213,202 +5716,204 @@
       <c r="K6" s="4">
         <v>89440654000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>11139448000</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>8824342000</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>29139920000</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>21802729000</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="4">
         <v>182872989000</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <v>135963803000</v>
       </c>
-      <c r="R6" s="4">
+      <c r="T6" s="4">
         <v>24442623000</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <v>26695009000</v>
       </c>
-      <c r="T6" s="4">
+      <c r="V6" s="4">
         <v>85127382000</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <v>73905220000</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <v>2727603000</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Y6" s="4">
         <v>1954049000</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <v>1441101000</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AA6" s="4">
         <v>191159000</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
         <v>272899000</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
         <v>89296086000</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AG6" s="4">
         <v>76323327000</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AH6" s="4">
         <v>3218402000</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AI6" s="4">
         <v>2323430000</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AJ6" s="4">
         <v>94967122000</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AK6" s="4">
         <v>90880725000</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AL6" s="4">
         <v>25850170000</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AM6" s="4">
         <v>2900256000</v>
       </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
         <v>124035694000</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AQ6" s="4">
         <v>96104411000</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AR6" s="4">
         <v>34739608000</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AS6" s="4">
         <v>19781084000</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AT6" s="4">
         <v>1668205000</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AU6" s="4">
         <v>814845000</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AV6" s="4">
         <v>62169886000</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AW6" s="4">
         <v>32422027000</v>
       </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="4">
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4">
         <v>1999500000</v>
       </c>
-      <c r="AX6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="4">
-        <v>0</v>
-      </c>
       <c r="AZ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="4">
         <v>63838091000</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="BC6" s="4">
         <v>35236372000</v>
       </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="4">
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="4">
         <v>36074251000</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BG6" s="4">
         <v>26961143000</v>
       </c>
-      <c r="BF6" s="4">
+      <c r="BH6" s="4">
         <v>7908056000</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BI6" s="4">
         <v>6046355000</v>
       </c>
-      <c r="BH6" s="4">
+      <c r="BJ6" s="4">
         <v>204139000</v>
       </c>
-      <c r="BI6" s="4">
+      <c r="BK6" s="4">
         <v>69462000</v>
       </c>
-      <c r="BJ6" s="4">
+      <c r="BL6" s="4">
         <v>44186446000</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="BM6" s="4">
         <v>35076460000</v>
       </c>
-      <c r="BL6" s="4">
+      <c r="BN6" s="4">
         <v>19651645000</v>
       </c>
-      <c r="BM6" s="4">
+      <c r="BO6" s="4">
         <v>159912000</v>
       </c>
-      <c r="BN6" s="4">
+      <c r="BP6" s="4">
         <v>-36737000</v>
       </c>
-      <c r="BO6" s="4">
+      <c r="BQ6" s="4">
         <v>252576000</v>
       </c>
-      <c r="BP6" s="4">
+      <c r="BR6" s="4">
         <v>9317923000</v>
       </c>
-      <c r="BQ6" s="4">
+      <c r="BS6" s="4">
         <v>7326413000</v>
       </c>
-      <c r="BR6" s="4">
+      <c r="BT6" s="4">
         <v>21831653000</v>
       </c>
-      <c r="BS6" s="4">
+      <c r="BU6" s="4">
         <v>12513730000</v>
       </c>
-      <c r="BT6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU6" s="3">
+      <c r="BV6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW6" s="3">
         <v>2017</v>
       </c>
-      <c r="BV6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>100</v>
+      <c r="BX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:77">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2">
         <v>64421479343.019997</v>
@@ -5440,114 +5945,110 @@
       <c r="K7" s="2">
         <v>2773020403.27</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <v>23065648503.049999</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>17510516331.200001</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>2940296363.54</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>2371486776.8800001</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>45216426427.68</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>29827895990.880001</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>22153036084.130001</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>37451249647.050003</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
         <v>16450</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>92084.5</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
         <v>21430672.949999999</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>5562351.1900000004</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>21447122.949999999</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>5654435.6900000004</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AH7" s="2">
         <v>1125017192.45</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AI7" s="2">
         <v>1019178136.92</v>
       </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
         <v>17075145.100000001</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AO7" s="2">
         <v>88977102.969999999</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AP7" s="2">
         <v>1142092337.55</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AQ7" s="2">
         <v>1108155239.8900001</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AR7" s="2">
         <v>-1120645214.5999999</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AS7" s="2">
         <v>-1102500804.2</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AT7" s="2">
         <v>6000000</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AU7" s="2">
         <v>16000000</v>
       </c>
-      <c r="AT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>0</v>
-      </c>
       <c r="AV7" s="1">
         <v>0</v>
       </c>
@@ -5560,77 +6061,83 @@
       <c r="AY7" s="1">
         <v>0</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2">
         <v>6000000</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BC7" s="2">
         <v>16000000</v>
       </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
       <c r="BD7" s="1">
         <v>0</v>
       </c>
       <c r="BE7" s="1">
         <v>0</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2">
         <v>8905177880.7999992</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BI7" s="2">
         <v>8350512252.2299995</v>
       </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="2">
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2">
         <v>8905177880.7999992</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BM7" s="2">
         <v>8350512252.2299995</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BN7" s="2">
         <v>-8899177880.7999992</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BO7" s="2">
         <v>-8334512252.2299995</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="BP7" s="2">
         <v>72948.86</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BQ7" s="2">
         <v>72317.8</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BR7" s="2">
         <v>12133285937.59</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="BS7" s="2">
         <v>28014308908.419998</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="BT7" s="2">
         <v>74928080750.580002</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="BU7" s="2">
         <v>62794794812.989998</v>
       </c>
-      <c r="BT7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BU7" s="3">
+      <c r="BV7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW7" s="3">
         <v>2017</v>
       </c>
-      <c r="BV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>105</v>
+      <c r="BX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5649,25 +6156,25 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>BT2:BT5 BT7:BT1048576</xm:sqref>
+          <xm:sqref>BV2:BV5 BV7:BV1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54123E2F-1850-4D93-A71D-1A5A22644195}">
           <x14:formula1>
             <xm:f>基础数据表!$D$4:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>BU2:BU1048576</xm:sqref>
+          <xm:sqref>BW2:BW1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94C64AE7-D47A-49EA-BBAB-7AE8671DD5CB}">
           <x14:formula1>
             <xm:f>基础数据表!$E$4:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BV2:BV1048576</xm:sqref>
+          <xm:sqref>BX2:BX1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE277DC7-8325-4C34-93A9-BD9DB9CFD52E}">
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>BT6</xm:sqref>
+          <xm:sqref>BV6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5679,7 +6186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9B332-6367-49E7-BDF8-F73878560B57}">
   <dimension ref="B3:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5690,24 +6197,24 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>2010</v>
@@ -5718,10 +6225,10 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>2011</v>
@@ -5732,10 +6239,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>2012</v>
@@ -5746,7 +6253,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>2013</v>
@@ -5757,7 +6264,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>2014</v>

--- a/Dataset/公司报表.xlsx
+++ b/Dataset/公司报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7BD23-50CD-40AC-A1C1-E1E59D7590CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB03A340-447A-421A-92EE-4FDD9C046D90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="265">
   <si>
     <t>行业类型</t>
   </si>
@@ -352,9 +352,6 @@
     <t>一持有至到期投资B</t>
   </si>
   <si>
-    <t>一长期股权投资E</t>
-  </si>
-  <si>
     <t>一长期股权投资B</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
   </si>
   <si>
     <t>二应付债券B</t>
-  </si>
-  <si>
-    <t>二长期应付款E</t>
   </si>
   <si>
     <t>二长期应付款B</t>
@@ -820,6 +814,44 @@
   </si>
   <si>
     <t>一以公允价值计量且其变动计入当期损益的金融资产E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二长期应付款E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万通地产</t>
+  </si>
+  <si>
+    <t>万通地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一长期股权投资E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一长期应收款E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一长期应收款B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二一年内到期的非流动负债E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二一年内到期的非流动负债B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>万通地产20170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1191,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DG7"/>
+  <dimension ref="A1:DK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1214,55 +1246,56 @@
     <col min="21" max="21" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="18.7109375" style="1" customWidth="1"/>
-    <col min="26" max="31" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="19.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18" style="1" customWidth="1"/>
+    <col min="24" max="27" width="18.7109375" style="1" customWidth="1"/>
+    <col min="28" max="33" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="19.28515625" style="1" customWidth="1"/>
     <col min="42" max="42" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="16.28515625" style="1" customWidth="1"/>
-    <col min="64" max="65" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="20.5703125" style="1" customWidth="1"/>
-    <col min="68" max="69" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="19.28515625" style="1" customWidth="1"/>
-    <col min="82" max="83" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="13.7109375" style="1" customWidth="1"/>
-    <col min="98" max="99" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="19.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18" style="1" customWidth="1"/>
+    <col min="44" max="44" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="16.28515625" style="1" customWidth="1"/>
+    <col min="66" max="67" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="20.5703125" style="1" customWidth="1"/>
+    <col min="72" max="73" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="85" width="19.28515625" style="1" customWidth="1"/>
+    <col min="86" max="87" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="13.7109375" style="1" customWidth="1"/>
     <col min="102" max="103" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="31" style="1" customWidth="1"/>
-    <col min="106" max="106" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="110" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="16384" width="9.140625" style="1"/>
+    <col min="104" max="105" width="19.28515625" style="1" customWidth="1"/>
+    <col min="106" max="107" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="6" customFormat="1">
+    <row r="1" spans="1:115" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1306,7 @@
         <v>79</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>80</v>
@@ -1339,265 +1372,277 @@
         <v>100</v>
       </c>
       <c r="Z1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="BR1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CW1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CX1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CY1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CZ1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="DA1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="DB1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="DC1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="CV1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CW1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="CX1" s="6" t="s">
+      <c r="DD1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="CY1" s="6" t="s">
+      <c r="DE1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="CZ1" s="6" t="s">
+      <c r="DF1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="DA1" s="6" t="s">
+      <c r="DG1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="DB1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="DC1" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="DD1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE1" s="6" t="s">
+      <c r="DH1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="DF1" s="6" t="s">
+      <c r="DJ1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="DG1" s="6" t="s">
+      <c r="DK1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:111">
+    <row r="2" spans="1:115">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,8 +1652,12 @@
       <c r="C2" s="2">
         <v>88819798560.529999</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="2">
         <v>250848418.63</v>
       </c>
@@ -1633,8 +1682,12 @@
       <c r="M2" s="2">
         <v>847929149.71000004</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
       <c r="P2" s="2">
         <v>9024905239.4099998</v>
       </c>
@@ -1659,159 +1712,179 @@
       <c r="W2" s="2">
         <v>2704719177.5599999</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
         <v>103913171.51000001</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AC2" s="2">
         <v>95459187.549999997</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AD2" s="2">
         <v>597736633.95000005</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AE2" s="2">
         <v>491540849.66000003</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AF2" s="2">
         <v>17681655478.060001</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AG2" s="2">
         <v>15431813077.200001</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AH2" s="2">
         <v>581543756.84000003</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AI2" s="2">
         <v>2044837830.02</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AJ2" s="2">
         <v>3355276284.7199998</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AK2" s="2">
         <v>2656143811.7399998</v>
       </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2">
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
         <v>9667717152.1499996</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AQ2" s="2">
         <v>8764376136.2700005</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AR2" s="2">
         <v>1311590311.26</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AS2" s="2">
         <v>657000100.13</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AT2" s="2">
         <v>39458921517.709999</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AU2" s="2">
         <v>40748701670.110001</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AV2" s="2">
         <v>182369705049.35001</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AW2" s="2">
         <v>161698016315.06</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AX2" s="2">
         <v>10701081645.32</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AY2" s="2">
         <v>6276660136.0299997</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AZ2" s="2">
         <v>9127336849.6800003</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="BA2" s="2">
         <v>7427635753.7399998</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BB2" s="2">
         <v>29541466861.099998</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BC2" s="2">
         <v>24794268372.470001</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BD2" s="2">
         <v>10021885515.93</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BE2" s="2">
         <v>7619598042.8599997</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BF2" s="2">
         <v>1702949427.0599999</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BG2" s="2">
         <v>1697282605.51</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BH2" s="2">
         <v>3126302754.29</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BI2" s="2">
         <v>2977801480.5500002</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BJ2" s="2">
         <v>41781977.25</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BK2" s="2">
         <v>48386709.75</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BL2" s="2">
         <v>87732811.560000002</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BM2" s="2">
         <v>707913.6</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BN2" s="2">
         <v>2222613974.8200002</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="BO2" s="2">
         <v>2607601936.21</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>2403745557.3699999</v>
+      </c>
+      <c r="BR2" s="2">
         <v>59758848571.940002</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BS2" s="2">
         <v>55007851867.480003</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BT2" s="2">
         <v>126876279738.73</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BU2" s="2">
         <v>112625180977.75999</v>
       </c>
-      <c r="BR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2">
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2">
         <v>117732064</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="CC2" s="2">
         <v>127518492</v>
-      </c>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2">
-        <v>172081044.75</v>
-      </c>
-      <c r="CC2" s="2">
-        <v>134571708.03</v>
       </c>
       <c r="CD2" s="1">
         <v>0</v>
@@ -1825,80 +1898,98 @@
       <c r="CG2" s="2">
         <v>134571708.03</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>172081044.75</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>134571708.03</v>
+      </c>
+      <c r="CL2" s="2">
         <v>569822520.11000001</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="CM2" s="2">
         <v>506226759.38</v>
       </c>
-      <c r="CJ2" s="2">
+      <c r="CN2" s="2">
         <v>127446102258.84</v>
       </c>
-      <c r="CK2" s="2">
+      <c r="CO2" s="2">
         <v>113131407737.14</v>
       </c>
-      <c r="CL2" s="2">
+      <c r="CP2" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CM2" s="2">
+      <c r="CQ2" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CN2" s="2">
+      <c r="CR2" s="2">
         <v>183400626.71000001</v>
       </c>
-      <c r="CO2" s="2">
+      <c r="CS2" s="2">
         <v>185950626.71000001</v>
       </c>
-      <c r="CP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="2">
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CU2" s="2">
+      <c r="CY2" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CV2" s="2">
+      <c r="CZ2" s="2">
         <v>267370640.37</v>
       </c>
-      <c r="CW2" s="2">
+      <c r="DA2" s="2">
         <v>207764066.72</v>
       </c>
-      <c r="CX2" s="2">
+      <c r="DB2" s="2">
         <v>44074949590.07</v>
       </c>
-      <c r="CY2" s="2">
+      <c r="DC2" s="2">
         <v>37737187489.779999</v>
       </c>
-      <c r="CZ2" s="2">
+      <c r="DD2" s="2">
         <v>54923602790.510002</v>
       </c>
-      <c r="DA2" s="2">
+      <c r="DE2" s="2">
         <v>48566608577.919998</v>
       </c>
-      <c r="DB2" s="2">
+      <c r="DF2" s="2">
         <v>182369705049.35001</v>
       </c>
-      <c r="DC2" s="2">
+      <c r="DG2" s="2">
         <v>161698016315.06</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="DE2" s="3">
+      <c r="DI2" s="3">
         <v>2016</v>
       </c>
-      <c r="DF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:111">
+    <row r="3" spans="1:115">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1908,8 +1999,12 @@
       <c r="C3" s="2">
         <v>87032118210.630005</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="2">
         <v>12493711.4</v>
       </c>
@@ -1934,8 +2029,12 @@
       <c r="M3" s="2">
         <v>50262540606.599998</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
       <c r="P3" s="2">
         <v>598087657618.32996</v>
       </c>
@@ -1960,230 +2059,284 @@
       <c r="W3" s="2">
         <v>1328014343.9200001</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2">
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
         <v>81224305346.589996</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AC3" s="2">
         <v>61701988409.620003</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AD3" s="2">
         <v>28811300333.549999</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AE3" s="2">
         <v>21874424322.700001</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AF3" s="2">
         <v>7098808083.3999996</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AG3" s="2">
         <v>6810793073.5799999</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AH3" s="2">
         <v>1022410893.84</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AI3" s="2">
         <v>765312561.25999999</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AJ3" s="2">
         <v>1437504847.54</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AK3" s="2">
         <v>1260363652.26</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AL3" s="2">
         <v>206342883.91999999</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AM3" s="2">
         <v>201689835.80000001</v>
       </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2">
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2">
         <v>9651001968.2600002</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AQ3" s="2">
         <v>7198532974.1599998</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AR3" s="2">
         <v>14935685952.83</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AS3" s="2">
         <v>7277440604.4499998</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AT3" s="2">
         <v>147794085656.25</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AU3" s="2">
         <v>109378786070.86</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AV3" s="2">
         <v>1165346917804.55</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AW3" s="2">
         <v>830674213924.14001</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AX3" s="2">
         <v>16108858651.309999</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AY3" s="2">
         <v>16576589202.379999</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AZ3" s="2">
         <v>3330183222.9099998</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="BA3" s="2">
         <v>3603839089.8499999</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="BB3" s="2">
         <v>173439402739.67001</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BC3" s="2">
         <v>138047562476.06</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BD3" s="2">
         <v>407705939864.83002</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BE3" s="2">
         <v>274645554496.88</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BF3" s="2">
         <v>4930413960.9799995</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BG3" s="2">
         <v>3839926643.4299998</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BH3" s="2">
         <v>10774906265.559999</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BI3" s="2">
         <v>9553084094.3799992</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BJ3" s="2">
         <v>995144331.40999997</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BK3" s="2">
         <v>378374906.63</v>
       </c>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
       <c r="BL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="2">
         <v>182886802898.35999</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="BO3" s="2">
         <v>106580257219.71001</v>
       </c>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
       <c r="BP3" s="2">
+        <v>38568200000</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>22526294558.990002</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2">
         <v>847355429875.81006</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BU3" s="2">
         <v>579998485463.06995</v>
       </c>
-      <c r="BR3" s="2">
+      <c r="BV3" s="2">
         <v>96029044735.039993</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="BW3" s="2">
         <v>56406061283.419998</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="BX3" s="2">
         <v>32322671927.209999</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="BY3" s="2">
         <v>29108375807.959999</v>
       </c>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2">
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2">
         <v>2540666010.1500001</v>
       </c>
-      <c r="CE3" s="2">
+      <c r="CI3" s="2">
         <v>2861999502.1199999</v>
       </c>
-      <c r="CF3" s="2">
+      <c r="CJ3" s="2">
         <v>265299666.71000001</v>
       </c>
-      <c r="CG3" s="2">
+      <c r="CK3" s="2">
         <v>504048203.85000002</v>
       </c>
-      <c r="CH3" s="2">
+      <c r="CL3" s="2">
         <v>131317548770.45</v>
       </c>
-      <c r="CI3" s="2">
+      <c r="CM3" s="2">
         <v>88999157180.070007</v>
       </c>
-      <c r="CJ3" s="2">
+      <c r="CN3" s="2">
         <v>978672978646.26001</v>
       </c>
-      <c r="CK3" s="2">
+      <c r="CO3" s="2">
         <v>668997642643.14001</v>
       </c>
-      <c r="CL3" s="2">
+      <c r="CP3" s="2">
         <v>11039152001</v>
       </c>
-      <c r="CM3" s="2">
+      <c r="CQ3" s="2">
         <v>11039152001</v>
       </c>
-      <c r="CN3" s="2">
+      <c r="CR3" s="2">
         <v>8329263089.0100002</v>
       </c>
-      <c r="CO3" s="2">
+      <c r="CS3" s="2">
         <v>8268267782.1499996</v>
       </c>
-      <c r="CP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="2">
+      <c r="CT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="2">
         <v>35900071829.040001</v>
       </c>
-      <c r="CU3" s="2">
+      <c r="CY3" s="2">
         <v>32540767833.970001</v>
       </c>
-      <c r="CV3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="2">
+      <c r="CZ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="2">
         <v>77171850609.869995</v>
       </c>
-      <c r="CY3" s="2">
+      <c r="DC3" s="2">
         <v>61200269803.370003</v>
       </c>
-      <c r="CZ3" s="2">
+      <c r="DD3" s="2">
         <v>186673939158.29001</v>
       </c>
-      <c r="DA3" s="2">
+      <c r="DE3" s="2">
         <v>161676571281</v>
       </c>
-      <c r="DB3" s="2">
+      <c r="DF3" s="2">
         <v>1165346917804.55</v>
       </c>
-      <c r="DC3" s="2">
+      <c r="DG3" s="2">
         <v>830674213924.14001</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="DE3" s="3">
+      <c r="DI3" s="3">
         <v>2017</v>
       </c>
-      <c r="DF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:111">
+    <row r="4" spans="1:115">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2346,12 @@
       <c r="C4" s="2">
         <v>23582239011.200001</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -2249,236 +2406,284 @@
       <c r="W4" s="2">
         <v>1555878717.05</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2">
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
         <v>12992767394.280001</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AC4" s="2">
         <v>11057819628.139999</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AD4" s="2">
         <v>31214015.989999998</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AE4" s="2">
         <v>34600393.369999997</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AF4" s="2">
         <v>16017523376.110001</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AG4" s="2">
         <v>15544099343.4</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AH4" s="2">
         <v>1530390130.25</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AI4" s="2">
         <v>1786167265.52</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AJ4" s="2">
         <v>7005186296.2799997</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AK4" s="2">
         <v>7274440410.9399996</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AL4" s="2">
         <v>19843317357.299999</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AM4" s="2">
         <v>21004123145.389999</v>
       </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2">
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
         <v>1895213404.6700001</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AQ4" s="2">
         <v>1592009404.5899999</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AR4" s="2">
         <v>1254064181.76</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AS4" s="2">
         <v>858461388.86000001</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AT4" s="2">
         <v>63130659278.410004</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AU4" s="2">
         <v>61792465895.169998</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AV4" s="2">
         <v>151463110707.63</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AW4" s="2">
         <v>131469157348.78999</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AX4" s="2">
         <v>10878580275.18</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AY4" s="2">
         <v>18165531879.150002</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AZ4" s="2">
         <v>16378699659.77</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="BA4" s="2">
         <v>12404889760.049999</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BB4" s="2">
         <v>25654013649.959999</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BC4" s="2">
         <v>20601681120.029999</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BD4" s="2">
         <v>5833552815.0500002</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BE4" s="2">
         <v>5737348712.9700003</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BF4" s="2">
         <v>2349189122.9000001</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BG4" s="2">
         <v>2408525656.48</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BH4" s="2">
         <v>1909260527.4200001</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BI4" s="2">
         <v>1620588401.27</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BJ4" s="2">
         <v>57656458.789999999</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BK4" s="2">
         <v>30570328.66</v>
       </c>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
       <c r="BL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="2">
         <v>10805162943.620001</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="BO4" s="2">
         <v>9459636746.0499992</v>
       </c>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
       <c r="BP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2">
         <v>76894450536.479996</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BU4" s="2">
         <v>73563840461.710007</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="BV4" s="2">
         <v>16036492809.809999</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="BW4" s="2">
         <v>15530801311.799999</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="BX4" s="2">
         <v>6211088362.6800003</v>
       </c>
-      <c r="BU4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
+      <c r="BY4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
       <c r="CD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
         <v>1170936828.55</v>
       </c>
-      <c r="CE4" s="2">
+      <c r="CI4" s="2">
         <v>582785069.86000001</v>
       </c>
-      <c r="CF4" s="2">
+      <c r="CJ4" s="2">
         <v>279114620.35000002</v>
       </c>
-      <c r="CG4" s="2">
+      <c r="CK4" s="2">
         <v>133243146.68000001</v>
       </c>
-      <c r="CH4" s="2">
+      <c r="CL4" s="2">
         <v>27818654033.790001</v>
       </c>
-      <c r="CI4" s="2">
+      <c r="CM4" s="2">
         <v>20224776499.360001</v>
       </c>
-      <c r="CJ4" s="2">
+      <c r="CN4" s="2">
         <v>104713104570.27</v>
       </c>
-      <c r="CK4" s="2">
+      <c r="CO4" s="2">
         <v>93788616961.070007</v>
       </c>
-      <c r="CL4" s="2">
+      <c r="CP4" s="2">
         <v>6097402727</v>
       </c>
-      <c r="CM4" s="2">
+      <c r="CQ4" s="2">
         <v>6097630727</v>
       </c>
-      <c r="CN4" s="2">
+      <c r="CR4" s="2">
         <v>826883093.84000003</v>
       </c>
-      <c r="CO4" s="2">
+      <c r="CS4" s="2">
         <v>83383194.510000005</v>
       </c>
-      <c r="CP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="2">
+      <c r="CT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="2">
         <v>1041960</v>
       </c>
-      <c r="CR4" s="2"/>
-      <c r="CS4" s="2"/>
-      <c r="CT4" s="2">
+      <c r="CV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="2">
         <v>2103057782.4100001</v>
       </c>
-      <c r="CU4" s="2">
+      <c r="CY4" s="2">
         <v>2076460077.78</v>
       </c>
-      <c r="CV4" s="2">
+      <c r="CZ4" s="2">
         <v>327347621.67000002</v>
       </c>
-      <c r="CW4" s="2">
+      <c r="DA4" s="2">
         <v>267370640.37</v>
       </c>
-      <c r="CX4" s="2">
+      <c r="DB4" s="2">
         <v>22793110884.09</v>
       </c>
-      <c r="CY4" s="2">
+      <c r="DC4" s="2">
         <v>17614768751.700001</v>
       </c>
-      <c r="CZ4" s="2">
+      <c r="DD4" s="2">
         <v>46750006137.360001</v>
       </c>
-      <c r="DA4" s="2">
+      <c r="DE4" s="2">
         <v>37680540387.720001</v>
       </c>
-      <c r="DB4" s="2">
+      <c r="DF4" s="2">
         <v>151463110707.63</v>
       </c>
-      <c r="DC4" s="2">
+      <c r="DG4" s="2">
         <v>131469157348.78999</v>
       </c>
-      <c r="DD4" s="1" t="s">
+      <c r="DH4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DE4" s="3">
+      <c r="DI4" s="3">
         <v>2017</v>
       </c>
-      <c r="DF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="1" t="s">
+      <c r="DJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:111">
+    <row r="5" spans="1:115">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2488,8 +2693,12 @@
       <c r="C5" s="2">
         <v>95753662304.520004</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="2">
         <v>481055568</v>
       </c>
@@ -2514,8 +2723,12 @@
       <c r="M5" s="2">
         <v>1814945790.78</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
       <c r="P5" s="2">
         <v>16568347179.120001</v>
       </c>
@@ -2540,236 +2753,284 @@
       <c r="W5" s="2">
         <v>1384303560.4000001</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2">
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
         <v>110391368.86</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AC5" s="2">
         <v>103913171.51000001</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AD5" s="2">
         <v>516630135.79000002</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AE5" s="2">
         <v>597736633.95000005</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AF5" s="2">
         <v>17467371455.630001</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AG5" s="2">
         <v>17681655478.060001</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AH5" s="2">
         <v>1020709311.3099999</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AI5" s="2">
         <v>581543756.84000003</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AJ5" s="2">
         <v>3604467335.23</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AK5" s="2">
         <v>3355276284.7199998</v>
       </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
         <v>10838333080.790001</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AQ5" s="2">
         <v>9667717152.1499996</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AR5" s="2">
         <v>1010128134.1799999</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AS5" s="2">
         <v>1311590311.26</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AT5" s="2">
         <v>43433353169.019997</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AU5" s="2">
         <v>39458921517.709999</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AV5" s="2">
         <v>214967999328.38</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AW5" s="2">
         <v>182373990389.45999</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AX5" s="2">
         <v>18646095044.32</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AY5" s="2">
         <v>10701081645.32</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AZ5" s="2">
         <v>9766929541.3299999</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="BA5" s="2">
         <v>9127336849.6800003</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="BB5" s="2">
         <v>34552886331.559998</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BC5" s="2">
         <v>29541332496.720001</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BD5" s="2">
         <v>14143038242.58</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BE5" s="2">
         <v>10021885515.93</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BF5" s="2">
         <v>1876728937.3399999</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BG5" s="2">
         <v>1702949427.0599999</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BH5" s="2">
         <v>3908873986.27</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BI5" s="2">
         <v>3126302754.29</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BJ5" s="2">
         <v>196103905.86000001</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BK5" s="2">
         <v>41781977.25</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BL5" s="2">
         <v>707913.6</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="BM5" s="2">
         <v>87732811.560000002</v>
       </c>
-      <c r="BL5" s="2">
+      <c r="BN5" s="2">
         <v>2604482345.3000002</v>
       </c>
-      <c r="BM5" s="2">
+      <c r="BO5" s="2">
         <v>2224272271.0900002</v>
       </c>
-      <c r="BN5" s="2">
+      <c r="BP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2">
         <v>60912220150.82</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="BS5" s="2">
         <v>59733057515.57</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="BT5" s="2">
         <v>147490788889.60999</v>
       </c>
-      <c r="BQ5" s="2">
+      <c r="BU5" s="2">
         <v>126852012614.25</v>
       </c>
-      <c r="BR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="2">
+      <c r="BV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2">
         <v>112708961</v>
       </c>
-      <c r="BY5" s="2">
+      <c r="CC5" s="2">
         <v>117732064</v>
       </c>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2">
+      <c r="CD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="2">
         <v>126215974.15000001</v>
       </c>
-      <c r="CC5" s="2">
+      <c r="CG5" s="2">
         <v>172081044.75</v>
       </c>
-      <c r="CD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="2">
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2">
         <v>403487740.43000001</v>
       </c>
-      <c r="CG5" s="2">
+      <c r="CK5" s="2">
         <v>280009411.36000001</v>
       </c>
-      <c r="CH5" s="2">
+      <c r="CL5" s="2">
         <v>642412675.58000004</v>
       </c>
-      <c r="CI5" s="2">
+      <c r="CM5" s="2">
         <v>569822520.11000001</v>
       </c>
-      <c r="CJ5" s="2">
+      <c r="CN5" s="2">
         <v>148133201565.19</v>
       </c>
-      <c r="CK5" s="2">
+      <c r="CO5" s="2">
         <v>127421835134.36</v>
       </c>
-      <c r="CL5" s="2">
+      <c r="CP5" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CM5" s="2">
+      <c r="CQ5" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CN5" s="2">
+      <c r="CR5" s="2">
         <v>103880600.70999999</v>
       </c>
-      <c r="CO5" s="2">
+      <c r="CS5" s="2">
         <v>183400626.71000001</v>
       </c>
-      <c r="CT5" s="2">
+      <c r="CT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CU5" s="2">
+      <c r="CY5" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CV5" s="2"/>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="2">
+      <c r="CZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="2">
         <v>55740076085.900002</v>
       </c>
-      <c r="CY5" s="2">
+      <c r="DC5" s="2">
         <v>44226792442.660004</v>
       </c>
-      <c r="CZ5" s="2">
+      <c r="DD5" s="2">
         <v>66834797763.190002</v>
       </c>
-      <c r="DA5" s="2">
+      <c r="DE5" s="2">
         <v>54952155255.099998</v>
       </c>
-      <c r="DB5" s="2">
+      <c r="DF5" s="2">
         <v>214967999328.38</v>
       </c>
-      <c r="DC5" s="2">
+      <c r="DG5" s="2">
         <v>182373990389.45999</v>
       </c>
-      <c r="DD5" s="1" t="s">
+      <c r="DH5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DE5" s="3">
+      <c r="DI5" s="3">
         <v>2017</v>
       </c>
-      <c r="DF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="1" t="s">
+      <c r="DJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:111">
+    <row r="6" spans="1:115">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -2779,8 +3040,12 @@
       <c r="C6" s="4">
         <v>27169118000</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="4">
         <v>353327000</v>
       </c>
@@ -2805,8 +3070,12 @@
       <c r="M6" s="4">
         <v>1587366000</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
       <c r="P6" s="4">
         <v>29444166000</v>
       </c>
@@ -2831,230 +3100,284 @@
       <c r="W6" s="4">
         <v>5187732000</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
         <v>2633698000</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AC6" s="4">
         <v>2211732000</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AD6" s="4">
         <v>420802000</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AE6" s="4">
         <v>494122000</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AF6" s="4">
         <v>22600724000</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AG6" s="4">
         <v>21056791000</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AH6" s="4">
         <v>879576000</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AI6" s="4">
         <v>580729000</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AJ6" s="4">
         <v>15167036000</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AK6" s="4">
         <v>6868538000</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AL6" s="4">
         <v>28903785000</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AM6" s="4">
         <v>5730995000</v>
       </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4">
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
         <v>4023334000</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AQ6" s="4">
         <v>3030383000</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AR6" s="4">
         <v>614822000</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AS6" s="4">
         <v>4158530000</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AT6" s="4">
         <v>78296182000</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AU6" s="4">
         <v>49979391000</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AV6" s="4">
         <v>248106858000</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AW6" s="4">
         <v>170600711000</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AX6" s="4">
         <v>2584102000</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AY6" s="4">
         <v>3024426000</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AZ6" s="4">
         <v>25207785000</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="BA6" s="4">
         <v>18484939000</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="BB6" s="4">
         <v>35144777000</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="BC6" s="4">
         <v>25356960000</v>
       </c>
-      <c r="BB6" s="4">
+      <c r="BD6" s="4">
         <v>17409063000</v>
       </c>
-      <c r="BC6" s="4">
+      <c r="BE6" s="4">
         <v>10252375000</v>
       </c>
-      <c r="BD6" s="4">
+      <c r="BF6" s="4">
         <v>5247500000</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BG6" s="4">
         <v>3154387000</v>
       </c>
-      <c r="BF6" s="4">
+      <c r="BH6" s="4">
         <v>3544154000</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BI6" s="4">
         <v>2364446000</v>
       </c>
-      <c r="BH6" s="4">
+      <c r="BJ6" s="4">
         <v>94801000</v>
       </c>
-      <c r="BI6" s="4">
+      <c r="BK6" s="4">
         <v>21343000</v>
       </c>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
       <c r="BL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="4">
         <v>3170405000</v>
       </c>
-      <c r="BM6" s="4">
+      <c r="BO6" s="4">
         <v>1571422000</v>
       </c>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4">
+      <c r="BP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="4">
         <v>119091857000</v>
       </c>
-      <c r="BQ6" s="4">
+      <c r="BU6" s="4">
         <v>89184000000</v>
       </c>
-      <c r="BR6" s="4">
+      <c r="BV6" s="4">
         <v>32986325000</v>
       </c>
-      <c r="BS6" s="4">
+      <c r="BW6" s="4">
         <v>2254348000</v>
       </c>
-      <c r="BT6" s="4">
+      <c r="BX6" s="4">
         <v>4553054000</v>
       </c>
-      <c r="BU6" s="4">
+      <c r="BY6" s="4">
         <v>4818769000</v>
       </c>
-      <c r="BV6" s="4"/>
-      <c r="BW6" s="4"/>
-      <c r="BX6" s="4"/>
-      <c r="BY6" s="4"/>
-      <c r="BZ6" s="4"/>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
-      <c r="CD6" s="4">
+      <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="4">
         <v>994059000</v>
       </c>
-      <c r="CE6" s="4">
+      <c r="CI6" s="4">
         <v>888152000</v>
       </c>
-      <c r="CF6" s="4">
+      <c r="CJ6" s="4">
         <v>3972823000</v>
       </c>
-      <c r="CG6" s="4">
+      <c r="CK6" s="4">
         <v>1831973000</v>
       </c>
-      <c r="CH6" s="4">
+      <c r="CL6" s="4">
         <v>46089830000</v>
       </c>
-      <c r="CI6" s="4">
+      <c r="CM6" s="4">
         <v>12440015000</v>
       </c>
-      <c r="CJ6" s="4">
+      <c r="CN6" s="4">
         <v>165181687000</v>
       </c>
-      <c r="CK6" s="4">
+      <c r="CO6" s="4">
         <v>101624015000</v>
       </c>
-      <c r="CL6" s="4">
+      <c r="CP6" s="4">
         <v>6561053000</v>
       </c>
-      <c r="CM6" s="4">
+      <c r="CQ6" s="4">
         <v>6458767000</v>
       </c>
-      <c r="CN6" s="4">
+      <c r="CR6" s="4">
         <v>15911504000</v>
       </c>
-      <c r="CO6" s="4">
+      <c r="CS6" s="4">
         <v>13596569000</v>
       </c>
-      <c r="CP6" s="4">
+      <c r="CT6" s="4">
         <v>366842</v>
       </c>
-      <c r="CQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="4">
+      <c r="CU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX6" s="4">
         <v>3882232000</v>
       </c>
-      <c r="CU6" s="4">
+      <c r="CY6" s="4">
         <v>2804469000</v>
       </c>
-      <c r="CV6" s="4"/>
-      <c r="CW6" s="4"/>
-      <c r="CX6" s="4">
+      <c r="CZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="4">
         <v>47627235000</v>
       </c>
-      <c r="CY6" s="4">
+      <c r="DC6" s="4">
         <v>38105391000</v>
       </c>
-      <c r="CZ6" s="4">
+      <c r="DD6" s="4">
         <v>82925171000</v>
       </c>
-      <c r="DA6" s="4">
+      <c r="DE6" s="4">
         <v>68976696000</v>
       </c>
-      <c r="DB6" s="4">
+      <c r="DF6" s="4">
         <v>248106858000</v>
       </c>
-      <c r="DC6" s="4">
+      <c r="DG6" s="4">
         <v>170600711000</v>
       </c>
-      <c r="DD6" s="1" t="s">
+      <c r="DH6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DE6" s="3">
+      <c r="DI6" s="3">
         <v>2017</v>
       </c>
-      <c r="DF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG6" s="1" t="s">
+      <c r="DJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:111">
+    <row r="7" spans="1:115">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3064,8 +3387,12 @@
       <c r="C7" s="2">
         <v>66854962118.220001</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -3090,8 +3417,12 @@
       <c r="M7" s="2">
         <v>1046100696.92</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
       <c r="P7" s="2">
         <v>22057481376.459999</v>
       </c>
@@ -3116,8 +3447,12 @@
       <c r="W7" s="2">
         <v>29000000</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
       <c r="Z7" s="1">
         <v>0</v>
       </c>
@@ -3130,129 +3465,167 @@
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
         <v>15244096632.02</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>14453177439.34</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AH7" s="2">
         <v>2016405005.77</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AI7" s="2">
         <v>2745579995.6799998</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AJ7" s="2">
         <v>3458622239.3800001</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AK7" s="2">
         <v>3531740625.5999999</v>
       </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
         <v>1401797361.77</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AQ7" s="2">
         <v>1745539120.6800001</v>
       </c>
-      <c r="AP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0</v>
-      </c>
       <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
         <v>22360930913.48</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AU7" s="2">
         <v>22753989474.84</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AV7" s="2">
         <v>134610116875.08</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AW7" s="2">
         <v>112934538280.41</v>
       </c>
-      <c r="AV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>0</v>
-      </c>
       <c r="AX7" s="1">
         <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2">
         <v>992055910.47000003</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BC7" s="2">
         <v>1040608203.1799999</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BD7" s="2">
         <v>14429106902.379999</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BE7" s="2">
         <v>17541082237.009998</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BF7" s="2">
         <v>1901644193.6400001</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BG7" s="2">
         <v>1628507252.03</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BH7" s="2">
         <v>7726135741.8999996</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BI7" s="2">
         <v>4272289194.5700002</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BJ7" s="2">
         <v>23414593.670000002</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BK7" s="2">
         <v>34481635.329999998</v>
       </c>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
       <c r="BL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2">
         <v>3039948303.8000002</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BO7" s="2">
         <v>1724638571.4400001</v>
       </c>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
       <c r="BP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2">
         <v>38574919400</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="BU7" s="2">
         <v>37020425425.690002</v>
       </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>15570000</v>
-      </c>
-      <c r="CE7" s="2">
-        <v>15570000</v>
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
       </c>
       <c r="CF7" s="1">
         <v>0</v>
@@ -3266,67 +3639,436 @@
       <c r="CI7" s="2">
         <v>15570000</v>
       </c>
-      <c r="CJ7" s="2">
+      <c r="CJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2">
+        <v>15570000</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>15570000</v>
+      </c>
+      <c r="CN7" s="2">
         <v>38590489400</v>
       </c>
-      <c r="CK7" s="2">
+      <c r="CO7" s="2">
         <v>37035995425.690002</v>
       </c>
-      <c r="CL7" s="2">
+      <c r="CP7" s="2">
         <v>1256197800</v>
       </c>
-      <c r="CM7" s="2">
+      <c r="CQ7" s="2">
         <v>1256197800</v>
       </c>
-      <c r="CN7" s="2">
+      <c r="CR7" s="2">
         <v>1374964415.72</v>
       </c>
-      <c r="CO7" s="2">
+      <c r="CS7" s="2">
         <v>1374964415.72</v>
       </c>
-      <c r="CP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="2">
+      <c r="CT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="2">
         <v>8215595509.6899996</v>
       </c>
-      <c r="CU7" s="2">
+      <c r="CY7" s="2">
         <v>7135649963.1199999</v>
       </c>
-      <c r="CV7" s="2"/>
-      <c r="CW7" s="2"/>
-      <c r="CX7" s="2">
+      <c r="CZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="2">
         <v>80011307450.330002</v>
       </c>
-      <c r="CY7" s="2">
+      <c r="DC7" s="2">
         <v>62717808036.610001</v>
       </c>
-      <c r="CZ7" s="2">
+      <c r="DD7" s="2">
         <v>96019627475.080002</v>
       </c>
-      <c r="DA7" s="2">
+      <c r="DE7" s="2">
         <v>75898542854.720001</v>
       </c>
-      <c r="DB7" s="2">
+      <c r="DF7" s="2">
         <v>134610116875.08</v>
       </c>
-      <c r="DC7" s="2">
+      <c r="DG7" s="2">
         <v>112934538280.41</v>
       </c>
-      <c r="DD7" s="1" t="s">
+      <c r="DH7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="DE7" s="3">
+      <c r="DI7" s="3">
         <v>2017</v>
       </c>
-      <c r="DF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG7" s="1" t="s">
+      <c r="DJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:115">
+      <c r="A8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3022973432.1700001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3386785714.77</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>58191655.299999997</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8610301.4199999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>419045401</v>
+      </c>
+      <c r="M8" s="2">
+        <v>498579293.97000003</v>
+      </c>
+      <c r="N8" s="2">
+        <v>131805710.44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>215364001.59</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5589919282.29</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>8670768392.5799999</v>
+      </c>
+      <c r="R8" s="2">
+        <v>141222924.46000001</v>
+      </c>
+      <c r="S8" s="2">
+        <v>173523540.83000001</v>
+      </c>
+      <c r="T8" s="2">
+        <v>9363158405.6599998</v>
+      </c>
+      <c r="U8" s="2">
+        <v>12953631245.16</v>
+      </c>
+      <c r="V8" s="2">
+        <v>131000000</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>909909807.12</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>436430601.60000002</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>2200820119.71</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>561333361.82000005</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>55654875.630000003</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>57492702.700000003</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>705172.19</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>917089.62</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>482085475.81</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>3841498.97</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>4255924.57</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>200817862.19999999</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>174647073.22</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>3996834811.6300001</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>1247076753.53</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>13359993217.290001</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>14200707998.690001</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>994274753.99000001</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>1172151042.6300001</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>480350580.32999998</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>1397438340.49</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>86444385.950000003</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>55375652.43</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>767857908.30999994</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>681125882.96000004</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>10233227.039999999</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>9309215.5500000007</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>191932491.28999999</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>206802537.24000001</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>2440362005.5900002</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>4971455352.5</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>3562202671.3000002</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>1131000000</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>2224000000</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>1508823886.25</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2">
+        <v>59937154.469999999</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>52403213.200000003</v>
+      </c>
+      <c r="CL8" s="2">
+        <v>1190937154.47</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>3785227099.4499998</v>
+      </c>
+      <c r="CN8" s="2">
+        <v>6162392506.9700003</v>
+      </c>
+      <c r="CO8" s="2">
+        <v>7347429770.75</v>
+      </c>
+      <c r="CP8" s="2">
+        <v>2054009302</v>
+      </c>
+      <c r="CQ8" s="2">
+        <v>2054009302</v>
+      </c>
+      <c r="CR8" s="2">
+        <v>3547437251.4400001</v>
+      </c>
+      <c r="CS8" s="2">
+        <v>3547437251.4400001</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2">
+        <v>-295315.71999999997</v>
+      </c>
+      <c r="CW8" s="2">
+        <v>4289148.2</v>
+      </c>
+      <c r="CX8" s="2">
+        <v>191608679.06999999</v>
+      </c>
+      <c r="CY8" s="2">
+        <v>170066690.84</v>
+      </c>
+      <c r="CZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2">
+        <v>1154487880.9300001</v>
+      </c>
+      <c r="DC8" s="2">
+        <v>819887551.80999994</v>
+      </c>
+      <c r="DD8" s="2">
+        <v>7197600710.3199997</v>
+      </c>
+      <c r="DE8" s="2">
+        <v>6853278227.9399996</v>
+      </c>
+      <c r="DF8" s="2">
+        <v>13359993217.290001</v>
+      </c>
+      <c r="DG8" s="2">
+        <v>14200707998.690001</v>
+      </c>
+      <c r="DH8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DI8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="DJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3345,19 +4087,19 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>DD2:DD1048576</xm:sqref>
+          <xm:sqref>DH2:DH1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9A79555-3BA3-4A87-8DEF-6FB02FF4564C}">
           <x14:formula1>
             <xm:f>基础数据表!$D$4:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>DE2:DE1048576</xm:sqref>
+          <xm:sqref>DI2:DI1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{465D3134-51B9-4278-8C57-E117E3DDF830}">
           <x14:formula1>
             <xm:f>基础数据表!$E$4:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>DF2:DF1048576</xm:sqref>
+          <xm:sqref>DJ2:DJ1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3367,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3454,7 +4196,7 @@
         <v>64</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>65</v>
@@ -3514,22 +4256,22 @@
         <v>14</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="AR1" s="6" t="s">
         <v>15</v>
@@ -3757,10 +4499,18 @@
       <c r="S3" s="2">
         <v>1592067967.1400001</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
       <c r="X3" s="2">
         <v>6244561688.3900003</v>
       </c>
@@ -3803,8 +4553,12 @@
       <c r="AK3" s="2">
         <v>28350255480.66</v>
       </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
       <c r="AN3" s="1">
         <v>2.54</v>
       </c>
@@ -4043,10 +4797,18 @@
       <c r="S5" s="2">
         <v>720408216.52999997</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
       <c r="X5" s="2">
         <v>1481800064.8199999</v>
       </c>
@@ -4089,8 +4851,12 @@
       <c r="AK5" s="2">
         <v>6695980185.5500002</v>
       </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
       <c r="AN5" s="1">
         <v>1.1359999999999999</v>
       </c>
@@ -4182,10 +4948,18 @@
       <c r="S6" s="4">
         <v>-1005979000</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
       <c r="X6" s="4">
         <v>1830221000</v>
       </c>
@@ -4228,8 +5002,12 @@
       <c r="AK6" s="4">
         <v>15861912000</v>
       </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
       <c r="AN6" s="1">
         <v>2.66</v>
       </c>
@@ -4319,6 +5097,18 @@
       <c r="S7" s="2">
         <v>-33175188.52</v>
       </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
       <c r="X7" s="1">
         <v>0</v>
       </c>
@@ -4361,8 +5151,12 @@
       <c r="AK7" s="2">
         <v>17930643109.880001</v>
       </c>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
       <c r="AN7" s="1">
         <v>21.56</v>
       </c>
@@ -4392,6 +5186,155 @@
       </c>
       <c r="AW7" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
+      <c r="A8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3294957299.48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2335888273.9699998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3294957299.48</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2335888273.9699998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2788179479</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2392308964.7199998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2151856339.73</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1534946473.05</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>229057688.58000001</v>
+      </c>
+      <c r="M8" s="2">
+        <v>335468224.39999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>155339578.31</v>
+      </c>
+      <c r="O8" s="2">
+        <v>105043510.48999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>136382292.75999999</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>146646490.11000001</v>
+      </c>
+      <c r="R8" s="2">
+        <v>146118946.31999999</v>
+      </c>
+      <c r="S8" s="2">
+        <v>252217844.52000001</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-30575366.699999999</v>
+      </c>
+      <c r="U8" s="2">
+        <v>17986422.149999999</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>37340001.829999998</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>240358882.21000001</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>544192725.98000002</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>183921931.53999999</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>7335740.7199999997</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>3425235.35</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1464611.3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>4052812.69</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>550063855.39999998</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>183294354.19999999</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>201156909.09999999</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>87640949.640000001</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>348906946.30000001</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>95653404.560000002</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>-4584463.92</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>4159874.67</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.1734</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0.1734</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>344322482.38</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>99813279.230000004</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4438,10 +5381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
-  <dimension ref="A1:BY7"/>
+  <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4526,202 +5469,202 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>47</v>
@@ -5487,8 +6430,12 @@
       <c r="K5" s="2">
         <v>101379852303.83</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
       <c r="N5" s="2">
         <v>7835178863.9499998</v>
       </c>
@@ -5716,8 +6663,12 @@
       <c r="K6" s="4">
         <v>89440654000</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
       <c r="N6" s="4">
         <v>11139448000</v>
       </c>
@@ -5945,8 +6896,12 @@
       <c r="K7" s="2">
         <v>2773020403.27</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
       <c r="N7" s="2">
         <v>23065648503.049999</v>
       </c>
@@ -6138,6 +7093,233 @@
       </c>
       <c r="BY7" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77">
+      <c r="A8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2422947182.4299998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3157230905.4699998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100913</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1324066</v>
+      </c>
+      <c r="F8" s="2">
+        <v>528124372.19999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>254080712.00999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2951172467.6300001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3412635683.48</v>
+      </c>
+      <c r="J8" s="2">
+        <v>668475805.59000003</v>
+      </c>
+      <c r="K8" s="2">
+        <v>966966662.04999995</v>
+      </c>
+      <c r="L8" s="2">
+        <v>126555088.98999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>132448299.58</v>
+      </c>
+      <c r="N8" s="2">
+        <v>481850467.75999999</v>
+      </c>
+      <c r="O8" s="2">
+        <v>364697073.87</v>
+      </c>
+      <c r="P8" s="2">
+        <v>692273245.87</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>625219077.26999998</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1969154608.21</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2089331112.77</v>
+      </c>
+      <c r="T8" s="2">
+        <v>982017859.41999996</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1323304570.71</v>
+      </c>
+      <c r="V8" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>36262137.310000002</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>27929.23</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>77306.039999999994</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>30024809.68</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>269786516.49000001</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>32861369.850000001</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>84314876.219999999</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>302725192.38</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>2041830.43</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>817187.15</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>630825663.16999996</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>491714213.11000001</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>1124581706.71</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>817187.15</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>-1040266830.49</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>301908005.23000002</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>3559120073.1900001</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>930000000</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>4889120073.1899996</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>204000000</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>3830485352.4200001</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>227416786.22999999</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>458917919.63999999</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>557394670</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>431416786.23000002</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>4846797942.0600004</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>-431416786.23000002</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>42322131.130000003</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>-4584463.92</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>4159874.67</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>-494250221.22000003</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>1671694581.74</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>2674234752.3899999</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>3168484973.6100001</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6187,7 +7369,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6274,6 +7456,9 @@
       </c>
     </row>
     <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D9" s="1">
         <v>2015</v>
       </c>

--- a/Dataset/公司报表.xlsx
+++ b/Dataset/公司报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB03A340-447A-421A-92EE-4FDD9C046D90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9749601-2E03-4BC6-9E98-5A0BF4960056}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="268">
   <si>
     <t>行业类型</t>
   </si>
@@ -852,6 +852,17 @@
   </si>
   <si>
     <t>万通地产20170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣安地产</t>
+  </si>
+  <si>
+    <t>荣安地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣安地产20170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DK8"/>
+  <dimension ref="A1:DK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1279,7 +1290,7 @@
     <col min="91" max="91" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="92" max="93" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="94" max="95" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="100" max="101" width="13.7109375" style="1" customWidth="1"/>
@@ -4069,6 +4080,353 @@
       </c>
       <c r="DK8" s="1" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:115">
+      <c r="A9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="2">
+        <v>827765008.85000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>793151516.13999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>39911975.07</v>
+      </c>
+      <c r="K9" s="2">
+        <v>54136754.32</v>
+      </c>
+      <c r="L9" s="2">
+        <v>995509374.78999996</v>
+      </c>
+      <c r="M9" s="2">
+        <v>403571804.36000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1572954506.6300001</v>
+      </c>
+      <c r="O9" s="2">
+        <v>104933843.18000001</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7814024652.8800001</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>7307465127.3900003</v>
+      </c>
+      <c r="R9" s="2">
+        <v>809009529.07000005</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1417313886.3599999</v>
+      </c>
+      <c r="T9" s="2">
+        <v>12062401713.959999</v>
+      </c>
+      <c r="U9" s="2">
+        <v>10080572931.75</v>
+      </c>
+      <c r="V9" s="2">
+        <v>333085560.05000001</v>
+      </c>
+      <c r="W9" s="2">
+        <v>346186911.81999999</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>52206555.899999999</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>23500563.02</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>489180708.18000001</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>516235366.74000001</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>6625543.3499999996</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>5055893.8099999996</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>1417229.1</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>732746.98</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>7856648.5099999998</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>7856648.5099999998</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>661607.36</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>992411</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>241761810.50999999</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>125501043.38</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>1132795662.96</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>1026061585.26</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>13195197376.92</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>11106634517.01</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>75000000</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>225000000</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>722207870.41999996</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>1323838928.9100001</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>4518515339.96</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>3492113683.8400002</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>28454118.100000001</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>24082414.350000001</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>258128338.33000001</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>224162600.11000001</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>34237738.350000001</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>32165649.010000002</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>2069969.59</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>2069969.59</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>189964687.94999999</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>324830350.04000002</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>399600000</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>23000000</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>6228178062.6999998</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>5671263595.8500004</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>1486400000</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>562000000</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>1193932844.5799999</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>1191866928.3199999</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2">
+        <v>5107113.4800000004</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2">
+        <v>27766141.84</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>4862092.22</v>
+      </c>
+      <c r="CL9" s="2">
+        <v>2729262604.9000001</v>
+      </c>
+      <c r="CM9" s="2">
+        <v>1758729020.54</v>
+      </c>
+      <c r="CN9" s="2">
+        <v>8957440667.6000004</v>
+      </c>
+      <c r="CO9" s="2">
+        <v>7429992616.3900003</v>
+      </c>
+      <c r="CP9" s="2">
+        <v>3183922485</v>
+      </c>
+      <c r="CQ9" s="2">
+        <v>3183922485</v>
+      </c>
+      <c r="CR9" s="2">
+        <v>-1691402956.3399999</v>
+      </c>
+      <c r="CS9" s="2">
+        <v>-1691402956.3399999</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="2">
+        <v>92208133.060000002</v>
+      </c>
+      <c r="CY9" s="2">
+        <v>83149321.120000005</v>
+      </c>
+      <c r="CZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="2">
+        <v>2633670050.8699999</v>
+      </c>
+      <c r="DC9" s="2">
+        <v>2100973050.8399999</v>
+      </c>
+      <c r="DD9" s="2">
+        <v>4237756709.3200002</v>
+      </c>
+      <c r="DE9" s="2">
+        <v>3676641900.6199999</v>
+      </c>
+      <c r="DF9" s="2">
+        <v>13195197376.92</v>
+      </c>
+      <c r="DG9" s="2">
+        <v>11106634517.01</v>
+      </c>
+      <c r="DH9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DI9" s="3">
+        <v>2017</v>
+      </c>
+      <c r="DJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4109,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5335,6 +5693,155 @@
       </c>
       <c r="AW8" s="1" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
+      <c r="A9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4264215143.9499998</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1727638858.95</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4264215143.9499998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1727638858.95</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3674678808.6100001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1602902448.05</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3203748803.3099999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1307605274.3099999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>151955159.09999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>86589749.519999996</v>
+      </c>
+      <c r="N9" s="2">
+        <v>65781327.700000003</v>
+      </c>
+      <c r="O9" s="2">
+        <v>26500281.949999999</v>
+      </c>
+      <c r="P9" s="2">
+        <v>76941001.459999993</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>71352415.620000005</v>
+      </c>
+      <c r="R9" s="2">
+        <v>94460890.549999997</v>
+      </c>
+      <c r="S9" s="2">
+        <v>102364423.72</v>
+      </c>
+      <c r="T9" s="2">
+        <v>81791626.489999995</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8490302.9299999997</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>66120448.43</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>72310749.230000004</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>655742885.69000006</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>197039997.53999999</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>14801419.67</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>4733259.88</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>3842611.14</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>3129860.68</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>666701694.22000003</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>198643396.74000001</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>125156885.52</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>49708994.909999996</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>541544808.70000005</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>148934401.83000001</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>541544808.70000005</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>148934401.83000001</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>2017</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5381,10 +5888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
-  <dimension ref="A1:BY8"/>
+  <dimension ref="A1:BY9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7322,6 +7829,239 @@
         <v>264</v>
       </c>
     </row>
+    <row r="9" spans="1:77">
+      <c r="A9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5458587868.29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3537998297.3200002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>31802154985.919998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8359766244.1000004</v>
+      </c>
+      <c r="H9" s="2">
+        <v>37260742854.209999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11897764541.42</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4550985342.54</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2990469057.9899998</v>
+      </c>
+      <c r="L9" s="2">
+        <v>120380028.48999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>92312741.799999997</v>
+      </c>
+      <c r="N9" s="2">
+        <v>513254893.12</v>
+      </c>
+      <c r="O9" s="2">
+        <v>230326649.06999999</v>
+      </c>
+      <c r="P9" s="2">
+        <v>32337898653.119999</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8403117989.9700003</v>
+      </c>
+      <c r="R9" s="2">
+        <v>37522518917.269997</v>
+      </c>
+      <c r="S9" s="2">
+        <v>11716226438.83</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-261776063.06</v>
+      </c>
+      <c r="U9" s="2">
+        <v>181538102.59</v>
+      </c>
+      <c r="V9" s="2">
+        <v>37565327935.269997</v>
+      </c>
+      <c r="W9" s="2">
+        <v>18018097462.220001</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>30811154.23</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>677697.83</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>37874528.719999999</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>6410000</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>37603880161.82</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>18055319036.450001</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>5125438.47</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>2545792.4900000002</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>37944456987.18</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>17782795560.049999</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>132750396.76000001</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>38082332822.410004</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>17785341352.540001</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>-478452660.58999997</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>269977683.91000003</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>15650000</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>1810000000</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>425000000</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>815000000</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>250000916.06999999</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>2640650000</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>675000916.07000005</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>659000000</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>399000000</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>141807783.63999999</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>216035544.25</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>1065000000</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>1865807783.6400001</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>615035544.25</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>774842216.36000001</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>59965371.82</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>34613492.710000001</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>511481158.31999999</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>826565008.85000002</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>791951516.13999999</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>2017</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7369,7 +8109,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7464,6 +8204,9 @@
       </c>
     </row>
     <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D10" s="1">
         <v>2016</v>
       </c>

--- a/Dataset/公司报表.xlsx
+++ b/Dataset/公司报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9749601-2E03-4BC6-9E98-5A0BF4960056}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E06316-48F8-4FF4-BAEA-1B4D212C722B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="275">
   <si>
     <t>行业类型</t>
   </si>
@@ -863,6 +863,34 @@
   </si>
   <si>
     <t>荣安地产20170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二其他应付款E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二其他应付款B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万通地产20180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二研发费用B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二研发费用E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二利息费用B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二利息收入B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DK9"/>
+  <dimension ref="A1:DM10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:I9"/>
+    <sheetView topLeftCell="CY1" workbookViewId="0">
+      <selection activeCell="DK10" sqref="DK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1274,39 +1302,40 @@
     <col min="58" max="59" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="16.28515625" style="1" customWidth="1"/>
-    <col min="66" max="67" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="20.5703125" style="1" customWidth="1"/>
-    <col min="72" max="73" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="85" width="19.28515625" style="1" customWidth="1"/>
-    <col min="86" max="87" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="13.7109375" style="1" customWidth="1"/>
-    <col min="102" max="103" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="105" width="19.28515625" style="1" customWidth="1"/>
-    <col min="106" max="107" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="109" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="16384" width="9.140625" style="1"/>
+    <col min="62" max="63" width="18" style="1" customWidth="1"/>
+    <col min="64" max="65" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="16.28515625" style="1" customWidth="1"/>
+    <col min="68" max="69" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="20.5703125" style="1" customWidth="1"/>
+    <col min="74" max="75" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="87" width="19.28515625" style="1" customWidth="1"/>
+    <col min="88" max="89" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="13.7109375" style="1" customWidth="1"/>
+    <col min="104" max="105" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="19.28515625" style="1" customWidth="1"/>
+    <col min="108" max="109" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" s="6" customFormat="1">
+    <row r="1" spans="1:117" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1491,169 +1520,175 @@
         <v>133</v>
       </c>
       <c r="BJ1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CW1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CX1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="CW1" s="6" t="s">
+      <c r="CY1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="CX1" s="6" t="s">
+      <c r="CZ1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="CY1" s="6" t="s">
+      <c r="DA1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="CZ1" s="6" t="s">
+      <c r="DB1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="DA1" s="6" t="s">
+      <c r="DC1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="DB1" s="6" t="s">
+      <c r="DD1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="DC1" s="6" t="s">
+      <c r="DE1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="DD1" s="6" t="s">
+      <c r="DF1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="DE1" s="6" t="s">
+      <c r="DG1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="DF1" s="6" t="s">
+      <c r="DH1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="DG1" s="6" t="s">
+      <c r="DI1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="DH1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DI1" s="6" t="s">
+      <c r="DJ1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="DJ1" s="6" t="s">
+      <c r="DL1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="DK1" s="6" t="s">
+      <c r="DM1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:115">
+    <row r="2" spans="1:117">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1838,47 +1873,47 @@
         <v>2977801480.5500002</v>
       </c>
       <c r="BJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2">
         <v>41781977.25</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BM2" s="2">
         <v>48386709.75</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BN2" s="2">
         <v>87732811.560000002</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="BO2" s="2">
         <v>707913.6</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BP2" s="2">
         <v>2222613974.8200002</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BQ2" s="2">
         <v>2607601936.21</v>
       </c>
-      <c r="BP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="2">
+      <c r="BR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="2">
         <v>2403745557.3699999</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="BT2" s="2">
         <v>59758848571.940002</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="BU2" s="2">
         <v>55007851867.480003</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="BV2" s="2">
         <v>126876279738.73</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="BW2" s="2">
         <v>112625180977.75999</v>
       </c>
-      <c r="BV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>0</v>
-      </c>
       <c r="BX2" s="1">
         <v>0</v>
       </c>
@@ -1891,116 +1926,122 @@
       <c r="CA2" s="1">
         <v>0</v>
       </c>
-      <c r="CB2" s="2">
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2">
         <v>117732064</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="CE2" s="2">
         <v>127518492</v>
       </c>
-      <c r="CD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="2">
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2">
         <v>172081044.75</v>
       </c>
-      <c r="CG2" s="2">
+      <c r="CI2" s="2">
         <v>134571708.03</v>
       </c>
-      <c r="CH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2">
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2">
         <v>172081044.75</v>
       </c>
-      <c r="CK2" s="2">
+      <c r="CM2" s="2">
         <v>134571708.03</v>
       </c>
-      <c r="CL2" s="2">
+      <c r="CN2" s="2">
         <v>569822520.11000001</v>
       </c>
-      <c r="CM2" s="2">
+      <c r="CO2" s="2">
         <v>506226759.38</v>
       </c>
-      <c r="CN2" s="2">
+      <c r="CP2" s="2">
         <v>127446102258.84</v>
       </c>
-      <c r="CO2" s="2">
+      <c r="CQ2" s="2">
         <v>113131407737.14</v>
       </c>
-      <c r="CP2" s="2">
+      <c r="CR2" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CQ2" s="2">
+      <c r="CS2" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CR2" s="2">
+      <c r="CT2" s="2">
         <v>183400626.71000001</v>
       </c>
-      <c r="CS2" s="2">
+      <c r="CU2" s="2">
         <v>185950626.71000001</v>
       </c>
-      <c r="CT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="1">
-        <v>0</v>
-      </c>
       <c r="CV2" s="1">
         <v>0</v>
       </c>
       <c r="CW2" s="1">
         <v>0</v>
       </c>
-      <c r="CX2" s="2">
+      <c r="CX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CY2" s="2">
+      <c r="DA2" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CZ2" s="2">
+      <c r="DB2" s="2">
         <v>267370640.37</v>
       </c>
-      <c r="DA2" s="2">
+      <c r="DC2" s="2">
         <v>207764066.72</v>
       </c>
-      <c r="DB2" s="2">
+      <c r="DD2" s="2">
         <v>44074949590.07</v>
       </c>
-      <c r="DC2" s="2">
+      <c r="DE2" s="2">
         <v>37737187489.779999</v>
       </c>
-      <c r="DD2" s="2">
+      <c r="DF2" s="2">
         <v>54923602790.510002</v>
       </c>
-      <c r="DE2" s="2">
+      <c r="DG2" s="2">
         <v>48566608577.919998</v>
       </c>
-      <c r="DF2" s="2">
+      <c r="DH2" s="2">
         <v>182369705049.35001</v>
       </c>
-      <c r="DG2" s="2">
+      <c r="DI2" s="2">
         <v>161698016315.06</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="DI2" s="3">
+      <c r="DK2" s="3">
         <v>2016</v>
       </c>
-      <c r="DJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:115">
+    <row r="3" spans="1:117">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2185,59 +2226,59 @@
         <v>9553084094.3799992</v>
       </c>
       <c r="BJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2">
         <v>995144331.40999997</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BM3" s="2">
         <v>378374906.63</v>
       </c>
-      <c r="BL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="2">
-        <v>0</v>
-      </c>
       <c r="BN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2">
         <v>182886802898.35999</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="BQ3" s="2">
         <v>106580257219.71001</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="BR3" s="2">
         <v>38568200000</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BS3" s="2">
         <v>22526294558.990002</v>
       </c>
-      <c r="BR3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="2">
-        <v>0</v>
-      </c>
       <c r="BT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="2">
         <v>847355429875.81006</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="BW3" s="2">
         <v>579998485463.06995</v>
       </c>
-      <c r="BV3" s="2">
+      <c r="BX3" s="2">
         <v>96029044735.039993</v>
       </c>
-      <c r="BW3" s="2">
+      <c r="BY3" s="2">
         <v>56406061283.419998</v>
       </c>
-      <c r="BX3" s="2">
+      <c r="BZ3" s="2">
         <v>32322671927.209999</v>
       </c>
-      <c r="BY3" s="2">
+      <c r="CA3" s="2">
         <v>29108375807.959999</v>
       </c>
-      <c r="BZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
       <c r="CB3" s="1">
         <v>0</v>
       </c>
@@ -2256,98 +2297,104 @@
       <c r="CG3" s="1">
         <v>0</v>
       </c>
-      <c r="CH3" s="2">
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2">
         <v>2540666010.1500001</v>
       </c>
-      <c r="CI3" s="2">
+      <c r="CK3" s="2">
         <v>2861999502.1199999</v>
       </c>
-      <c r="CJ3" s="2">
+      <c r="CL3" s="2">
         <v>265299666.71000001</v>
       </c>
-      <c r="CK3" s="2">
+      <c r="CM3" s="2">
         <v>504048203.85000002</v>
       </c>
-      <c r="CL3" s="2">
+      <c r="CN3" s="2">
         <v>131317548770.45</v>
       </c>
-      <c r="CM3" s="2">
+      <c r="CO3" s="2">
         <v>88999157180.070007</v>
       </c>
-      <c r="CN3" s="2">
+      <c r="CP3" s="2">
         <v>978672978646.26001</v>
       </c>
-      <c r="CO3" s="2">
+      <c r="CQ3" s="2">
         <v>668997642643.14001</v>
       </c>
-      <c r="CP3" s="2">
+      <c r="CR3" s="2">
         <v>11039152001</v>
       </c>
-      <c r="CQ3" s="2">
+      <c r="CS3" s="2">
         <v>11039152001</v>
       </c>
-      <c r="CR3" s="2">
+      <c r="CT3" s="2">
         <v>8329263089.0100002</v>
       </c>
-      <c r="CS3" s="2">
+      <c r="CU3" s="2">
         <v>8268267782.1499996</v>
       </c>
-      <c r="CT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="1">
-        <v>0</v>
-      </c>
       <c r="CV3" s="1">
         <v>0</v>
       </c>
       <c r="CW3" s="1">
         <v>0</v>
       </c>
-      <c r="CX3" s="2">
+      <c r="CX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="2">
         <v>35900071829.040001</v>
       </c>
-      <c r="CY3" s="2">
+      <c r="DA3" s="2">
         <v>32540767833.970001</v>
       </c>
-      <c r="CZ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="2">
-        <v>0</v>
-      </c>
       <c r="DB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="2">
         <v>77171850609.869995</v>
       </c>
-      <c r="DC3" s="2">
+      <c r="DE3" s="2">
         <v>61200269803.370003</v>
       </c>
-      <c r="DD3" s="2">
+      <c r="DF3" s="2">
         <v>186673939158.29001</v>
       </c>
-      <c r="DE3" s="2">
+      <c r="DG3" s="2">
         <v>161676571281</v>
       </c>
-      <c r="DF3" s="2">
+      <c r="DH3" s="2">
         <v>1165346917804.55</v>
       </c>
-      <c r="DG3" s="2">
+      <c r="DI3" s="2">
         <v>830674213924.14001</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="DI3" s="3">
+      <c r="DK3" s="3">
         <v>2017</v>
       </c>
-      <c r="DJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:115">
+    <row r="4" spans="1:117">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2532,29 +2579,29 @@
         <v>1620588401.27</v>
       </c>
       <c r="BJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="2">
         <v>57656458.789999999</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BM4" s="2">
         <v>30570328.66</v>
       </c>
-      <c r="BL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>0</v>
-      </c>
       <c r="BN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="2">
         <v>10805162943.620001</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BQ4" s="2">
         <v>9459636746.0499992</v>
       </c>
-      <c r="BP4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>0</v>
-      </c>
       <c r="BR4" s="2">
         <v>0</v>
       </c>
@@ -2562,27 +2609,27 @@
         <v>0</v>
       </c>
       <c r="BT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="2">
         <v>76894450536.479996</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BW4" s="2">
         <v>73563840461.710007</v>
       </c>
-      <c r="BV4" s="2">
+      <c r="BX4" s="2">
         <v>16036492809.809999</v>
       </c>
-      <c r="BW4" s="2">
+      <c r="BY4" s="2">
         <v>15530801311.799999</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="BZ4" s="2">
         <v>6211088362.6800003</v>
       </c>
-      <c r="BY4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
+      <c r="CA4" s="2">
         <v>0</v>
       </c>
       <c r="CB4" s="1">
@@ -2604,97 +2651,103 @@
         <v>0</v>
       </c>
       <c r="CH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="1">
         <v>1170936828.55</v>
       </c>
-      <c r="CI4" s="2">
+      <c r="CK4" s="2">
         <v>582785069.86000001</v>
       </c>
-      <c r="CJ4" s="2">
+      <c r="CL4" s="2">
         <v>279114620.35000002</v>
       </c>
-      <c r="CK4" s="2">
+      <c r="CM4" s="2">
         <v>133243146.68000001</v>
       </c>
-      <c r="CL4" s="2">
+      <c r="CN4" s="2">
         <v>27818654033.790001</v>
       </c>
-      <c r="CM4" s="2">
+      <c r="CO4" s="2">
         <v>20224776499.360001</v>
       </c>
-      <c r="CN4" s="2">
+      <c r="CP4" s="2">
         <v>104713104570.27</v>
       </c>
-      <c r="CO4" s="2">
+      <c r="CQ4" s="2">
         <v>93788616961.070007</v>
       </c>
-      <c r="CP4" s="2">
+      <c r="CR4" s="2">
         <v>6097402727</v>
       </c>
-      <c r="CQ4" s="2">
+      <c r="CS4" s="2">
         <v>6097630727</v>
       </c>
-      <c r="CR4" s="2">
+      <c r="CT4" s="2">
         <v>826883093.84000003</v>
       </c>
-      <c r="CS4" s="2">
+      <c r="CU4" s="2">
         <v>83383194.510000005</v>
       </c>
-      <c r="CT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="2">
+      <c r="CV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="2">
         <v>1041960</v>
       </c>
-      <c r="CV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX4" s="2">
+      <c r="CX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="2">
         <v>2103057782.4100001</v>
       </c>
-      <c r="CY4" s="2">
+      <c r="DA4" s="2">
         <v>2076460077.78</v>
       </c>
-      <c r="CZ4" s="2">
+      <c r="DB4" s="2">
         <v>327347621.67000002</v>
       </c>
-      <c r="DA4" s="2">
+      <c r="DC4" s="2">
         <v>267370640.37</v>
       </c>
-      <c r="DB4" s="2">
+      <c r="DD4" s="2">
         <v>22793110884.09</v>
       </c>
-      <c r="DC4" s="2">
+      <c r="DE4" s="2">
         <v>17614768751.700001</v>
       </c>
-      <c r="DD4" s="2">
+      <c r="DF4" s="2">
         <v>46750006137.360001</v>
       </c>
-      <c r="DE4" s="2">
+      <c r="DG4" s="2">
         <v>37680540387.720001</v>
       </c>
-      <c r="DF4" s="2">
+      <c r="DH4" s="2">
         <v>151463110707.63</v>
       </c>
-      <c r="DG4" s="2">
+      <c r="DI4" s="2">
         <v>131469157348.78999</v>
       </c>
-      <c r="DH4" s="1" t="s">
+      <c r="DJ4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DI4" s="3">
+      <c r="DK4" s="3">
         <v>2017</v>
       </c>
-      <c r="DJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="1" t="s">
+      <c r="DL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:115">
+    <row r="5" spans="1:117">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2879,47 +2932,47 @@
         <v>3126302754.29</v>
       </c>
       <c r="BJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2">
         <v>196103905.86000001</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="BM5" s="2">
         <v>41781977.25</v>
       </c>
-      <c r="BL5" s="2">
+      <c r="BN5" s="2">
         <v>707913.6</v>
       </c>
-      <c r="BM5" s="2">
+      <c r="BO5" s="2">
         <v>87732811.560000002</v>
       </c>
-      <c r="BN5" s="2">
+      <c r="BP5" s="2">
         <v>2604482345.3000002</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="BQ5" s="2">
         <v>2224272271.0900002</v>
       </c>
-      <c r="BP5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>0</v>
-      </c>
       <c r="BR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2">
         <v>60912220150.82</v>
       </c>
-      <c r="BS5" s="2">
+      <c r="BU5" s="2">
         <v>59733057515.57</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="BV5" s="2">
         <v>147490788889.60999</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="BW5" s="2">
         <v>126852012614.25</v>
       </c>
-      <c r="BV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>0</v>
-      </c>
       <c r="BX5" s="1">
         <v>0</v>
       </c>
@@ -2932,116 +2985,122 @@
       <c r="CA5" s="1">
         <v>0</v>
       </c>
-      <c r="CB5" s="2">
+      <c r="CB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2">
         <v>112708961</v>
       </c>
-      <c r="CC5" s="2">
+      <c r="CE5" s="2">
         <v>117732064</v>
       </c>
-      <c r="CD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="2">
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2">
         <v>126215974.15000001</v>
       </c>
-      <c r="CG5" s="2">
+      <c r="CI5" s="2">
         <v>172081044.75</v>
       </c>
-      <c r="CH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="2">
+      <c r="CJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="2">
         <v>403487740.43000001</v>
       </c>
-      <c r="CK5" s="2">
+      <c r="CM5" s="2">
         <v>280009411.36000001</v>
       </c>
-      <c r="CL5" s="2">
+      <c r="CN5" s="2">
         <v>642412675.58000004</v>
       </c>
-      <c r="CM5" s="2">
+      <c r="CO5" s="2">
         <v>569822520.11000001</v>
       </c>
-      <c r="CN5" s="2">
+      <c r="CP5" s="2">
         <v>148133201565.19</v>
       </c>
-      <c r="CO5" s="2">
+      <c r="CQ5" s="2">
         <v>127421835134.36</v>
       </c>
-      <c r="CP5" s="2">
+      <c r="CR5" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CQ5" s="2">
+      <c r="CS5" s="2">
         <v>6015730878</v>
       </c>
-      <c r="CR5" s="2">
+      <c r="CT5" s="2">
         <v>103880600.70999999</v>
       </c>
-      <c r="CS5" s="2">
+      <c r="CU5" s="2">
         <v>183400626.71000001</v>
       </c>
-      <c r="CT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="1">
-        <v>0</v>
-      </c>
       <c r="CV5" s="1">
         <v>0</v>
       </c>
       <c r="CW5" s="1">
         <v>0</v>
       </c>
-      <c r="CX5" s="2">
+      <c r="CX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CY5" s="2">
+      <c r="DA5" s="2">
         <v>3499671556.5900002</v>
       </c>
-      <c r="CZ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="2">
-        <v>0</v>
-      </c>
       <c r="DB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="2">
         <v>55740076085.900002</v>
       </c>
-      <c r="DC5" s="2">
+      <c r="DE5" s="2">
         <v>44226792442.660004</v>
       </c>
-      <c r="DD5" s="2">
+      <c r="DF5" s="2">
         <v>66834797763.190002</v>
       </c>
-      <c r="DE5" s="2">
+      <c r="DG5" s="2">
         <v>54952155255.099998</v>
       </c>
-      <c r="DF5" s="2">
+      <c r="DH5" s="2">
         <v>214967999328.38</v>
       </c>
-      <c r="DG5" s="2">
+      <c r="DI5" s="2">
         <v>182373990389.45999</v>
       </c>
-      <c r="DH5" s="1" t="s">
+      <c r="DJ5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DI5" s="3">
+      <c r="DK5" s="3">
         <v>2017</v>
       </c>
-      <c r="DJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="1" t="s">
+      <c r="DL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:115">
+    <row r="6" spans="1:117">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -3225,60 +3284,60 @@
       <c r="BI6" s="4">
         <v>2364446000</v>
       </c>
-      <c r="BJ6" s="4">
+      <c r="BJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="4">
         <v>94801000</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="BM6" s="4">
         <v>21343000</v>
       </c>
-      <c r="BL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="4">
-        <v>0</v>
-      </c>
       <c r="BN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="4">
         <v>3170405000</v>
       </c>
-      <c r="BO6" s="4">
+      <c r="BQ6" s="4">
         <v>1571422000</v>
       </c>
-      <c r="BP6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="4">
+      <c r="BR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="4">
         <v>119091857000</v>
       </c>
-      <c r="BU6" s="4">
+      <c r="BW6" s="4">
         <v>89184000000</v>
       </c>
-      <c r="BV6" s="4">
+      <c r="BX6" s="4">
         <v>32986325000</v>
       </c>
-      <c r="BW6" s="4">
+      <c r="BY6" s="4">
         <v>2254348000</v>
       </c>
-      <c r="BX6" s="4">
+      <c r="BZ6" s="4">
         <v>4553054000</v>
       </c>
-      <c r="BY6" s="4">
+      <c r="CA6" s="4">
         <v>4818769000</v>
       </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>0</v>
-      </c>
       <c r="CB6" s="1">
         <v>0</v>
       </c>
@@ -3297,98 +3356,104 @@
       <c r="CG6" s="1">
         <v>0</v>
       </c>
-      <c r="CH6" s="4">
+      <c r="CH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="4">
         <v>994059000</v>
       </c>
-      <c r="CI6" s="4">
+      <c r="CK6" s="4">
         <v>888152000</v>
       </c>
-      <c r="CJ6" s="4">
+      <c r="CL6" s="4">
         <v>3972823000</v>
       </c>
-      <c r="CK6" s="4">
+      <c r="CM6" s="4">
         <v>1831973000</v>
       </c>
-      <c r="CL6" s="4">
+      <c r="CN6" s="4">
         <v>46089830000</v>
       </c>
-      <c r="CM6" s="4">
+      <c r="CO6" s="4">
         <v>12440015000</v>
       </c>
-      <c r="CN6" s="4">
+      <c r="CP6" s="4">
         <v>165181687000</v>
       </c>
-      <c r="CO6" s="4">
+      <c r="CQ6" s="4">
         <v>101624015000</v>
       </c>
-      <c r="CP6" s="4">
+      <c r="CR6" s="4">
         <v>6561053000</v>
       </c>
-      <c r="CQ6" s="4">
+      <c r="CS6" s="4">
         <v>6458767000</v>
       </c>
-      <c r="CR6" s="4">
+      <c r="CT6" s="4">
         <v>15911504000</v>
       </c>
-      <c r="CS6" s="4">
+      <c r="CU6" s="4">
         <v>13596569000</v>
       </c>
-      <c r="CT6" s="4">
+      <c r="CV6" s="4">
         <v>366842</v>
       </c>
-      <c r="CU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="1">
-        <v>0</v>
-      </c>
       <c r="CW6" s="1">
         <v>0</v>
       </c>
-      <c r="CX6" s="4">
+      <c r="CX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="4">
         <v>3882232000</v>
       </c>
-      <c r="CY6" s="4">
+      <c r="DA6" s="4">
         <v>2804469000</v>
       </c>
-      <c r="CZ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="DB6" s="4">
+      <c r="DB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="4">
         <v>47627235000</v>
       </c>
-      <c r="DC6" s="4">
+      <c r="DE6" s="4">
         <v>38105391000</v>
       </c>
-      <c r="DD6" s="4">
+      <c r="DF6" s="4">
         <v>82925171000</v>
       </c>
-      <c r="DE6" s="4">
+      <c r="DG6" s="4">
         <v>68976696000</v>
       </c>
-      <c r="DF6" s="4">
+      <c r="DH6" s="4">
         <v>248106858000</v>
       </c>
-      <c r="DG6" s="4">
+      <c r="DI6" s="4">
         <v>170600711000</v>
       </c>
-      <c r="DH6" s="1" t="s">
+      <c r="DJ6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DI6" s="3">
+      <c r="DK6" s="3">
         <v>2017</v>
       </c>
-      <c r="DJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK6" s="1" t="s">
+      <c r="DL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:115">
+    <row r="7" spans="1:117">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3573,47 +3638,47 @@
         <v>4272289194.5700002</v>
       </c>
       <c r="BJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2">
         <v>23414593.670000002</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BM7" s="2">
         <v>34481635.329999998</v>
       </c>
-      <c r="BL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>0</v>
-      </c>
       <c r="BN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2">
         <v>3039948303.8000002</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BQ7" s="2">
         <v>1724638571.4400001</v>
       </c>
-      <c r="BP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="2">
+      <c r="BR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2">
         <v>38574919400</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BW7" s="2">
         <v>37020425425.690002</v>
       </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>0</v>
-      </c>
       <c r="BX7" s="1">
         <v>0</v>
       </c>
@@ -3644,98 +3709,104 @@
       <c r="CG7" s="1">
         <v>0</v>
       </c>
-      <c r="CH7" s="2">
+      <c r="CH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2">
         <v>15570000</v>
       </c>
-      <c r="CI7" s="2">
+      <c r="CK7" s="2">
         <v>15570000</v>
       </c>
-      <c r="CJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="2">
+      <c r="CL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2">
         <v>15570000</v>
       </c>
-      <c r="CM7" s="2">
+      <c r="CO7" s="2">
         <v>15570000</v>
       </c>
-      <c r="CN7" s="2">
+      <c r="CP7" s="2">
         <v>38590489400</v>
       </c>
-      <c r="CO7" s="2">
+      <c r="CQ7" s="2">
         <v>37035995425.690002</v>
       </c>
-      <c r="CP7" s="2">
+      <c r="CR7" s="2">
         <v>1256197800</v>
       </c>
-      <c r="CQ7" s="2">
+      <c r="CS7" s="2">
         <v>1256197800</v>
       </c>
-      <c r="CR7" s="2">
+      <c r="CT7" s="2">
         <v>1374964415.72</v>
       </c>
-      <c r="CS7" s="2">
+      <c r="CU7" s="2">
         <v>1374964415.72</v>
       </c>
-      <c r="CT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="1">
-        <v>0</v>
-      </c>
       <c r="CV7" s="1">
         <v>0</v>
       </c>
       <c r="CW7" s="1">
         <v>0</v>
       </c>
-      <c r="CX7" s="2">
+      <c r="CX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="2">
         <v>8215595509.6899996</v>
       </c>
-      <c r="CY7" s="2">
+      <c r="DA7" s="2">
         <v>7135649963.1199999</v>
       </c>
-      <c r="CZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="2">
-        <v>0</v>
-      </c>
       <c r="DB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2">
         <v>80011307450.330002</v>
       </c>
-      <c r="DC7" s="2">
+      <c r="DE7" s="2">
         <v>62717808036.610001</v>
       </c>
-      <c r="DD7" s="2">
+      <c r="DF7" s="2">
         <v>96019627475.080002</v>
       </c>
-      <c r="DE7" s="2">
+      <c r="DG7" s="2">
         <v>75898542854.720001</v>
       </c>
-      <c r="DF7" s="2">
+      <c r="DH7" s="2">
         <v>134610116875.08</v>
       </c>
-      <c r="DG7" s="2">
+      <c r="DI7" s="2">
         <v>112934538280.41</v>
       </c>
-      <c r="DH7" s="1" t="s">
+      <c r="DJ7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="DI7" s="3">
+      <c r="DK7" s="3">
         <v>2017</v>
       </c>
-      <c r="DJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK7" s="1" t="s">
+      <c r="DL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:115">
+    <row r="8" spans="1:117">
       <c r="A8" s="1" t="s">
         <v>256</v>
       </c>
@@ -3920,59 +3991,59 @@
         <v>681125882.96000004</v>
       </c>
       <c r="BJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2">
         <v>10233227.039999999</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="BM8" s="2">
         <v>9309215.5500000007</v>
       </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="2">
+      <c r="BN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2">
         <v>191932491.28999999</v>
       </c>
-      <c r="BO8" s="2">
+      <c r="BQ8" s="2">
         <v>206802537.24000001</v>
       </c>
-      <c r="BP8" s="2">
+      <c r="BR8" s="2">
         <v>2440362005.5900002</v>
       </c>
-      <c r="BQ8" s="2">
+      <c r="BS8" s="2">
         <v>40000000</v>
       </c>
-      <c r="BR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="2">
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2">
         <v>4971455352.5</v>
       </c>
-      <c r="BU8" s="2">
+      <c r="BW8" s="2">
         <v>3562202671.3000002</v>
       </c>
-      <c r="BV8" s="2">
+      <c r="BX8" s="2">
         <v>1131000000</v>
       </c>
-      <c r="BW8" s="2">
+      <c r="BY8" s="2">
         <v>2224000000</v>
       </c>
-      <c r="BX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2">
+      <c r="BZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2">
         <v>1508823886.25</v>
       </c>
-      <c r="BZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>0</v>
-      </c>
       <c r="CB8" s="1">
         <v>0</v>
       </c>
@@ -3997,92 +4068,98 @@
       <c r="CI8" s="1">
         <v>0</v>
       </c>
-      <c r="CJ8" s="2">
+      <c r="CJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="2">
         <v>59937154.469999999</v>
       </c>
-      <c r="CK8" s="2">
+      <c r="CM8" s="2">
         <v>52403213.200000003</v>
       </c>
-      <c r="CL8" s="2">
+      <c r="CN8" s="2">
         <v>1190937154.47</v>
       </c>
-      <c r="CM8" s="2">
+      <c r="CO8" s="2">
         <v>3785227099.4499998</v>
       </c>
-      <c r="CN8" s="2">
+      <c r="CP8" s="2">
         <v>6162392506.9700003</v>
       </c>
-      <c r="CO8" s="2">
+      <c r="CQ8" s="2">
         <v>7347429770.75</v>
       </c>
-      <c r="CP8" s="2">
+      <c r="CR8" s="2">
         <v>2054009302</v>
       </c>
-      <c r="CQ8" s="2">
+      <c r="CS8" s="2">
         <v>2054009302</v>
       </c>
-      <c r="CR8" s="2">
+      <c r="CT8" s="2">
         <v>3547437251.4400001</v>
       </c>
-      <c r="CS8" s="2">
+      <c r="CU8" s="2">
         <v>3547437251.4400001</v>
       </c>
-      <c r="CT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="2">
+      <c r="CV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2">
         <v>-295315.71999999997</v>
       </c>
-      <c r="CW8" s="2">
+      <c r="CY8" s="2">
         <v>4289148.2</v>
       </c>
-      <c r="CX8" s="2">
+      <c r="CZ8" s="2">
         <v>191608679.06999999</v>
       </c>
-      <c r="CY8" s="2">
+      <c r="DA8" s="2">
         <v>170066690.84</v>
       </c>
-      <c r="CZ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="2">
-        <v>0</v>
-      </c>
       <c r="DB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2">
         <v>1154487880.9300001</v>
       </c>
-      <c r="DC8" s="2">
+      <c r="DE8" s="2">
         <v>819887551.80999994</v>
       </c>
-      <c r="DD8" s="2">
+      <c r="DF8" s="2">
         <v>7197600710.3199997</v>
       </c>
-      <c r="DE8" s="2">
+      <c r="DG8" s="2">
         <v>6853278227.9399996</v>
       </c>
-      <c r="DF8" s="2">
+      <c r="DH8" s="2">
         <v>13359993217.290001</v>
       </c>
-      <c r="DG8" s="2">
+      <c r="DI8" s="2">
         <v>14200707998.690001</v>
       </c>
-      <c r="DH8" s="1" t="s">
+      <c r="DJ8" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="DI8" s="3">
+      <c r="DK8" s="3">
         <v>2017</v>
       </c>
-      <c r="DJ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="1" t="s">
+      <c r="DL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:115">
+    <row r="9" spans="1:117">
       <c r="A9" s="1" t="s">
         <v>265</v>
       </c>
@@ -4267,74 +4344,74 @@
         <v>224162600.11000001</v>
       </c>
       <c r="BJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2">
         <v>34237738.350000001</v>
       </c>
-      <c r="BK9" s="2">
+      <c r="BM9" s="2">
         <v>32165649.010000002</v>
       </c>
-      <c r="BL9" s="2">
+      <c r="BN9" s="2">
         <v>2069969.59</v>
       </c>
-      <c r="BM9" s="2">
+      <c r="BO9" s="2">
         <v>2069969.59</v>
       </c>
-      <c r="BN9" s="2">
+      <c r="BP9" s="2">
         <v>189964687.94999999</v>
       </c>
-      <c r="BO9" s="2">
+      <c r="BQ9" s="2">
         <v>324830350.04000002</v>
       </c>
-      <c r="BP9" s="2">
+      <c r="BR9" s="2">
         <v>399600000</v>
       </c>
-      <c r="BQ9" s="2">
+      <c r="BS9" s="2">
         <v>23000000</v>
       </c>
-      <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="2">
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2">
         <v>6228178062.6999998</v>
       </c>
-      <c r="BU9" s="2">
+      <c r="BW9" s="2">
         <v>5671263595.8500004</v>
       </c>
-      <c r="BV9" s="2">
+      <c r="BX9" s="2">
         <v>1486400000</v>
       </c>
-      <c r="BW9" s="2">
+      <c r="BY9" s="2">
         <v>562000000</v>
       </c>
-      <c r="BX9" s="2">
+      <c r="BZ9" s="2">
         <v>1193932844.5799999</v>
       </c>
-      <c r="BY9" s="2">
+      <c r="CA9" s="2">
         <v>1191866928.3199999</v>
       </c>
-      <c r="BZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
       <c r="CB9" s="1">
         <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>0</v>
       </c>
-      <c r="CD9" s="2">
+      <c r="CD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="2">
         <v>5107113.4800000004</v>
       </c>
-      <c r="CE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>0</v>
-      </c>
       <c r="CG9" s="1">
         <v>0</v>
       </c>
@@ -4344,89 +4421,442 @@
       <c r="CI9" s="1">
         <v>0</v>
       </c>
-      <c r="CJ9" s="2">
+      <c r="CJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2">
         <v>27766141.84</v>
       </c>
-      <c r="CK9" s="2">
+      <c r="CM9" s="2">
         <v>4862092.22</v>
       </c>
-      <c r="CL9" s="2">
+      <c r="CN9" s="2">
         <v>2729262604.9000001</v>
       </c>
-      <c r="CM9" s="2">
+      <c r="CO9" s="2">
         <v>1758729020.54</v>
       </c>
-      <c r="CN9" s="2">
+      <c r="CP9" s="2">
         <v>8957440667.6000004</v>
       </c>
-      <c r="CO9" s="2">
+      <c r="CQ9" s="2">
         <v>7429992616.3900003</v>
       </c>
-      <c r="CP9" s="2">
+      <c r="CR9" s="2">
         <v>3183922485</v>
       </c>
-      <c r="CQ9" s="2">
+      <c r="CS9" s="2">
         <v>3183922485</v>
       </c>
-      <c r="CR9" s="2">
+      <c r="CT9" s="2">
         <v>-1691402956.3399999</v>
       </c>
-      <c r="CS9" s="2">
+      <c r="CU9" s="2">
         <v>-1691402956.3399999</v>
       </c>
-      <c r="CT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="1">
-        <v>0</v>
-      </c>
       <c r="CV9" s="1">
         <v>0</v>
       </c>
       <c r="CW9" s="1">
         <v>0</v>
       </c>
-      <c r="CX9" s="2">
+      <c r="CX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="2">
         <v>92208133.060000002</v>
       </c>
-      <c r="CY9" s="2">
+      <c r="DA9" s="2">
         <v>83149321.120000005</v>
       </c>
-      <c r="CZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB9" s="2">
+      <c r="DB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2">
         <v>2633670050.8699999</v>
       </c>
-      <c r="DC9" s="2">
+      <c r="DE9" s="2">
         <v>2100973050.8399999</v>
       </c>
-      <c r="DD9" s="2">
+      <c r="DF9" s="2">
         <v>4237756709.3200002</v>
       </c>
-      <c r="DE9" s="2">
+      <c r="DG9" s="2">
         <v>3676641900.6199999</v>
       </c>
-      <c r="DF9" s="2">
+      <c r="DH9" s="2">
         <v>13195197376.92</v>
       </c>
-      <c r="DG9" s="2">
+      <c r="DI9" s="2">
         <v>11106634517.01</v>
       </c>
-      <c r="DH9" s="1" t="s">
+      <c r="DJ9" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="DI9" s="3">
+      <c r="DK9" s="3">
         <v>2017</v>
       </c>
-      <c r="DJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="1" t="s">
+      <c r="DL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="1" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:117">
+      <c r="A10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1910498546.5999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3022973432.1700001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>22943808.309999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>58191655.299999997</v>
+      </c>
+      <c r="L10" s="2">
+        <v>414146998.86000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>419045401</v>
+      </c>
+      <c r="N10" s="2">
+        <v>390645054.82999998</v>
+      </c>
+      <c r="O10" s="2">
+        <v>131805710.44</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4297195247.3400002</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5589919282.29</v>
+      </c>
+      <c r="R10" s="2">
+        <v>170995250.44</v>
+      </c>
+      <c r="S10" s="2">
+        <v>141222924.46000001</v>
+      </c>
+      <c r="T10" s="2">
+        <v>7206424906.3800001</v>
+      </c>
+      <c r="U10" s="2">
+        <v>9363158405.6599998</v>
+      </c>
+      <c r="V10" s="2">
+        <v>131000000</v>
+      </c>
+      <c r="W10" s="2">
+        <v>131000000</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>23416960.199999999</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>801418955.63</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>909909807.12</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>3981910543.71</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>2200820119.71</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>155921223.34</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>55654875.630000003</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>474799.14</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>705172.19</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>482085475.81</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>482085475.81</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>6744764.25</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>3841498.97</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>250073967.02000001</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>200817862.19999999</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>5833046689.1000004</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>3996834811.6300001</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>13039471595.48</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>13359993217.290001</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>894053254.50999999</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>994274753.99000001</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>337394310.10000002</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>480350580.32999998</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>90175153.5</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>86444385.950000003</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>1122282270.6600001</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>767857908.30999994</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>4308597.25</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>10233227.039999999</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>4308597.25</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>10233227.039999999</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>2440362005.5900002</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>2916191674.9499998</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>4971455352.5</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>2333000000</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>1131000000</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="2">
+        <v>110156709.20999999</v>
+      </c>
+      <c r="CM10" s="2">
+        <v>59937154.469999999</v>
+      </c>
+      <c r="CN10" s="2">
+        <v>2443156709.21</v>
+      </c>
+      <c r="CO10" s="2">
+        <v>1190937154.47</v>
+      </c>
+      <c r="CP10" s="2">
+        <v>5359348384.1599998</v>
+      </c>
+      <c r="CQ10" s="2">
+        <v>6162392506.9700003</v>
+      </c>
+      <c r="CR10" s="2">
+        <v>2054009302</v>
+      </c>
+      <c r="CS10" s="2">
+        <v>2054009302</v>
+      </c>
+      <c r="CT10" s="2">
+        <v>3525128789.5999999</v>
+      </c>
+      <c r="CU10" s="2">
+        <v>3547437251.4400001</v>
+      </c>
+      <c r="CX10" s="2">
+        <v>6074897.8200000003</v>
+      </c>
+      <c r="CY10" s="2">
+        <v>-295315.71999999997</v>
+      </c>
+      <c r="CZ10" s="2">
+        <v>244577834.66</v>
+      </c>
+      <c r="DA10" s="2">
+        <v>191608679.06999999</v>
+      </c>
+      <c r="DB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2">
+        <v>1373334764.8</v>
+      </c>
+      <c r="DE10" s="2">
+        <v>1154487880.9300001</v>
+      </c>
+      <c r="DF10" s="2">
+        <v>7680123211.3199997</v>
+      </c>
+      <c r="DG10" s="2">
+        <v>7197600710.3199997</v>
+      </c>
+      <c r="DH10" s="2">
+        <v>13039471595.48</v>
+      </c>
+      <c r="DI10" s="2">
+        <v>13359993217.290001</v>
+      </c>
+      <c r="DJ10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DK10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="DL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4445,19 +4875,19 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>DH2:DH1048576</xm:sqref>
+          <xm:sqref>DJ2:DJ1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9A79555-3BA3-4A87-8DEF-6FB02FF4564C}">
           <x14:formula1>
             <xm:f>基础数据表!$D$4:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>DI2:DI1048576</xm:sqref>
+          <xm:sqref>DK2:DK1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{465D3134-51B9-4278-8C57-E117E3DDF830}">
           <x14:formula1>
             <xm:f>基础数据表!$E$4:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>DJ2:DJ1048576</xm:sqref>
+          <xm:sqref>DL2:DL1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4467,10 +4897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
-  <dimension ref="A1:AW9"/>
+  <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4482,26 +4912,28 @@
     <col min="10" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="19" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.5703125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="16.5703125" style="1" customWidth="1"/>
-    <col min="44" max="45" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="19" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="19" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="43" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29.5703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="16.5703125" style="1" customWidth="1"/>
+    <col min="50" max="51" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="6" customFormat="1">
+    <row r="1" spans="1:55" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -4557,100 +4989,118 @@
         <v>181</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AT1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:55">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -4706,100 +5156,118 @@
         <v>-4845546598.04</v>
       </c>
       <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
         <v>-1928797250.1800001</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
         <v>-991560.45</v>
       </c>
-      <c r="U2" s="2">
+      <c r="AA2" s="2">
         <v>86317962.760000005</v>
       </c>
-      <c r="V2" s="2">
+      <c r="AB2" s="2">
         <v>1093332134.6500001</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AC2" s="2">
         <v>-1010322499.17</v>
       </c>
-      <c r="X2" s="2">
+      <c r="AD2" s="2">
         <v>-2221356324.5500002</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AE2" s="2">
         <v>96654919.950000003</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AF2" s="2">
         <v>17455697835.720001</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AG2" s="2">
         <v>13516176980.540001</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AH2" s="2">
         <v>1096234774.23</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AI2" s="2">
         <v>1404291659.8499999</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AJ2" s="2">
         <v>20742533.350000001</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AK2" s="2">
         <v>11049178.359999999</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AL2" s="2">
         <v>18531190076.599998</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AM2" s="2">
         <v>14909419462.030001</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AN2" s="2">
         <v>3006555172.73</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AO2" s="2">
         <v>2285686841.8099999</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AP2" s="2">
         <v>15524634903.870001</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AQ2" s="2">
         <v>12623732620.219999</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AR2" s="2">
         <v>-54469476.32</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AS2" s="2">
         <v>-139722316.44</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AT2" s="1">
         <v>2.56</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AU2" s="1">
         <v>2.08</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AV2" s="1">
         <v>2.56</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AW2" s="1">
         <v>2.08</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AX2" s="2">
         <v>15470165427.549999</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AY2" s="2">
         <v>12484010303.780001</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="BA2" s="3">
         <v>2016</v>
       </c>
-      <c r="AV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:55">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4855,14 +5323,14 @@
         <v>2075256781.28</v>
       </c>
       <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
         <v>1592067967.1400001</v>
       </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
       <c r="V3" s="2">
         <v>0</v>
       </c>
@@ -4870,85 +5338,103 @@
         <v>0</v>
       </c>
       <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
         <v>6244561688.3900003</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AE3" s="2">
         <v>5013835862.3800001</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AF3" s="2">
         <v>50812916408.400002</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AG3" s="2">
         <v>39021784520.230003</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AH3" s="2">
         <v>723287994.90999997</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AI3" s="2">
         <v>396761212.13</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AJ3" s="2">
         <v>394251737.89999998</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AK3" s="2">
         <v>164934006.08000001</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AL3" s="2">
         <v>51141952665.410004</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AM3" s="2">
         <v>39253611726.279999</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AN3" s="2">
         <v>13933565335.34</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AO3" s="2">
         <v>10903356245.620001</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AP3" s="2">
         <v>37208387330.07</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AQ3" s="2">
         <v>28350255480.66</v>
       </c>
-      <c r="AL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
         <v>2.54</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AU3" s="1">
         <v>1.9</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AV3" s="1">
         <v>2.54</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AW3" s="1">
         <v>1.9</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AX3" s="2">
         <v>37007858045.099998</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AY3" s="2">
         <v>28311311325.540001</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="BA3" s="3">
         <v>2017</v>
       </c>
-      <c r="AV3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:55">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -5004,100 +5490,118 @@
         <v>431284686.19</v>
       </c>
       <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <v>-4845422380.2600002</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
         <v>263787001.81999999</v>
       </c>
-      <c r="U4" s="2">
+      <c r="AA4" s="2">
         <v>-43913008.689999998</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AB4" s="2">
         <v>9212503.5899999999</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AC4" s="2">
         <v>1093332134.6500001</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AD4" s="2">
         <v>396648138.31999999</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AE4" s="2">
         <v>-2221356324.5500002</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AF4" s="2">
         <v>26126666010.259998</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AG4" s="2">
         <v>17503625548.310001</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AH4" s="2">
         <v>511059113.00999999</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AI4" s="2">
         <v>1093853241.0899999</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AJ4" s="2">
         <v>20540169.370000001</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AK4" s="2">
         <v>24405359.559999999</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AL4" s="2">
         <v>26617184953.900002</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AM4" s="2">
         <v>18573073429.84</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AN4" s="2">
         <v>4108585909.8099999</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AO4" s="2">
         <v>3006619752.2399998</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AP4" s="2">
         <v>22508599044.09</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AQ4" s="2">
         <v>15566453677.6</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AR4" s="2">
         <v>125720324.63</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AS4" s="2">
         <v>-91602195.359999999</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AT4" s="1">
         <v>3.72</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AU4" s="1">
         <v>2.57</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AV4" s="1">
         <v>3.72</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AW4" s="1">
         <v>2.57</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AX4" s="2">
         <v>22634319368.720001</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AY4" s="2">
         <v>15474851482.24</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="BA4" s="3">
         <v>2017</v>
       </c>
-      <c r="AV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:55">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -5153,14 +5657,14 @@
         <v>1392872274.21</v>
       </c>
       <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <v>720408216.52999997</v>
       </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
       <c r="V5" s="2">
         <v>0</v>
       </c>
@@ -5168,85 +5672,103 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
         <v>1481800064.8199999</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AE5" s="2">
         <v>1619717433.78</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AF5" s="2">
         <v>10113122382</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AG5" s="2">
         <v>7354226263.7200003</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AH5" s="2">
         <v>692963237.75999999</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AI5" s="2">
         <v>1170564378.2</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AJ5" s="2">
         <v>261629717.99000001</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AK5" s="2">
         <v>336173701.05000001</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AL5" s="2">
         <v>10544455901.77</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AM5" s="2">
         <v>8188616940.8699999</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AN5" s="2">
         <v>1492806717.73</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AO5" s="2">
         <v>1492636755.3199999</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AP5" s="2">
         <v>9051649184.0400009</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AQ5" s="2">
         <v>6695980185.5500002</v>
       </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
         <v>1.1359999999999999</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AU5" s="1">
         <v>0.82699999999999996</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AV5" s="1">
         <v>1.1359999999999999</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AW5" s="1">
         <v>0.82699999999999996</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AX5" s="2">
         <v>8447593492.4300003</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AY5" s="2">
         <v>6659288647.04</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="BA5" s="3">
         <v>2017</v>
       </c>
-      <c r="AV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:55">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -5267,7 +5789,7 @@
         <v>224462763000</v>
       </c>
       <c r="G6" s="4">
-        <f>I6+K6+M6+O6+Q6+S6</f>
+        <f>I6+K6+M6+O6+Q6+U6</f>
         <v>143425412000</v>
       </c>
       <c r="H6" s="1">
@@ -5303,101 +5825,119 @@
       <c r="R6" s="4">
         <v>815949000</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
         <v>-1005979000</v>
       </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
         <v>1830221000</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AE6" s="4">
         <v>1285961000</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AF6" s="4">
         <v>21627854000</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AG6" s="4">
         <v>17324101000</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AH6" s="4">
         <v>467204000</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AI6" s="4">
         <v>1758220000</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AJ6" s="4">
         <v>240284000</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AK6" s="4">
         <v>167718000</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AL6" s="4">
         <v>21854774000</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AM6" s="4">
         <v>18914603000</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AN6" s="4">
         <v>3243584000</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AO6" s="4">
         <v>3052691000</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AP6" s="4">
         <v>18611190000</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AQ6" s="4">
         <v>15861912000</v>
       </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
         <v>2.66</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AU6" s="1">
         <v>2.29</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AV6" s="1">
         <v>2.66</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AW6" s="1">
         <v>2.29</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AX6" s="4">
         <v>18300562000</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AY6" s="4">
         <v>17050127000</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="BA6" s="3">
         <v>2017</v>
       </c>
-      <c r="AV6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1" t="s">
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:55">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -5453,100 +5993,118 @@
         <v>-55722346.189999998</v>
       </c>
       <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
         <v>-33175188.52</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
         <v>38940007533.449997</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AG7" s="2">
         <v>24265625169.419998</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AH7" s="2">
         <v>12201990.51</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AI7" s="2">
         <v>8553926.0600000005</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AJ7" s="2">
         <v>212137381.36000001</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AK7" s="2">
         <v>316298138.37</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AL7" s="2">
         <v>38740072142.599998</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AM7" s="2">
         <v>23957880957.110001</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AN7" s="2">
         <v>9733648906.6000004</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AO7" s="2">
         <v>6027237847.2299995</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AP7" s="2">
         <v>29006423236</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AQ7" s="2">
         <v>17930643109.880001</v>
       </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
         <v>21.56</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AU7" s="5">
         <v>13.31</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AV7" s="1">
         <v>21.56</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AW7" s="5">
         <v>13.31</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AX7" s="2">
         <v>29010262501.16</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AY7" s="2">
         <v>17932436343.790001</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="BA7" s="3">
         <v>2017</v>
       </c>
-      <c r="AV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1" t="s">
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:55">
       <c r="A8" s="6" t="s">
         <v>256</v>
       </c>
@@ -5602,100 +6160,118 @@
         <v>146118946.31999999</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>252217844.52000001</v>
       </c>
-      <c r="T8" s="2">
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
         <v>-30575366.699999999</v>
       </c>
-      <c r="U8" s="2">
+      <c r="AA8" s="2">
         <v>17986422.149999999</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
         <v>37340001.829999998</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AE8" s="2">
         <v>240358882.21000001</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AF8" s="2">
         <v>544192725.98000002</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AG8" s="2">
         <v>183921931.53999999</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AH8" s="2">
         <v>7335740.7199999997</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AI8" s="2">
         <v>3425235.35</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AJ8" s="2">
         <v>1464611.3</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AK8" s="2">
         <v>4052812.69</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AL8" s="2">
         <v>550063855.39999998</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AM8" s="2">
         <v>183294354.19999999</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AN8" s="2">
         <v>201156909.09999999</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AO8" s="2">
         <v>87640949.640000001</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AP8" s="2">
         <v>348906946.30000001</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AQ8" s="2">
         <v>95653404.560000002</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AR8" s="2">
         <v>-4584463.92</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AS8" s="2">
         <v>4159874.67</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AT8" s="1">
         <v>0.1734</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AU8" s="1">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AV8" s="1">
         <v>0.1734</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AW8" s="1">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AX8" s="2">
         <v>344322482.38</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AY8" s="2">
         <v>99813279.230000004</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="BA8" s="3">
         <v>2017</v>
       </c>
-      <c r="AV8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1" t="s">
+      <c r="BB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:55">
       <c r="A9" s="6" t="s">
         <v>265</v>
       </c>
@@ -5751,97 +6327,270 @@
         <v>94460890.549999997</v>
       </c>
       <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
         <v>102364423.72</v>
       </c>
-      <c r="T9" s="2">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
         <v>81791626.489999995</v>
       </c>
-      <c r="U9" s="2">
+      <c r="AA9" s="2">
         <v>8490302.9299999997</v>
       </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
         <v>66120448.43</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AE9" s="2">
         <v>72310749.230000004</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AF9" s="2">
         <v>655742885.69000006</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AG9" s="2">
         <v>197039997.53999999</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AH9" s="2">
         <v>14801419.67</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AI9" s="2">
         <v>4733259.88</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AJ9" s="2">
         <v>3842611.14</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AK9" s="2">
         <v>3129860.68</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AL9" s="2">
         <v>666701694.22000003</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AM9" s="2">
         <v>198643396.74000001</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AN9" s="2">
         <v>125156885.52</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AO9" s="2">
         <v>49708994.909999996</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AP9" s="2">
         <v>541544808.70000005</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AQ9" s="2">
         <v>148934401.83000001</v>
       </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
         <v>0.17019999999999999</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AU9" s="1">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AV9" s="1">
         <v>0.17019999999999999</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AW9" s="1">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AX9" s="2">
         <v>541544808.70000005</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AY9" s="2">
         <v>148934401.83000001</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="BA9" s="3">
         <v>2017</v>
       </c>
-      <c r="AV9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1" t="s">
+      <c r="BB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55">
+      <c r="A10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3644769338.52</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3294957299.48</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3644769338.52</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3294957299.48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3309349809.8299999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2788179479</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2403526984.3699999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2151856339.73</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>456261860.75</v>
+      </c>
+      <c r="M10" s="2">
+        <v>229057688.58000001</v>
+      </c>
+      <c r="N10" s="2">
+        <v>121791875.89</v>
+      </c>
+      <c r="O10" s="2">
+        <v>155339578.31</v>
+      </c>
+      <c r="P10" s="2">
+        <v>130488728.40000001</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>136382292.75999999</v>
+      </c>
+      <c r="R10" s="2">
+        <v>181746341.55000001</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>146118946.31999999</v>
+      </c>
+      <c r="V10" s="2">
+        <v>210217933.38</v>
+      </c>
+      <c r="W10" s="2">
+        <v>162887861.94</v>
+      </c>
+      <c r="X10" s="2">
+        <v>28710889.07</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>20297147.41</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>15534018.869999999</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>-30575366.699999999</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>557996986.30999994</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>544192725.98000002</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>14458952</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>7335740.7199999997</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>1609238.48</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>1464611.3</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>570846699.83000004</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>550063855.39999998</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>139970413.94999999</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>201156909.09999999</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>430876285.88</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>348906946.30000001</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>6370213.54</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>-4584463.92</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0.1593</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0.1734</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0.1593</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0.1734</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>437246499.42000002</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>344322482.38</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5860,25 +6609,25 @@
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$28</xm:f>
           </x14:formula1>
-          <xm:sqref>AT2:AT5 AT7:AT1048576</xm:sqref>
+          <xm:sqref>AZ2:AZ5 AZ7:AZ1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2417C863-140F-476E-A3CC-75593D8F8DAA}">
           <x14:formula1>
             <xm:f>基础数据表!$D$4:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AU2:AU1048576</xm:sqref>
+          <xm:sqref>BA2:BA1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC35E51B-C16D-490D-945D-07F24671BF68}">
           <x14:formula1>
             <xm:f>基础数据表!$E$4:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AV2:AV1048576</xm:sqref>
+          <xm:sqref>BB2:BB1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{302DFDD0-7217-4772-8C5F-68AF0FEBE3E3}">
           <x14:formula1>
             <xm:f>基础数据表!$C$4:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>AT6</xm:sqref>
+          <xm:sqref>AZ6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5888,10 +6637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
-  <dimension ref="A1:BY9"/>
+  <dimension ref="A1:BY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="BW10" sqref="BW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7690,6 +8439,9 @@
       <c r="AC8" s="2">
         <v>269786516.49000001</v>
       </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
       <c r="AE8" s="2">
         <v>32861369.850000001</v>
       </c>
@@ -7782,6 +8534,9 @@
       </c>
       <c r="BI8" s="2">
         <v>458917919.63999999</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>0</v>
       </c>
       <c r="BK8" s="2">
         <v>557394670</v>
@@ -8060,6 +8815,239 @@
       </c>
       <c r="BY9" s="1" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77">
+      <c r="A10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1586942928.48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2422947182.4299998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100913</v>
+      </c>
+      <c r="F10" s="2">
+        <v>471710155.19</v>
+      </c>
+      <c r="G10" s="2">
+        <v>528124372.19999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2058653083.6700001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2951172467.6300001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>740137817.05999994</v>
+      </c>
+      <c r="K10" s="2">
+        <v>668475805.59000003</v>
+      </c>
+      <c r="L10" s="2">
+        <v>138082310.58000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>126555088.98999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>416618605.80000001</v>
+      </c>
+      <c r="O10" s="2">
+        <v>481850467.75999999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>433293991.04000002</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>692273245.87</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1728132724.48</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1969154608.21</v>
+      </c>
+      <c r="T10" s="2">
+        <v>330520359.19</v>
+      </c>
+      <c r="U10" s="2">
+        <v>982017859.41999996</v>
+      </c>
+      <c r="V10" s="2">
+        <v>108589548.56999999</v>
+      </c>
+      <c r="W10" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="X10" s="2">
+        <v>4128670.72</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>36262137.310000002</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>27929.23</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>30024809.68</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>391336767.06</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>504054986.35000002</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>84314876.219999999</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>417315.71</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>2041830.43</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>305000000</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>630825663.16999996</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>1561613.58</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>491714213.11000001</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>306978929.29000002</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>1124581706.71</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>197076057.06</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>-1040266830.49</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>2960000</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>1683000000</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>1685960000</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>2730000000</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>204000000</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>437111652.88999999</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>227416786.22999999</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>3167111652.8899999</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>431416786.23000002</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>-1481151652.8900001</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>-431416786.23000002</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>6370213.54</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>-4584463.92</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>-947185023.10000002</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>-494250221.22000003</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>1727049729.29</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>2674234752.3899999</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="BX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
